--- a/2019 FA Prediction.xlsx
+++ b/2019 FA Prediction.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAF855-5EDC-4A7F-8858-465D67416444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A15F373-9286-474D-95C2-682D2E8715F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6331,7 +6331,7 @@
   <dimension ref="B1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/2019 FA Prediction.xlsx
+++ b/2019 FA Prediction.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A15F373-9286-474D-95C2-682D2E8715F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="4980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2014~2018" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014~2018'!$B$2:$J$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2019'!$B$2:$T$17</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2959,7 +2958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -3107,25 +3106,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FA8DD16-D26C-4F38-AD1E-AB5403FC0F46}" name="표1" displayName="표1" ref="B2:J88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B2:J88" xr:uid="{33317C3A-C12C-4D91-A315-5111EB938FAE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:J88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B2:J88"/>
   <sortState ref="B3:J88">
     <sortCondition descending="1" ref="E2:E88"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BD0CC6D2-6F93-47C4-89B8-7CD0DC0B1C3C}" name="년도" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{91707AF3-A27C-41BE-88FE-78D4B63CFB76}" name="선수" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1AD40304-F339-434B-B996-0CAFE8A07723}" name="투/타" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8DB74752-89FC-4C5C-8984-0BB76C4F201D}" name="총액 (억)" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B0674F39-4B5E-4C4A-BF0C-D3624580A3AF}" name="년수" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{EB8D05C4-77C1-4BC0-993D-B8E70CC29F6B}" name="AAV" dataDxfId="10">
+    <tableColumn id="1" name="년도" dataDxfId="15"/>
+    <tableColumn id="2" name="선수" dataDxfId="14"/>
+    <tableColumn id="3" name="투/타" dataDxfId="13"/>
+    <tableColumn id="4" name="총액 (억)" dataDxfId="12"/>
+    <tableColumn id="5" name="년수" dataDxfId="11"/>
+    <tableColumn id="6" name="AAV" dataDxfId="10">
       <calculatedColumnFormula>E3/F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1091B6CB-E2D6-440E-93D6-47AFD7F294AF}" name="지불금액" dataDxfId="9">
+    <tableColumn id="7" name="지불금액" dataDxfId="9">
       <calculatedColumnFormula>E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{04D7F491-CF64-4EF1-B050-275525A220BB}" name="계약 이후 WAR*" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{358E5F8F-E15C-4BC5-B80B-E05792A19D4F}" name="1 WAR* 당 금액" dataDxfId="7">
+    <tableColumn id="8" name="계약 이후 WAR*" dataDxfId="8"/>
+    <tableColumn id="9" name="1 WAR* 당 금액" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(H3/I3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3134,17 +3133,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D60326E8-8454-47A0-911A-D0B70D2654F8}" name="표2" displayName="표2" ref="B2:F843" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F843" xr:uid="{0628CB68-7C9D-45F5-A9DF-99A0930E0FDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F843" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F843"/>
   <sortState ref="B3:F843">
     <sortCondition descending="1" ref="E2:E843"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{586F00EE-A5DC-4086-BFBB-5FF64B7BE040}" name="선수" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1B1E4736-78F2-4B55-8596-81E0EA0522D8}" name="년도" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FB017618-3006-4690-A9C2-013A0EBC5E2F}" name="팀" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0C15E73C-04B7-47E0-AE4F-F2B175490391}" name="금액 (억)" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2494B3E5-BF39-4670-B98E-F5A818EFEA7D}" name="WAR" dataDxfId="0"/>
+    <tableColumn id="1" name="선수" dataDxfId="4"/>
+    <tableColumn id="2" name="년도" dataDxfId="3"/>
+    <tableColumn id="3" name="팀" dataDxfId="2"/>
+    <tableColumn id="4" name="금액 (억)" dataDxfId="1"/>
+    <tableColumn id="5" name="WAR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3412,30 +3411,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.796875" style="1"/>
-    <col min="5" max="5" width="13.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1"/>
-    <col min="8" max="8" width="9.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.09765625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.796875" style="1"/>
+    <col min="1" max="4" width="8.75" style="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.75" style="1"/>
     <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="1"/>
+    <col min="14" max="14" width="10.75" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>119</v>
@@ -3450,7 +3449,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>6.5055300111842911</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2017</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>7.1837332432127994</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2018</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>8.3445606994410184</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2017</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>6.9223907225691343</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2018</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>7.0313695485845455</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2016</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>7.2079701120797051</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2017</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>9.3688362919132153</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2015</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>18.867924528301888</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>2018</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>5.9459459459459456</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>2015</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>4.4908616187989558</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>2017</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>8.0340264650283562</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>2016</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>7.3684210526315788</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>7.7395577395577391</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>2015</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>7.1611253196930944</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>2018</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>10.416666666666668</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>2018</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>6.4935064935064934</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>2015</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>7.0859167404783001</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>2014</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>4.9439683586025049</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>2014</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>4.3640897755610979</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>2014</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>6.9214876033057857</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>20.061728395061728</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>2016</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>5.0675675675675675</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>2016</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>5.7618437900128043</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>2014</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>-176.47058823529412</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>2015</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>11.313131313131313</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2017</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>4.1806020066889626</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>2015</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>4.2194092827004219</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>2014</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>6.6050198150594452</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>2017</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>3.4364261168384878</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>2016</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>12.605042016806724</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>2016</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>5.4285714285714288</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>2016</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>38.513513513513516</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>2016</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>2.827225130890052</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>2016</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>9.5744680851063837</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>2018</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>7.0707070707070709</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>2016</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>7.3735955056179776</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>2014</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>5.0143266475644692</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>2015</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>12.318840579710146</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>2016</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>-184.61538461538461</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>2015</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>8.247422680412372</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>2016</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>76.92307692307692</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>2016</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>2014</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>3.5799522673031023</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>2018</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>27.884615384615383</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>2015</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>14.893617021276597</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>2014</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>4.3343653250773997</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>2018</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>3.2374100719424463</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>2017</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>2.8481012658227849</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>2017</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>2014</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>-22.368421052631582</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>2014</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>3.8897893030794166</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>2017</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>4.8596112311015123</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>2015</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>2015</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>-44.791666666666671</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>2014</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>-333.33333333333337</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>2015</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>1.3957055214723926</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>2014</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>9.1397849462365581</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>2018</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>-41.666666666666671</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>2017</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>2017</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>20.27027027027027</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>2016</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>8.4051724137931032</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>2014</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>30.232558139534884</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>2018</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>2016</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>5.8659217877094969</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>2018</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>6.8027210884353746</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>2018</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>2016</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>-5.7803468208092488</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>2015</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>2.5679758308157101</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>2014</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>2.2792022792022792</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>2018</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>2017</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>4.4585987261146496</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>2016</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>6.391752577319588</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>2018</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>2.8037383177570092</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>2018</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>-4.615384615384615</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>2015</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>5.9782608695652169</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>2018</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>-6.9444444444444446</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>2016</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>2015</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>3.6231884057971016</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>2017</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>-15.517241379310345</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>2015</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>-5.6962025316455698</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>2015</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>2018</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>2015</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>2015</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>-3.4188034188034191</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>2018</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>1.2396694214876034</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>2014</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>-4.166666666666667</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>2018</v>
       </c>
@@ -6327,31 +6326,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5304BF7-F640-495C-BA6E-2AD6D09E2026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.8984375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.796875" style="1"/>
+    <col min="18" max="19" width="8.75" style="1"/>
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="E1" s="3">
         <v>43647</v>
       </c>
@@ -6359,7 +6358,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>6.1874842925358129</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E8" si="0">YEAR(43647)-YEAR(C3)</f>
+        <f>YEAR(43647)-YEAR(C3)</f>
         <v>32</v>
       </c>
       <c r="F3" s="4">
@@ -6467,19 +6466,19 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O17" si="1">COUNT(I3:N3)</f>
+        <f>COUNT(I3:N3)</f>
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:P17" si="2">SUM(I3:N3)</f>
+        <f>SUM(I3:N3)</f>
         <v>17.163897612</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q12" si="3">SUM(I3:N3)*SUMIFS($W$2:$W$3,$V$2:$V$3,D3)</f>
+        <f>SUM(I3:N3)*SUMIFS($W$2:$W$3,$V$2:$V$3,D3)</f>
         <v>106.20134687294295</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" ref="R3:R12" si="4">SUM(I3:N3)*$W$4</f>
+        <f>SUM(I3:N3)*$W$4</f>
         <v>123.71686099409222</v>
       </c>
       <c r="S3" s="1">
@@ -6497,7 +6496,7 @@
         <v>10.162503031772982</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f>YEAR(43647)-YEAR(C4)</f>
         <v>32</v>
       </c>
       <c r="F4" s="4">
@@ -6545,19 +6544,19 @@
         <v>2.3430728129139196</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNT(I4:N4)</f>
         <v>6</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(I4:N4)</f>
         <v>19.445607575761919</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I4:N4)*SUMIFS($W$2:$W$3,$V$2:$V$3,D4)</f>
         <v>120.31939143384228</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(I4:N4)*$W$4</f>
         <v>140.16335821732261</v>
       </c>
       <c r="S4" s="5">
@@ -6575,7 +6574,7 @@
         <v>7.2079701120797051</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f>YEAR(43647)-YEAR(C5)</f>
         <v>31</v>
       </c>
       <c r="F5" s="4">
@@ -6615,19 +6614,19 @@
         <v>2.124822644</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNT(I5:N5)</f>
         <v>4</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="2"/>
+        <f>SUM(I5:N5)</f>
         <v>9.6780762439999997</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I5:N5)*SUMIFS($W$2:$W$3,$V$2:$V$3,D5)</f>
         <v>59.882944741713992</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
+        <f>SUM(I5:N5)*$W$4</f>
         <v>69.759284309180615</v>
       </c>
       <c r="S5" s="1">
@@ -6637,7 +6636,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f>YEAR(43647)-YEAR(C6)</f>
         <v>40</v>
       </c>
       <c r="F6" s="4">
@@ -6694,7 +6693,7 @@
         <v>4.1701678405977489</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f>YEAR(43647)-YEAR(C7)</f>
         <v>35</v>
       </c>
       <c r="F7" s="4">
@@ -6754,7 +6753,7 @@
         <v>-12.275669870419705</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="0"/>
+        <f>YEAR(43647)-YEAR(C8)</f>
         <v>34</v>
       </c>
       <c r="F8" s="2">
@@ -6812,171 +6811,186 @@
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3">
-        <v>32494</v>
+        <v>32955</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E9" s="6">
-        <f>YEAR(43647)-YEAR(C9)-1</f>
-        <v>30</v>
+        <f>YEAR(43647)-YEAR(C9)</f>
+        <v>29</v>
       </c>
       <c r="F9" s="4">
-        <v>3.37</v>
+        <v>0.4</v>
       </c>
       <c r="G9" s="4">
-        <v>2.2400000000000002</v>
+        <v>-0.08</v>
       </c>
       <c r="H9" s="4">
-        <v>1.75</v>
+        <v>0.44</v>
       </c>
       <c r="I9" s="2">
         <f>((H9*0.6)+(0.3*G9)+(F9*0.1))*0.9+0.05*(32-$E$9)</f>
-        <v>1.9531000000000003</v>
+        <v>0.40200000000000008</v>
       </c>
       <c r="J9" s="2">
         <f>((I9*0.6)+(0.3*H9)+(G9*0.1))*0.9+0.05*(32-$E$9-1)</f>
-        <v>1.7787740000000001</v>
+        <v>0.42868000000000006</v>
       </c>
       <c r="K9" s="2">
         <f>((J9*0.6)+(0.3*I9)+(H9*0.1))*0.9+0.05*(32-$E$9-2)</f>
-        <v>1.6453749600000001</v>
-      </c>
-      <c r="L9" s="2">
-        <f>((K9*0.6)+(0.3*J9)+(I9*0.1))*0.9+0.05*(32-$E$9-3)</f>
-        <v>1.4945504584</v>
-      </c>
+        <v>0.42962719999999999</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="O9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNT(I9:N9)</f>
+        <v>3</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="2"/>
-        <v>6.8717994184000002</v>
+        <f>SUM(I9:N9)</f>
+        <v>1.2603072000000002</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="3"/>
-        <v>42.519150962806734</v>
+        <f>SUM(I9:N9)*SUMIFS($W$2:$W$3,$V$2:$V$3,D9)</f>
+        <v>7.7981310037697922</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="4"/>
-        <v>49.531724824033901</v>
-      </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+        <f>SUM(I9:N9)*$W$4</f>
+        <v>9.08425662963886</v>
+      </c>
+      <c r="S9" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="T9" s="5">
+        <f>S9-R9</f>
+        <v>4.41574337036114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3">
-        <v>31285</v>
+        <v>30491</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="6">
-        <f>YEAR(43647)-YEAR(C10)-1</f>
-        <v>33</v>
+        <f>YEAR(43647)-YEAR(C10)</f>
+        <v>36</v>
       </c>
       <c r="F10" s="4">
-        <v>4.3099999999999996</v>
+        <v>2.95</v>
       </c>
       <c r="G10" s="4">
-        <v>0.32</v>
+        <v>2.72</v>
       </c>
       <c r="H10" s="4">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="I10" s="2">
         <f>((H10*0.6)+(0.3*G10)+(F10*0.1))*0.9+0.05*(32-$E$10)</f>
-        <v>1.4179000000000002</v>
+        <v>1.6531000000000002</v>
       </c>
       <c r="J10" s="2">
         <f>((I10*0.6)+(0.3*H10)+(G10*0.1))*0.9+0.05*(32-$E$10-1)</f>
-        <v>1.1912660000000002</v>
+        <v>1.3140740000000002</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNT(I10:N10)</f>
         <v>2</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="2"/>
-        <v>2.6091660000000001</v>
+        <f>SUM(I10:N10)</f>
+        <v>2.9671740000000004</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="3"/>
-        <v>16.144173641618497</v>
+        <f>SUM(I10:N10)*SUMIFS($W$2:$W$3,$V$2:$V$3,D10)</f>
+        <v>18.359342518220661</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="4"/>
-        <v>18.806790545454557</v>
-      </c>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+        <f>SUM(I10:N10)*$W$4</f>
+        <v>21.387301509339991</v>
+      </c>
+      <c r="S10" s="1">
+        <v>8</v>
+      </c>
+      <c r="T10" s="5">
+        <f>S10-Q10</f>
+        <v>-10.359342518220661</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
-        <v>30491</v>
+        <v>32494</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="6">
-        <f>YEAR(43647)-YEAR(C11)</f>
-        <v>36</v>
+        <f>YEAR(43647)-YEAR(C11)-1</f>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="G11" s="4">
-        <v>2.72</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H11" s="4">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="I11" s="2">
         <f>((H11*0.6)+(0.3*G11)+(F11*0.1))*0.9+0.05*(32-$E$11)</f>
-        <v>1.6531000000000002</v>
+        <v>1.9531000000000003</v>
       </c>
       <c r="J11" s="2">
         <f>((I11*0.6)+(0.3*H11)+(G11*0.1))*0.9+0.05*(32-$E$11-1)</f>
-        <v>1.3140740000000002</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>1.7787740000000001</v>
+      </c>
+      <c r="K11" s="2">
+        <f>((J11*0.6)+(0.3*I11)+(H11*0.1))*0.9+0.05*(32-$E$11-2)</f>
+        <v>1.6453749600000001</v>
+      </c>
+      <c r="L11" s="2">
+        <f>((K11*0.6)+(0.3*J11)+(I11*0.1))*0.9+0.05*(32-$E$11-3)</f>
+        <v>1.4945504584</v>
+      </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNT(I11:N11)</f>
+        <v>4</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9671740000000004</v>
+        <f>SUM(I11:N11)</f>
+        <v>6.8717994184000002</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="3"/>
-        <v>18.359342518220661</v>
+        <f>SUM(I11:N11)*SUMIFS($W$2:$W$3,$V$2:$V$3,D11)</f>
+        <v>42.519150962806734</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="4"/>
-        <v>21.387301509339991</v>
+        <f>SUM(I11:N11)*$W$4</f>
+        <v>49.531724824033901</v>
       </c>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3">
-        <v>31276</v>
+        <v>31285</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -6986,300 +7000,294 @@
         <v>33</v>
       </c>
       <c r="F12" s="4">
-        <v>0.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G12" s="4">
-        <v>1.69</v>
+        <v>0.32</v>
       </c>
       <c r="H12" s="4">
-        <v>-0.39</v>
+        <v>1.84</v>
       </c>
       <c r="I12" s="2">
         <f>((H12*0.6)+(0.3*G12)+(F12*0.1))*0.9+0.05*(32-$E$12)</f>
-        <v>0.22360000000000008</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>1.4179000000000002</v>
+      </c>
+      <c r="J12" s="2">
+        <f>((I12*0.6)+(0.3*H12)+(G12*0.1))*0.9+0.05*(32-$E$12-1)</f>
+        <v>1.1912660000000002</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="O12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>COUNT(I12:N12)</f>
+        <v>2</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22360000000000008</v>
+        <f>SUM(I12:N12)</f>
+        <v>2.6091660000000001</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="3"/>
-        <v>1.3835214878110083</v>
+        <f>SUM(I12:N12)*SUMIFS($W$2:$W$3,$V$2:$V$3,D12)</f>
+        <v>16.144173641618497</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6117021170610226</v>
+        <f>SUM(I12:N12)*$W$4</f>
+        <v>18.806790545454557</v>
       </c>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3">
-        <v>29867</v>
+        <v>31276</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6">
         <f>YEAR(43647)-YEAR(C13)-1</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
-        <v>4.13</v>
+        <v>0.31</v>
       </c>
       <c r="G13" s="4">
-        <v>3.74</v>
+        <v>1.69</v>
       </c>
       <c r="H13" s="4">
-        <v>-0.51</v>
+        <v>-0.39</v>
       </c>
       <c r="I13" s="2">
         <f>((H13*0.6)+(0.3*G13)+(F13*0.1))*0.9+0.05*(32-$E$13)</f>
-        <v>0.85610000000000008</v>
+        <v>0.22360000000000008</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="O13" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNT(I13:N13)</f>
         <v>1</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.85610000000000008</v>
+        <f>SUM(I13:N13)</f>
+        <v>0.22360000000000008</v>
       </c>
       <c r="Q13" s="5">
+        <f>SUM(I13:N13)*SUMIFS($W$2:$W$3,$V$2:$V$3,D13)</f>
+        <v>1.3835214878110083</v>
+      </c>
+      <c r="R13" s="5">
         <f>SUM(I13:N13)*$W$4</f>
-        <v>6.1707432129514359</v>
-      </c>
-      <c r="R13" s="5">
-        <f>SUM(I13:N13)*SUMIFS($W$2:$W$3,$V$2:$V$3,D13)</f>
-        <v>8.7001188455008496</v>
+        <v>1.6117021170610226</v>
       </c>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3">
-        <v>31532</v>
+        <v>29867</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="6">
-        <f>YEAR(43647)-YEAR(C14)</f>
-        <v>33</v>
+        <f>YEAR(43647)-YEAR(C14)-1</f>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
-        <v>1.06</v>
+        <v>4.13</v>
       </c>
       <c r="G14" s="4">
-        <v>0.74</v>
+        <v>3.74</v>
       </c>
       <c r="H14" s="4">
-        <v>0.92</v>
+        <v>-0.51</v>
       </c>
       <c r="I14" s="2">
         <f>((H14*0.6)+(0.3*G14)+(F14*0.1))*0.9+0.05*(32-$E$14)</f>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J14" s="2">
-        <f>((I14*0.6)+(0.3*H14)+(G14*0.1))*0.9+0.05*(32-$E$14-1)</f>
-        <v>0.61568000000000001</v>
-      </c>
+        <v>0.85610000000000008</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="O14" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>COUNT(I14:N14)</f>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="2"/>
-        <v>1.35768</v>
+        <f>SUM(I14:N14)</f>
+        <v>0.85610000000000008</v>
       </c>
       <c r="Q14" s="5">
         <f>SUM(I14:N14)*$W$4</f>
-        <v>9.7861168617683738</v>
+        <v>6.1707432129514359</v>
       </c>
       <c r="R14" s="5">
         <f>SUM(I14:N14)*SUMIFS($W$2:$W$3,$V$2:$V$3,D14)</f>
-        <v>13.797427116177541</v>
+        <v>8.7001188455008496</v>
       </c>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3">
-        <v>31723</v>
+        <v>31532</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="6">
-        <f>YEAR(43647)-YEAR(C15)-1</f>
-        <v>32</v>
+        <f>YEAR(43647)-YEAR(C15)</f>
+        <v>33</v>
       </c>
       <c r="F15" s="4">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
       <c r="G15" s="4">
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="H15" s="4">
-        <v>1.91</v>
+        <v>0.92</v>
       </c>
       <c r="I15" s="2">
         <f>((H15*0.6)+(0.3*G15)+(F15*0.1))*0.9+0.05*(32-$E$15)</f>
-        <v>1.0700999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="J15" s="2">
         <f>((I15*0.6)+(0.3*H15)+(G15*0.1))*0.9+0.05*(32-$E$15-1)</f>
-        <v>1.0489539999999997</v>
-      </c>
-      <c r="K15" s="2">
-        <f>((J15*0.6)+(0.3*I15)+(H15*0.1))*0.9+0.05*(32-$E$15-2)</f>
-        <v>0.92726215999999984</v>
-      </c>
+        <v>0.61568000000000001</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="O15" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>COUNT(I15:N15)</f>
+        <v>2</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0463161599999991</v>
+        <f>SUM(I15:N15)</f>
+        <v>1.35768</v>
       </c>
       <c r="Q15" s="5">
         <f>SUM(I15:N15)*$W$4</f>
-        <v>21.957755833225409</v>
+        <v>9.7861168617683738</v>
       </c>
       <c r="R15" s="5">
         <f>SUM(I15:N15)*SUMIFS($W$2:$W$3,$V$2:$V$3,D15)</f>
-        <v>30.958197211739019</v>
+        <v>13.797427116177541</v>
       </c>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3">
-        <v>30752</v>
+        <v>31723</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="6">
-        <f>YEAR(43647)-YEAR(C16)</f>
-        <v>35</v>
+        <f>YEAR(43647)-YEAR(C16)-1</f>
+        <v>32</v>
       </c>
       <c r="F16" s="4">
-        <v>-0.39</v>
+        <v>0.25</v>
       </c>
       <c r="G16" s="4">
-        <v>-0.48</v>
+        <v>0.06</v>
       </c>
       <c r="H16" s="4">
-        <v>3.42</v>
+        <v>1.91</v>
       </c>
       <c r="I16" s="2">
         <f>((H16*0.6)+(0.3*G16)+(F16*0.1))*0.9+0.05*(32-$E$16)</f>
-        <v>1.5321000000000002</v>
+        <v>1.0700999999999998</v>
       </c>
       <c r="J16" s="2">
         <f>((I16*0.6)+(0.3*H16)+(G16*0.1))*0.9+0.05*(32-$E$16-1)</f>
-        <v>1.5075340000000002</v>
+        <v>1.0489539999999997</v>
       </c>
       <c r="K16" s="2">
         <f>((J16*0.6)+(0.3*I16)+(H16*0.1))*0.9+0.05*(32-$E$16-2)</f>
-        <v>1.2855353600000001</v>
+        <v>0.92726215999999984</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="1">
-        <f t="shared" si="1"/>
+        <f>COUNT(I16:N16)</f>
         <v>3</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3251693600000003</v>
+        <f>SUM(I16:N16)</f>
+        <v>3.0463161599999991</v>
       </c>
       <c r="Q16" s="5">
         <f>SUM(I16:N16)*$W$4</f>
-        <v>31.175691476562907</v>
+        <v>21.957755833225409</v>
       </c>
       <c r="R16" s="5">
         <f>SUM(I16:N16)*SUMIFS($W$2:$W$3,$V$2:$V$3,D16)</f>
-        <v>43.954546733931608</v>
+        <v>30.958197211739019</v>
       </c>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
-        <v>32955</v>
+        <v>30752</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E17" s="6">
         <f>YEAR(43647)-YEAR(C17)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4">
-        <v>0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="G17" s="4">
-        <v>-0.08</v>
+        <v>-0.48</v>
       </c>
       <c r="H17" s="4">
-        <v>0.44</v>
+        <v>3.42</v>
       </c>
       <c r="I17" s="2">
         <f>((H17*0.6)+(0.3*G17)+(F17*0.1))*0.9+0.05*(32-$E$17)</f>
-        <v>0.40200000000000008</v>
+        <v>1.5321000000000002</v>
       </c>
       <c r="J17" s="2">
         <f>((I17*0.6)+(0.3*H17)+(G17*0.1))*0.9+0.05*(32-$E$17-1)</f>
-        <v>0.42868000000000006</v>
+        <v>1.5075340000000002</v>
       </c>
       <c r="K17" s="2">
         <f>((J17*0.6)+(0.3*I17)+(H17*0.1))*0.9+0.05*(32-$E$17-2)</f>
-        <v>0.42962719999999999</v>
-      </c>
-      <c r="L17" s="2">
-        <f>((K17*0.6)+(0.3*J17)+(I17*0.1))*0.9+0.05*(32-$E$17-3)</f>
-        <v>0.383922288</v>
-      </c>
+        <v>1.2855353600000001</v>
+      </c>
+      <c r="L17" s="2"/>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNT(I17:N17)</f>
+        <v>3</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="2"/>
-        <v>1.6442294880000001</v>
+        <f>SUM(I17:N17)</f>
+        <v>4.3251693600000003</v>
       </c>
       <c r="Q17" s="5">
+        <f>SUM(I17:N17)*$W$4</f>
+        <v>31.175691476562907</v>
+      </c>
+      <c r="R17" s="5">
         <f>SUM(I17:N17)*SUMIFS($W$2:$W$3,$V$2:$V$3,D17)</f>
-        <v>10.173644130324202</v>
-      </c>
-      <c r="R17" s="5">
-        <f>SUM(I17:N17)*$W$4</f>
-        <v>11.851557006904118</v>
+        <v>43.954546733931608</v>
       </c>
       <c r="T17" s="5"/>
     </row>
@@ -7287,30 +7295,27 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E14:E15 E11" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD419D19-5034-4E8F-B3AD-AA43E37F123F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>3.7370000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -7362,7 +7367,7 @@
         <v>5.4870000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>4.4379999999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -7397,7 +7402,7 @@
         <v>5.1619999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -7414,7 +7419,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>611</v>
       </c>
@@ -7448,7 +7453,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
@@ -7465,7 +7470,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>694</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>6.7229999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>207</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>5.4269999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>370</v>
       </c>
@@ -7516,7 +7521,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>287</v>
       </c>
@@ -7533,7 +7538,7 @@
         <v>6.8310000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>126</v>
       </c>
@@ -7550,7 +7555,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>696</v>
       </c>
@@ -7567,7 +7572,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
@@ -7584,7 +7589,7 @@
         <v>3.7789999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>458</v>
       </c>
@@ -7601,7 +7606,7 @@
         <v>5.0270000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>613</v>
       </c>
@@ -7618,7 +7623,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -7635,7 +7640,7 @@
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>538</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>2.9460000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>1.946</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>289</v>
       </c>
@@ -7686,7 +7691,7 @@
         <v>-2.2109999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7703,7 +7708,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -7720,7 +7725,7 @@
         <v>2.8420000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>209</v>
       </c>
@@ -7737,7 +7742,7 @@
         <v>2.867</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>539</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>373</v>
       </c>
@@ -7771,7 +7776,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>854</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>3.5649999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
@@ -7805,7 +7810,7 @@
         <v>-0.48799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>459</v>
       </c>
@@ -7822,7 +7827,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>460</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>461</v>
       </c>
@@ -7856,7 +7861,7 @@
         <v>6.3879999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>855</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>771</v>
       </c>
@@ -7907,7 +7912,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>540</v>
       </c>
@@ -7924,7 +7929,7 @@
         <v>3.2530000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>128</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>211</v>
       </c>
@@ -7958,7 +7963,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
@@ -7975,7 +7980,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>290</v>
       </c>
@@ -7992,7 +7997,7 @@
         <v>4.1219999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>291</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>-0.75800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>541</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -8043,7 +8048,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>773</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>129</v>
       </c>
@@ -8077,7 +8082,7 @@
         <v>2.6360000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>3.581</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>697</v>
       </c>
@@ -8111,7 +8116,7 @@
         <v>5.915</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
@@ -8128,7 +8133,7 @@
         <v>2.4670000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>292</v>
       </c>
@@ -8145,7 +8150,7 @@
         <v>6.6849999999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>374</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>462</v>
       </c>
@@ -8179,7 +8184,7 @@
         <v>-0.46200000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>698</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>856</v>
       </c>
@@ -8213,7 +8218,7 @@
         <v>3.165</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>293</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>130</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>294</v>
       </c>
@@ -8264,7 +8269,7 @@
         <v>-0.54800000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>375</v>
       </c>
@@ -8281,7 +8286,7 @@
         <v>5.351</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>463</v>
       </c>
@@ -8298,7 +8303,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>542</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>614</v>
       </c>
@@ -8332,7 +8337,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>699</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>774</v>
       </c>
@@ -8383,7 +8388,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>857</v>
       </c>
@@ -8400,7 +8405,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>615</v>
       </c>
@@ -8417,7 +8422,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>295</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>616</v>
       </c>
@@ -8451,7 +8456,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>617</v>
       </c>
@@ -8468,7 +8473,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>775</v>
       </c>
@@ -8485,7 +8490,7 @@
         <v>5.3559999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
@@ -8502,7 +8507,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
@@ -8519,7 +8524,7 @@
         <v>-0.16800000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>28</v>
       </c>
@@ -8536,7 +8541,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>376</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>543</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>618</v>
       </c>
@@ -8587,7 +8592,7 @@
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>619</v>
       </c>
@@ -8604,7 +8609,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>620</v>
       </c>
@@ -8621,7 +8626,7 @@
         <v>4.8140000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>700</v>
       </c>
@@ -8655,7 +8660,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>296</v>
       </c>
@@ -8672,7 +8677,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>377</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>4.1319999999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>39</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>31</v>
       </c>
@@ -8720,7 +8725,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>701</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>131</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>4.4279999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>702</v>
       </c>
@@ -8771,7 +8776,7 @@
         <v>4.2640000000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>776</v>
       </c>
@@ -8788,7 +8793,7 @@
         <v>2.6779999999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>126</v>
       </c>
@@ -8805,7 +8810,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
@@ -8822,7 +8827,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>297</v>
       </c>
@@ -8839,7 +8844,7 @@
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>378</v>
       </c>
@@ -8856,7 +8861,7 @@
         <v>1.2589999999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>379</v>
       </c>
@@ -8870,7 +8875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>13</v>
       </c>
@@ -8887,7 +8892,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>380</v>
       </c>
@@ -8904,7 +8909,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>132</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>213</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>3.3410000000000002</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>464</v>
       </c>
@@ -8952,7 +8957,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>465</v>
       </c>
@@ -8969,7 +8974,7 @@
         <v>3.024</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>133</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>544</v>
       </c>
@@ -9003,7 +9008,7 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
         <v>298</v>
       </c>
@@ -9020,7 +9025,7 @@
         <v>4.0869999999999997</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>134</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>2.4260000000000002</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>214</v>
       </c>
@@ -9054,7 +9059,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>215</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
         <v>381</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
         <v>274</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>-1.2150000000000001</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
@@ -9119,7 +9124,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
         <v>621</v>
       </c>
@@ -9136,7 +9141,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>777</v>
       </c>
@@ -9153,7 +9158,7 @@
         <v>-8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
         <v>216</v>
       </c>
@@ -9170,7 +9175,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>622</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>1.571</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
         <v>623</v>
       </c>
@@ -9204,7 +9209,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
         <v>299</v>
       </c>
@@ -9221,7 +9226,7 @@
         <v>3.9169999999999998</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>217</v>
       </c>
@@ -9238,7 +9243,7 @@
         <v>1.8819999999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>703</v>
       </c>
@@ -9255,7 +9260,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
         <v>778</v>
       </c>
@@ -9272,7 +9277,7 @@
         <v>-0.252</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>858</v>
       </c>
@@ -9289,7 +9294,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
         <v>218</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>1.5489999999999999</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>624</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
         <v>219</v>
       </c>
@@ -9340,7 +9345,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>300</v>
       </c>
@@ -9357,7 +9362,7 @@
         <v>4.5410000000000004</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
         <v>382</v>
       </c>
@@ -9374,7 +9379,7 @@
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>36</v>
       </c>
@@ -9391,7 +9396,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>625</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
         <v>18</v>
       </c>
@@ -9442,7 +9447,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>466</v>
       </c>
@@ -9459,7 +9464,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
         <v>626</v>
       </c>
@@ -9476,7 +9481,7 @@
         <v>-0.26900000000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>779</v>
       </c>
@@ -9493,7 +9498,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>780</v>
       </c>
@@ -9510,7 +9515,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>135</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>383</v>
       </c>
@@ -9544,7 +9549,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>467</v>
       </c>
@@ -9561,7 +9566,7 @@
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>781</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>121</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>220</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>-0.84699999999999998</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
@@ -9629,7 +9634,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>704</v>
       </c>
@@ -9646,7 +9651,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
         <v>216</v>
       </c>
@@ -9663,7 +9668,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
         <v>301</v>
       </c>
@@ -9680,7 +9685,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
         <v>468</v>
       </c>
@@ -9697,7 +9702,7 @@
         <v>1.538</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>-0.193</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
         <v>222</v>
       </c>
@@ -9731,7 +9736,7 @@
         <v>2.3780000000000001</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>136</v>
       </c>
@@ -9748,7 +9753,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>137</v>
       </c>
@@ -9765,7 +9770,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>30</v>
       </c>
@@ -9782,7 +9787,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>302</v>
       </c>
@@ -9799,7 +9804,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>384</v>
       </c>
@@ -9816,7 +9821,7 @@
         <v>4.4589999999999996</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>545</v>
       </c>
@@ -9833,7 +9838,7 @@
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
         <v>705</v>
       </c>
@@ -9850,7 +9855,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>706</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
         <v>15</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
         <v>859</v>
       </c>
@@ -9901,7 +9906,7 @@
         <v>-0.55800000000000005</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>860</v>
       </c>
@@ -9918,7 +9923,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
         <v>385</v>
       </c>
@@ -9935,7 +9940,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
         <v>469</v>
       </c>
@@ -9952,7 +9957,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>707</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
         <v>708</v>
       </c>
@@ -9983,7 +9988,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
         <v>709</v>
       </c>
@@ -10000,7 +10005,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>138</v>
       </c>
@@ -10017,7 +10022,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
         <v>139</v>
       </c>
@@ -10034,7 +10039,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
         <v>223</v>
       </c>
@@ -10051,7 +10056,7 @@
         <v>-0.437</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>386</v>
       </c>
@@ -10068,7 +10073,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>387</v>
       </c>
@@ -10085,7 +10090,7 @@
         <v>3.0419999999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>546</v>
       </c>
@@ -10102,7 +10107,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>782</v>
       </c>
@@ -10119,7 +10124,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
         <v>783</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>224</v>
       </c>
@@ -10153,7 +10158,7 @@
         <v>-0.41899999999999998</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
         <v>627</v>
       </c>
@@ -10170,7 +10175,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
         <v>710</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
         <v>388</v>
       </c>
@@ -10204,7 +10209,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
         <v>470</v>
       </c>
@@ -10221,7 +10226,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
         <v>861</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>389</v>
       </c>
@@ -10255,7 +10260,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
         <v>471</v>
       </c>
@@ -10272,7 +10277,7 @@
         <v>3.831</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
         <v>628</v>
       </c>
@@ -10286,7 +10291,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
         <v>711</v>
       </c>
@@ -10303,7 +10308,7 @@
         <v>-0.60699999999999998</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
         <v>712</v>
       </c>
@@ -10320,7 +10325,7 @@
         <v>3.9769999999999999</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
         <v>862</v>
       </c>
@@ -10337,7 +10342,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
         <v>472</v>
       </c>
@@ -10354,7 +10359,7 @@
         <v>3.177</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
         <v>473</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
         <v>547</v>
       </c>
@@ -10388,7 +10393,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>548</v>
       </c>
@@ -10405,7 +10410,7 @@
         <v>-0.33700000000000002</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
         <v>784</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
         <v>713</v>
       </c>
@@ -10436,7 +10441,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
@@ -10453,7 +10458,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>303</v>
       </c>
@@ -10470,7 +10475,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>23</v>
       </c>
@@ -10487,7 +10492,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
         <v>549</v>
       </c>
@@ -10501,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>550</v>
       </c>
@@ -10518,7 +10523,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>551</v>
       </c>
@@ -10535,7 +10540,7 @@
         <v>-0.14699999999999999</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>552</v>
       </c>
@@ -10552,7 +10557,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>629</v>
       </c>
@@ -10569,7 +10574,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>785</v>
       </c>
@@ -10586,7 +10591,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
         <v>863</v>
       </c>
@@ -10603,7 +10608,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>304</v>
       </c>
@@ -10620,7 +10625,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
         <v>390</v>
       </c>
@@ -10637,7 +10642,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>474</v>
       </c>
@@ -10654,7 +10659,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
         <v>305</v>
       </c>
@@ -10671,7 +10676,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>391</v>
       </c>
@@ -10688,7 +10693,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>392</v>
       </c>
@@ -10705,7 +10710,7 @@
         <v>-0.32100000000000001</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
         <v>393</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
         <v>475</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>-0.68899999999999995</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="1" t="s">
         <v>476</v>
       </c>
@@ -10756,7 +10761,7 @@
         <v>-0.68200000000000005</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="1" t="s">
         <v>477</v>
       </c>
@@ -10773,7 +10778,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
         <v>553</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
         <v>554</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
         <v>714</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
         <v>715</v>
       </c>
@@ -10838,7 +10843,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
         <v>630</v>
       </c>
@@ -10855,7 +10860,7 @@
         <v>-0.57599999999999996</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
         <v>225</v>
       </c>
@@ -10872,7 +10877,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
         <v>306</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
         <v>394</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="1" t="s">
         <v>555</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
         <v>786</v>
       </c>
@@ -10940,7 +10945,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
         <v>864</v>
       </c>
@@ -10954,7 +10959,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
         <v>140</v>
       </c>
@@ -10971,7 +10976,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
         <v>226</v>
       </c>
@@ -10988,7 +10993,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
         <v>478</v>
       </c>
@@ -11005,7 +11010,7 @@
         <v>2.0289999999999999</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>631</v>
       </c>
@@ -11022,7 +11027,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
         <v>716</v>
       </c>
@@ -11036,7 +11041,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
         <v>865</v>
       </c>
@@ -11053,7 +11058,7 @@
         <v>1.659</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
         <v>866</v>
       </c>
@@ -11070,7 +11075,7 @@
         <v>-0.53200000000000003</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
         <v>867</v>
       </c>
@@ -11087,7 +11092,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
         <v>868</v>
       </c>
@@ -11104,7 +11109,7 @@
         <v>-1.218</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
         <v>141</v>
       </c>
@@ -11121,7 +11126,7 @@
         <v>-0.14499999999999999</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
         <v>142</v>
       </c>
@@ -11138,7 +11143,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
         <v>143</v>
       </c>
@@ -11155,7 +11160,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
         <v>144</v>
       </c>
@@ -11172,7 +11177,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
         <v>632</v>
       </c>
@@ -11186,7 +11191,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
         <v>787</v>
       </c>
@@ -11203,7 +11208,7 @@
         <v>-0.78300000000000003</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
         <v>633</v>
       </c>
@@ -11220,7 +11225,7 @@
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
         <v>869</v>
       </c>
@@ -11237,7 +11242,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
         <v>556</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>-0.28100000000000003</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="1" t="s">
         <v>634</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
         <v>870</v>
       </c>
@@ -11288,7 +11293,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
         <v>145</v>
       </c>
@@ -11302,7 +11307,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
         <v>227</v>
       </c>
@@ -11319,7 +11324,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
         <v>395</v>
       </c>
@@ -11336,7 +11341,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
         <v>479</v>
       </c>
@@ -11353,7 +11358,7 @@
         <v>-0.377</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
         <v>480</v>
       </c>
@@ -11370,7 +11375,7 @@
         <v>-1.1579999999999999</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
         <v>481</v>
       </c>
@@ -11387,7 +11392,7 @@
         <v>-0.217</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
         <v>871</v>
       </c>
@@ -11404,7 +11409,7 @@
         <v>-0.214</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
         <v>396</v>
       </c>
@@ -11421,7 +11426,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
         <v>482</v>
       </c>
@@ -11438,7 +11443,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
         <v>872</v>
       </c>
@@ -11455,7 +11460,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
         <v>483</v>
       </c>
@@ -11469,7 +11474,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
         <v>146</v>
       </c>
@@ -11486,7 +11491,7 @@
         <v>-0.26300000000000001</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
         <v>147</v>
       </c>
@@ -11503,7 +11508,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="1" t="s">
         <v>148</v>
       </c>
@@ -11520,7 +11525,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="1" t="s">
         <v>484</v>
       </c>
@@ -11537,7 +11542,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
         <v>557</v>
       </c>
@@ -11554,7 +11559,7 @@
         <v>-0.45600000000000002</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
         <v>558</v>
       </c>
@@ -11571,7 +11576,7 @@
         <v>-0.36599999999999999</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
         <v>559</v>
       </c>
@@ -11588,7 +11593,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="1" t="s">
         <v>873</v>
       </c>
@@ -11605,7 +11610,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
         <v>397</v>
       </c>
@@ -11622,7 +11627,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
         <v>398</v>
       </c>
@@ -11639,7 +11644,7 @@
         <v>-0.90600000000000003</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
         <v>560</v>
       </c>
@@ -11656,7 +11661,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
         <v>561</v>
       </c>
@@ -11670,7 +11675,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
         <v>717</v>
       </c>
@@ -11687,7 +11692,7 @@
         <v>-0.315</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
         <v>562</v>
       </c>
@@ -11704,7 +11709,7 @@
         <v>-0.441</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
         <v>149</v>
       </c>
@@ -11718,7 +11723,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
         <v>150</v>
       </c>
@@ -11735,7 +11740,7 @@
         <v>1.4630000000000001</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>228</v>
       </c>
@@ -11752,7 +11757,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
         <v>229</v>
       </c>
@@ -11769,7 +11774,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
         <v>230</v>
       </c>
@@ -11783,7 +11788,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
         <v>307</v>
       </c>
@@ -11800,7 +11805,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
         <v>399</v>
       </c>
@@ -11817,7 +11822,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
         <v>400</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
         <v>485</v>
       </c>
@@ -11848,7 +11853,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
         <v>563</v>
       </c>
@@ -11865,7 +11870,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
         <v>718</v>
       </c>
@@ -11882,7 +11887,7 @@
         <v>-0.48099999999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
         <v>719</v>
       </c>
@@ -11899,7 +11904,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="1" t="s">
         <v>788</v>
       </c>
@@ -11916,7 +11921,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="1" t="s">
         <v>486</v>
       </c>
@@ -11933,7 +11938,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
         <v>564</v>
       </c>
@@ -11950,7 +11955,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
         <v>635</v>
       </c>
@@ -11967,7 +11972,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
         <v>636</v>
       </c>
@@ -11984,7 +11989,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
         <v>231</v>
       </c>
@@ -12001,7 +12006,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
         <v>308</v>
       </c>
@@ -12018,7 +12023,7 @@
         <v>-0.252</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
         <v>565</v>
       </c>
@@ -12035,7 +12040,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
         <v>874</v>
       </c>
@@ -12052,7 +12057,7 @@
         <v>-0.22500000000000001</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
         <v>401</v>
       </c>
@@ -12069,7 +12074,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
         <v>151</v>
       </c>
@@ -12086,7 +12091,7 @@
         <v>-0.36199999999999999</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
         <v>152</v>
       </c>
@@ -12100,7 +12105,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
         <v>176</v>
       </c>
@@ -12117,7 +12122,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
         <v>720</v>
       </c>
@@ -12134,7 +12139,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
         <v>721</v>
       </c>
@@ -12151,7 +12156,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
         <v>20</v>
       </c>
@@ -12168,7 +12173,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
         <v>789</v>
       </c>
@@ -12185,7 +12190,7 @@
         <v>-0.50600000000000001</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
         <v>637</v>
       </c>
@@ -12202,7 +12207,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
         <v>153</v>
       </c>
@@ -12219,7 +12224,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
         <v>638</v>
       </c>
@@ -12236,7 +12241,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
         <v>790</v>
       </c>
@@ -12253,7 +12258,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
         <v>309</v>
       </c>
@@ -12270,7 +12275,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
         <v>310</v>
       </c>
@@ -12284,7 +12289,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="1" t="s">
         <v>402</v>
       </c>
@@ -12301,7 +12306,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
         <v>875</v>
       </c>
@@ -12318,7 +12323,7 @@
         <v>-0.41099999999999998</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
         <v>232</v>
       </c>
@@ -12335,7 +12340,7 @@
         <v>-0.33800000000000002</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
         <v>311</v>
       </c>
@@ -12352,7 +12357,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
         <v>487</v>
       </c>
@@ -12369,7 +12374,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
         <v>488</v>
       </c>
@@ -12386,7 +12391,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
         <v>639</v>
       </c>
@@ -12403,7 +12408,7 @@
         <v>-0.42199999999999999</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="1" t="s">
         <v>402</v>
       </c>
@@ -12420,7 +12425,7 @@
         <v>-0.47799999999999998</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="1" t="s">
         <v>722</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>2.0459999999999998</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
         <v>876</v>
       </c>
@@ -12454,7 +12459,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
         <v>723</v>
       </c>
@@ -12471,7 +12476,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
         <v>640</v>
       </c>
@@ -12488,7 +12493,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="1" t="s">
         <v>233</v>
       </c>
@@ -12505,7 +12510,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="1" t="s">
         <v>791</v>
       </c>
@@ -12519,7 +12524,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
         <v>877</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
         <v>878</v>
       </c>
@@ -12553,7 +12558,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
         <v>792</v>
       </c>
@@ -12567,7 +12572,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="1" t="s">
         <v>154</v>
       </c>
@@ -12584,7 +12589,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
         <v>234</v>
       </c>
@@ -12601,7 +12606,7 @@
         <v>-0.19700000000000001</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
         <v>235</v>
       </c>
@@ -12618,7 +12623,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
         <v>236</v>
       </c>
@@ -12635,7 +12640,7 @@
         <v>3.0059999999999998</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="1" t="s">
         <v>237</v>
       </c>
@@ -12652,7 +12657,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="1" t="s">
         <v>312</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="1" t="s">
         <v>403</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="1" t="s">
         <v>641</v>
       </c>
@@ -12700,7 +12705,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="1" t="s">
         <v>724</v>
       </c>
@@ -12717,7 +12722,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="1" t="s">
         <v>725</v>
       </c>
@@ -12734,7 +12739,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="1" t="s">
         <v>793</v>
       </c>
@@ -12748,7 +12753,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
         <v>794</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="1" t="s">
         <v>795</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="1" t="s">
         <v>155</v>
       </c>
@@ -12796,7 +12801,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="1" t="s">
         <v>313</v>
       </c>
@@ -12813,7 +12818,7 @@
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="1" t="s">
         <v>404</v>
       </c>
@@ -12830,7 +12835,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="1" t="s">
         <v>489</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>-0.29899999999999999</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="1" t="s">
         <v>726</v>
       </c>
@@ -12864,7 +12869,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
         <v>796</v>
       </c>
@@ -12881,7 +12886,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="1" t="s">
         <v>879</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>-0.504</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
         <v>156</v>
       </c>
@@ -12915,7 +12920,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="1" t="s">
         <v>157</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="1" t="s">
         <v>158</v>
       </c>
@@ -12943,7 +12948,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="1" t="s">
         <v>159</v>
       </c>
@@ -12957,7 +12962,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="1" t="s">
         <v>160</v>
       </c>
@@ -12974,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="1" t="s">
         <v>238</v>
       </c>
@@ -12991,7 +12996,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="1" t="s">
         <v>405</v>
       </c>
@@ -13008,7 +13013,7 @@
         <v>-0.443</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="1" t="s">
         <v>406</v>
       </c>
@@ -13025,7 +13030,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="1" t="s">
         <v>407</v>
       </c>
@@ -13042,7 +13047,7 @@
         <v>-0.129</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="1" t="s">
         <v>490</v>
       </c>
@@ -13056,7 +13061,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="1" t="s">
         <v>491</v>
       </c>
@@ -13073,7 +13078,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="1" t="s">
         <v>492</v>
       </c>
@@ -13090,7 +13095,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="1" t="s">
         <v>566</v>
       </c>
@@ -13107,7 +13112,7 @@
         <v>-0.57299999999999995</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="1" t="s">
         <v>642</v>
       </c>
@@ -13121,7 +13126,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="1" t="s">
         <v>643</v>
       </c>
@@ -13138,7 +13143,7 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
         <v>727</v>
       </c>
@@ -13152,7 +13157,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
         <v>797</v>
       </c>
@@ -13166,7 +13171,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="1" t="s">
         <v>880</v>
       </c>
@@ -13180,7 +13185,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
         <v>881</v>
       </c>
@@ -13194,7 +13199,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
         <v>882</v>
       </c>
@@ -13211,7 +13216,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="1" t="s">
         <v>161</v>
       </c>
@@ -13225,7 +13230,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="1" t="s">
         <v>162</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="1" t="s">
         <v>239</v>
       </c>
@@ -13259,7 +13264,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="1" t="s">
         <v>408</v>
       </c>
@@ -13273,7 +13278,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="1" t="s">
         <v>644</v>
       </c>
@@ -13287,7 +13292,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="1" t="s">
         <v>163</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="1" t="s">
         <v>493</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>-0.64300000000000002</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="1" t="s">
         <v>567</v>
       </c>
@@ -13332,7 +13337,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="1" t="s">
         <v>645</v>
       </c>
@@ -13349,7 +13354,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="1" t="s">
         <v>494</v>
       </c>
@@ -13366,7 +13371,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="1" t="s">
         <v>646</v>
       </c>
@@ -13383,7 +13388,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="1" t="s">
         <v>647</v>
       </c>
@@ -13400,7 +13405,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="1" t="s">
         <v>798</v>
       </c>
@@ -13417,7 +13422,7 @@
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="1" t="s">
         <v>164</v>
       </c>
@@ -13434,7 +13439,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="1" t="s">
         <v>165</v>
       </c>
@@ -13451,7 +13456,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="1" t="s">
         <v>240</v>
       </c>
@@ -13468,7 +13473,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="1" t="s">
         <v>241</v>
       </c>
@@ -13485,7 +13490,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="1" t="s">
         <v>314</v>
       </c>
@@ -13502,7 +13507,7 @@
         <v>-0.442</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="1" t="s">
         <v>315</v>
       </c>
@@ -13519,7 +13524,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
         <v>495</v>
       </c>
@@ -13536,7 +13541,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
         <v>496</v>
       </c>
@@ -13553,7 +13558,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="1" t="s">
         <v>497</v>
       </c>
@@ -13567,7 +13572,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
         <v>728</v>
       </c>
@@ -13584,7 +13589,7 @@
         <v>1.736</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="1" t="s">
         <v>729</v>
       </c>
@@ -13601,7 +13606,7 @@
         <v>-0.192</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="1" t="s">
         <v>799</v>
       </c>
@@ -13618,7 +13623,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
         <v>800</v>
       </c>
@@ -13632,7 +13637,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="1" t="s">
         <v>801</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>-0.126</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="1" t="s">
         <v>316</v>
       </c>
@@ -13666,7 +13671,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="1" t="s">
         <v>409</v>
       </c>
@@ -13680,7 +13685,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="1" t="s">
         <v>498</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="1" t="s">
         <v>568</v>
       </c>
@@ -13711,7 +13716,7 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="1" t="s">
         <v>166</v>
       </c>
@@ -13725,7 +13730,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="1" t="s">
         <v>167</v>
       </c>
@@ -13742,7 +13747,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="1" t="s">
         <v>242</v>
       </c>
@@ -13759,7 +13764,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="1" t="s">
         <v>243</v>
       </c>
@@ -13776,7 +13781,7 @@
         <v>-0.127</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="s">
         <v>244</v>
       </c>
@@ -13793,7 +13798,7 @@
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="1" t="s">
         <v>317</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="1" t="s">
         <v>569</v>
       </c>
@@ -13824,7 +13829,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="1" t="s">
         <v>648</v>
       </c>
@@ -13841,7 +13846,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="1" t="s">
         <v>649</v>
       </c>
@@ -13858,7 +13863,7 @@
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="1" t="s">
         <v>883</v>
       </c>
@@ -13875,7 +13880,7 @@
         <v>-0.155</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="1" t="s">
         <v>884</v>
       </c>
@@ -13892,7 +13897,7 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="1" t="s">
         <v>885</v>
       </c>
@@ -13909,7 +13914,7 @@
         <v>-0.185</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="s">
         <v>886</v>
       </c>
@@ -13923,7 +13928,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="1" t="s">
         <v>168</v>
       </c>
@@ -13940,7 +13945,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="s">
         <v>245</v>
       </c>
@@ -13957,7 +13962,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="1" t="s">
         <v>318</v>
       </c>
@@ -13974,7 +13979,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="1" t="s">
         <v>319</v>
       </c>
@@ -13991,7 +13996,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="1" t="s">
         <v>320</v>
       </c>
@@ -14005,7 +14010,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="1" t="s">
         <v>499</v>
       </c>
@@ -14022,7 +14027,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="1" t="s">
         <v>650</v>
       </c>
@@ -14039,7 +14044,7 @@
         <v>-0.157</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="1" t="s">
         <v>651</v>
       </c>
@@ -14053,7 +14058,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="1" t="s">
         <v>730</v>
       </c>
@@ -14070,7 +14075,7 @@
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="1" t="s">
         <v>802</v>
       </c>
@@ -14087,7 +14092,7 @@
         <v>-0.20799999999999999</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B409" s="1" t="s">
         <v>887</v>
       </c>
@@ -14104,7 +14109,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
         <v>169</v>
       </c>
@@ -14121,7 +14126,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B411" s="1" t="s">
         <v>170</v>
       </c>
@@ -14138,7 +14143,7 @@
         <v>-0.48699999999999999</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412" s="1" t="s">
         <v>246</v>
       </c>
@@ -14155,7 +14160,7 @@
         <v>-0.18099999999999999</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413" s="1" t="s">
         <v>247</v>
       </c>
@@ -14172,7 +14177,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B414" s="1" t="s">
         <v>570</v>
       </c>
@@ -14186,7 +14191,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B415" s="1" t="s">
         <v>571</v>
       </c>
@@ -14203,7 +14208,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="1" t="s">
         <v>652</v>
       </c>
@@ -14220,7 +14225,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="1" t="s">
         <v>888</v>
       </c>
@@ -14234,7 +14239,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" s="1" t="s">
         <v>889</v>
       </c>
@@ -14248,7 +14253,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419" s="1" t="s">
         <v>890</v>
       </c>
@@ -14265,7 +14270,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420" s="1" t="s">
         <v>171</v>
       </c>
@@ -14279,7 +14284,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421" s="1" t="s">
         <v>172</v>
       </c>
@@ -14293,7 +14298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422" s="1" t="s">
         <v>173</v>
       </c>
@@ -14307,7 +14312,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B423" s="1" t="s">
         <v>248</v>
       </c>
@@ -14324,7 +14329,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B424" s="1" t="s">
         <v>249</v>
       </c>
@@ -14341,7 +14346,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B425" s="1" t="s">
         <v>250</v>
       </c>
@@ -14355,7 +14360,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B426" s="1" t="s">
         <v>251</v>
       </c>
@@ -14372,7 +14377,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427" s="1" t="s">
         <v>321</v>
       </c>
@@ -14386,7 +14391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428" s="1" t="s">
         <v>322</v>
       </c>
@@ -14403,7 +14408,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B429" s="1" t="s">
         <v>323</v>
       </c>
@@ -14420,7 +14425,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430" s="1" t="s">
         <v>410</v>
       </c>
@@ -14437,7 +14442,7 @@
         <v>-0.214</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B431" s="1" t="s">
         <v>411</v>
       </c>
@@ -14454,7 +14459,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B432" s="1" t="s">
         <v>412</v>
       </c>
@@ -14468,7 +14473,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B433" s="1" t="s">
         <v>413</v>
       </c>
@@ -14482,7 +14487,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B434" s="1" t="s">
         <v>414</v>
       </c>
@@ -14499,7 +14504,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B435" s="1" t="s">
         <v>415</v>
       </c>
@@ -14513,7 +14518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B436" s="1" t="s">
         <v>416</v>
       </c>
@@ -14530,7 +14535,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B437" s="1" t="s">
         <v>500</v>
       </c>
@@ -14547,7 +14552,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B438" s="1" t="s">
         <v>501</v>
       </c>
@@ -14564,7 +14569,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B439" s="1" t="s">
         <v>502</v>
       </c>
@@ -14578,7 +14583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B440" s="1" t="s">
         <v>503</v>
       </c>
@@ -14592,7 +14597,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B441" s="1" t="s">
         <v>504</v>
       </c>
@@ -14606,7 +14611,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B442" s="1" t="s">
         <v>653</v>
       </c>
@@ -14623,7 +14628,7 @@
         <v>-0.14899999999999999</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B443" s="1" t="s">
         <v>654</v>
       </c>
@@ -14640,7 +14645,7 @@
         <v>-0.13500000000000001</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B444" s="1" t="s">
         <v>655</v>
       </c>
@@ -14657,7 +14662,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B445" s="1" t="s">
         <v>656</v>
       </c>
@@ -14674,7 +14679,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B446" s="1" t="s">
         <v>657</v>
       </c>
@@ -14688,7 +14693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B447" s="1" t="s">
         <v>658</v>
       </c>
@@ -14702,7 +14707,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B448" s="1" t="s">
         <v>659</v>
       </c>
@@ -14719,7 +14724,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B449" s="1" t="s">
         <v>731</v>
       </c>
@@ -14736,7 +14741,7 @@
         <v>1.026</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B450" s="1" t="s">
         <v>732</v>
       </c>
@@ -14753,7 +14758,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B451" s="1" t="s">
         <v>803</v>
       </c>
@@ -14770,7 +14775,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B452" s="1" t="s">
         <v>804</v>
       </c>
@@ -14787,7 +14792,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B453" s="1" t="s">
         <v>805</v>
       </c>
@@ -14804,7 +14809,7 @@
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B454" s="1" t="s">
         <v>806</v>
       </c>
@@ -14821,7 +14826,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B455" s="1" t="s">
         <v>891</v>
       </c>
@@ -14838,7 +14843,7 @@
         <v>-0.38400000000000001</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B456" s="1" t="s">
         <v>892</v>
       </c>
@@ -14852,7 +14857,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B457" s="1" t="s">
         <v>893</v>
       </c>
@@ -14866,7 +14871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B458" s="1" t="s">
         <v>406</v>
       </c>
@@ -14880,7 +14885,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B459" s="1" t="s">
         <v>894</v>
       </c>
@@ -14897,7 +14902,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B460" s="1" t="s">
         <v>895</v>
       </c>
@@ -14911,7 +14916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B461" s="1" t="s">
         <v>896</v>
       </c>
@@ -14928,7 +14933,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B462" s="1" t="s">
         <v>897</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B463" s="1" t="s">
         <v>174</v>
       </c>
@@ -14956,7 +14961,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B464" s="1" t="s">
         <v>175</v>
       </c>
@@ -14970,7 +14975,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B465" s="1" t="s">
         <v>176</v>
       </c>
@@ -14984,7 +14989,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B466" s="1" t="s">
         <v>177</v>
       </c>
@@ -15001,7 +15006,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B467" s="1" t="s">
         <v>178</v>
       </c>
@@ -15015,7 +15020,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B468" s="1" t="s">
         <v>179</v>
       </c>
@@ -15029,7 +15034,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B469" s="1" t="s">
         <v>180</v>
       </c>
@@ -15046,7 +15051,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B470" s="1" t="s">
         <v>181</v>
       </c>
@@ -15060,7 +15065,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B471" s="1" t="s">
         <v>252</v>
       </c>
@@ -15074,7 +15079,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B472" s="1" t="s">
         <v>253</v>
       </c>
@@ -15088,7 +15093,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B473" s="1" t="s">
         <v>324</v>
       </c>
@@ -15105,7 +15110,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B474" s="1" t="s">
         <v>505</v>
       </c>
@@ -15119,7 +15124,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B475" s="1" t="s">
         <v>506</v>
       </c>
@@ -15133,7 +15138,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B476" s="1" t="s">
         <v>507</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B477" s="1" t="s">
         <v>508</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B478" s="1" t="s">
         <v>224</v>
       </c>
@@ -15184,7 +15189,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B479" s="1" t="s">
         <v>660</v>
       </c>
@@ -15198,7 +15203,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B480" s="1" t="s">
         <v>733</v>
       </c>
@@ -15215,7 +15220,7 @@
         <v>-0.16400000000000001</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B481" s="1" t="s">
         <v>734</v>
       </c>
@@ -15232,7 +15237,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B482" s="1" t="s">
         <v>735</v>
       </c>
@@ -15249,7 +15254,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B483" s="1" t="s">
         <v>736</v>
       </c>
@@ -15263,7 +15268,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B484" s="1" t="s">
         <v>807</v>
       </c>
@@ -15280,7 +15285,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B485" s="1" t="s">
         <v>898</v>
       </c>
@@ -15294,7 +15299,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B486" s="1" t="s">
         <v>899</v>
       </c>
@@ -15308,7 +15313,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B487" s="1" t="s">
         <v>900</v>
       </c>
@@ -15325,7 +15330,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B488" s="1" t="s">
         <v>182</v>
       </c>
@@ -15339,7 +15344,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B489" s="1" t="s">
         <v>183</v>
       </c>
@@ -15356,7 +15361,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B490" s="1" t="s">
         <v>184</v>
       </c>
@@ -15370,7 +15375,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B491" s="1" t="s">
         <v>185</v>
       </c>
@@ -15387,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B492" s="1" t="s">
         <v>186</v>
       </c>
@@ -15401,7 +15406,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B493" s="1" t="s">
         <v>187</v>
       </c>
@@ -15418,7 +15423,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B494" s="1" t="s">
         <v>188</v>
       </c>
@@ -15435,7 +15440,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B495" s="1" t="s">
         <v>189</v>
       </c>
@@ -15449,7 +15454,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B496" s="1" t="s">
         <v>190</v>
       </c>
@@ -15463,7 +15468,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B497" s="1" t="s">
         <v>191</v>
       </c>
@@ -15477,7 +15482,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B498" s="1" t="s">
         <v>254</v>
       </c>
@@ -15491,7 +15496,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B499" s="1" t="s">
         <v>255</v>
       </c>
@@ -15508,7 +15513,7 @@
         <v>-0.24099999999999999</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B500" s="1" t="s">
         <v>256</v>
       </c>
@@ -15522,7 +15527,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B501" s="1" t="s">
         <v>257</v>
       </c>
@@ -15536,7 +15541,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B502" s="1" t="s">
         <v>258</v>
       </c>
@@ -15553,7 +15558,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B503" s="1" t="s">
         <v>259</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B504" s="1" t="s">
         <v>260</v>
       </c>
@@ -15581,7 +15586,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B505" s="1" t="s">
         <v>325</v>
       </c>
@@ -15598,7 +15603,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B506" s="1" t="s">
         <v>326</v>
       </c>
@@ -15612,7 +15617,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B507" s="1" t="s">
         <v>327</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B508" s="1" t="s">
         <v>328</v>
       </c>
@@ -15640,7 +15645,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B509" s="1" t="s">
         <v>329</v>
       </c>
@@ -15654,7 +15659,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B510" s="1" t="s">
         <v>330</v>
       </c>
@@ -15671,7 +15676,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B511" s="1" t="s">
         <v>331</v>
       </c>
@@ -15685,7 +15690,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B512" s="1" t="s">
         <v>417</v>
       </c>
@@ -15702,7 +15707,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B513" s="1" t="s">
         <v>418</v>
       </c>
@@ -15716,7 +15721,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B514" s="1" t="s">
         <v>572</v>
       </c>
@@ -15733,7 +15738,7 @@
         <v>-1.6279999999999999</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B515" s="1" t="s">
         <v>573</v>
       </c>
@@ -15747,7 +15752,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B516" s="1" t="s">
         <v>574</v>
       </c>
@@ -15764,7 +15769,7 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B517" s="1" t="s">
         <v>575</v>
       </c>
@@ -15781,7 +15786,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B518" s="1" t="s">
         <v>576</v>
       </c>
@@ -15798,7 +15803,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B519" s="1" t="s">
         <v>577</v>
       </c>
@@ -15812,7 +15817,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B520" s="1" t="s">
         <v>578</v>
       </c>
@@ -15826,7 +15831,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B521" s="1" t="s">
         <v>661</v>
       </c>
@@ -15843,7 +15848,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B522" s="1" t="s">
         <v>662</v>
       </c>
@@ -15857,7 +15862,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B523" s="1" t="s">
         <v>663</v>
       </c>
@@ -15871,7 +15876,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B524" s="1" t="s">
         <v>664</v>
       </c>
@@ -15888,7 +15893,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B525" s="1" t="s">
         <v>665</v>
       </c>
@@ -15902,7 +15907,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B526" s="1" t="s">
         <v>666</v>
       </c>
@@ -15919,7 +15924,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B527" s="1" t="s">
         <v>737</v>
       </c>
@@ -15933,7 +15938,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B528" s="1" t="s">
         <v>808</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B529" s="1" t="s">
         <v>809</v>
       </c>
@@ -15964,7 +15969,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B530" s="1" t="s">
         <v>810</v>
       </c>
@@ -15981,7 +15986,7 @@
         <v>-0.159</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B531" s="1" t="s">
         <v>901</v>
       </c>
@@ -15995,7 +16000,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B532" s="1" t="s">
         <v>192</v>
       </c>
@@ -16009,7 +16014,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B533" s="1" t="s">
         <v>193</v>
       </c>
@@ -16023,7 +16028,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B534" s="1" t="s">
         <v>194</v>
       </c>
@@ -16037,7 +16042,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B535" s="1" t="s">
         <v>195</v>
       </c>
@@ -16051,7 +16056,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B536" s="1" t="s">
         <v>196</v>
       </c>
@@ -16065,7 +16070,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B537" s="1" t="s">
         <v>197</v>
       </c>
@@ -16079,7 +16084,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B538" s="1" t="s">
         <v>198</v>
       </c>
@@ -16093,7 +16098,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B539" s="1" t="s">
         <v>199</v>
       </c>
@@ -16110,7 +16115,7 @@
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B540" s="1" t="s">
         <v>200</v>
       </c>
@@ -16127,7 +16132,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B541" s="1" t="s">
         <v>201</v>
       </c>
@@ -16141,7 +16146,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B542" s="1" t="s">
         <v>202</v>
       </c>
@@ -16155,7 +16160,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B543" s="1" t="s">
         <v>261</v>
       </c>
@@ -16169,7 +16174,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B544" s="1" t="s">
         <v>262</v>
       </c>
@@ -16183,7 +16188,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B545" s="1" t="s">
         <v>263</v>
       </c>
@@ -16197,7 +16202,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B546" s="1" t="s">
         <v>264</v>
       </c>
@@ -16211,7 +16216,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B547" s="1" t="s">
         <v>265</v>
       </c>
@@ -16225,7 +16230,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B548" s="1" t="s">
         <v>266</v>
       </c>
@@ -16242,7 +16247,7 @@
         <v>-0.183</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B549" s="1" t="s">
         <v>267</v>
       </c>
@@ -16256,7 +16261,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B550" s="1" t="s">
         <v>268</v>
       </c>
@@ -16270,7 +16275,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B551" s="1" t="s">
         <v>269</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B552" s="1" t="s">
         <v>270</v>
       </c>
@@ -16298,7 +16303,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B553" s="1" t="s">
         <v>271</v>
       </c>
@@ -16312,7 +16317,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B554" s="1" t="s">
         <v>272</v>
       </c>
@@ -16326,7 +16331,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B555" s="1" t="s">
         <v>273</v>
       </c>
@@ -16340,7 +16345,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B556" s="1" t="s">
         <v>274</v>
       </c>
@@ -16354,7 +16359,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B557" s="1" t="s">
         <v>275</v>
       </c>
@@ -16368,7 +16373,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B558" s="1" t="s">
         <v>276</v>
       </c>
@@ -16382,7 +16387,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B559" s="1" t="s">
         <v>277</v>
       </c>
@@ -16396,7 +16401,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B560" s="1" t="s">
         <v>278</v>
       </c>
@@ -16410,7 +16415,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="561" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B561" s="1" t="s">
         <v>279</v>
       </c>
@@ -16427,7 +16432,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="562" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B562" s="1" t="s">
         <v>280</v>
       </c>
@@ -16444,7 +16449,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="563" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B563" s="1" t="s">
         <v>281</v>
       </c>
@@ -16458,7 +16463,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B564" s="1" t="s">
         <v>282</v>
       </c>
@@ -16475,7 +16480,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="565" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B565" s="1" t="s">
         <v>283</v>
       </c>
@@ -16489,7 +16494,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="566" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B566" s="1" t="s">
         <v>284</v>
       </c>
@@ -16503,7 +16508,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="567" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B567" s="1" t="s">
         <v>285</v>
       </c>
@@ -16517,7 +16522,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="568" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B568" s="1" t="s">
         <v>286</v>
       </c>
@@ -16534,7 +16539,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="569" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B569" s="1" t="s">
         <v>332</v>
       </c>
@@ -16548,7 +16553,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B570" s="1" t="s">
         <v>333</v>
       </c>
@@ -16562,7 +16567,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="571" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B571" s="1" t="s">
         <v>334</v>
       </c>
@@ -16579,7 +16584,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="572" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B572" s="1" t="s">
         <v>335</v>
       </c>
@@ -16593,7 +16598,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B573" s="1" t="s">
         <v>336</v>
       </c>
@@ -16610,7 +16615,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B574" s="1" t="s">
         <v>337</v>
       </c>
@@ -16627,7 +16632,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B575" s="1" t="s">
         <v>338</v>
       </c>
@@ -16641,7 +16646,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B576" s="1" t="s">
         <v>339</v>
       </c>
@@ -16655,7 +16660,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="577" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B577" s="1" t="s">
         <v>340</v>
       </c>
@@ -16669,7 +16674,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="578" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B578" s="1" t="s">
         <v>341</v>
       </c>
@@ -16683,7 +16688,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="579" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B579" s="1" t="s">
         <v>342</v>
       </c>
@@ -16697,7 +16702,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="580" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B580" s="1" t="s">
         <v>343</v>
       </c>
@@ -16711,7 +16716,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="581" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B581" s="1" t="s">
         <v>344</v>
       </c>
@@ -16725,7 +16730,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="582" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B582" s="1" t="s">
         <v>345</v>
       </c>
@@ -16739,7 +16744,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="583" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B583" s="1" t="s">
         <v>346</v>
       </c>
@@ -16756,7 +16761,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="584" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B584" s="1" t="s">
         <v>347</v>
       </c>
@@ -16770,7 +16775,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="585" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B585" s="1" t="s">
         <v>348</v>
       </c>
@@ -16787,7 +16792,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="586" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B586" s="1" t="s">
         <v>349</v>
       </c>
@@ -16801,7 +16806,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="587" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B587" s="1" t="s">
         <v>350</v>
       </c>
@@ -16815,7 +16820,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="588" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B588" s="1" t="s">
         <v>351</v>
       </c>
@@ -16829,7 +16834,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="589" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B589" s="1" t="s">
         <v>352</v>
       </c>
@@ -16843,7 +16848,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="590" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B590" s="1" t="s">
         <v>353</v>
       </c>
@@ -16857,7 +16862,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="591" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B591" s="1" t="s">
         <v>354</v>
       </c>
@@ -16874,7 +16879,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="592" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B592" s="1" t="s">
         <v>355</v>
       </c>
@@ -16888,7 +16893,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="593" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B593" s="1" t="s">
         <v>356</v>
       </c>
@@ -16902,7 +16907,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B594" s="1" t="s">
         <v>357</v>
       </c>
@@ -16919,7 +16924,7 @@
         <v>-0.217</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B595" s="1" t="s">
         <v>358</v>
       </c>
@@ -16933,7 +16938,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B596" s="1" t="s">
         <v>359</v>
       </c>
@@ -16947,7 +16952,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B597" s="1" t="s">
         <v>360</v>
       </c>
@@ -16961,7 +16966,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B598" s="1" t="s">
         <v>361</v>
       </c>
@@ -16978,7 +16983,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B599" s="1" t="s">
         <v>362</v>
       </c>
@@ -16992,7 +16997,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="600" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B600" s="1" t="s">
         <v>363</v>
       </c>
@@ -17009,7 +17014,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="601" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B601" s="1" t="s">
         <v>364</v>
       </c>
@@ -17023,7 +17028,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="602" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B602" s="1" t="s">
         <v>365</v>
       </c>
@@ -17037,7 +17042,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="603" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B603" s="1" t="s">
         <v>366</v>
       </c>
@@ -17051,7 +17056,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="604" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B604" s="1" t="s">
         <v>367</v>
       </c>
@@ -17065,7 +17070,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="605" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B605" s="1" t="s">
         <v>368</v>
       </c>
@@ -17079,7 +17084,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="606" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B606" s="1" t="s">
         <v>369</v>
       </c>
@@ -17093,7 +17098,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="607" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="607" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B607" s="1" t="s">
         <v>419</v>
       </c>
@@ -17107,7 +17112,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="608" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B608" s="1" t="s">
         <v>420</v>
       </c>
@@ -17121,7 +17126,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="609" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="609" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B609" s="1" t="s">
         <v>421</v>
       </c>
@@ -17135,7 +17140,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="610" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="610" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B610" s="1" t="s">
         <v>422</v>
       </c>
@@ -17149,7 +17154,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="611" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="611" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B611" s="1" t="s">
         <v>423</v>
       </c>
@@ -17163,7 +17168,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="612" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B612" s="1" t="s">
         <v>424</v>
       </c>
@@ -17177,7 +17182,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="613" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="613" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B613" s="1" t="s">
         <v>425</v>
       </c>
@@ -17191,7 +17196,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="614" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="614" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B614" s="1" t="s">
         <v>426</v>
       </c>
@@ -17205,7 +17210,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="615" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="615" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B615" s="1" t="s">
         <v>427</v>
       </c>
@@ -17219,7 +17224,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="616" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="616" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B616" s="1" t="s">
         <v>428</v>
       </c>
@@ -17233,7 +17238,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="617" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="617" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B617" s="1" t="s">
         <v>429</v>
       </c>
@@ -17247,7 +17252,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="618" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="618" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B618" s="1" t="s">
         <v>430</v>
       </c>
@@ -17261,7 +17266,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="619" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="619" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B619" s="1" t="s">
         <v>431</v>
       </c>
@@ -17275,7 +17280,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="620" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B620" s="1" t="s">
         <v>432</v>
       </c>
@@ -17289,7 +17294,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="621" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="621" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B621" s="1" t="s">
         <v>433</v>
       </c>
@@ -17303,7 +17308,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="622" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="622" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B622" s="1" t="s">
         <v>434</v>
       </c>
@@ -17317,7 +17322,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="623" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="623" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B623" s="1" t="s">
         <v>435</v>
       </c>
@@ -17334,7 +17339,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="624" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="624" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B624" s="1" t="s">
         <v>436</v>
       </c>
@@ -17348,7 +17353,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="625" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B625" s="1" t="s">
         <v>437</v>
       </c>
@@ -17365,7 +17370,7 @@
         <v>-0.16400000000000001</v>
       </c>
     </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="626" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B626" s="1" t="s">
         <v>438</v>
       </c>
@@ -17382,7 +17387,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="627" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B627" s="1" t="s">
         <v>439</v>
       </c>
@@ -17396,7 +17401,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="628" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B628" s="1" t="s">
         <v>440</v>
       </c>
@@ -17410,7 +17415,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="629" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B629" s="1" t="s">
         <v>441</v>
       </c>
@@ -17424,7 +17429,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="630" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B630" s="1" t="s">
         <v>442</v>
       </c>
@@ -17438,7 +17443,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="631" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B631" s="1" t="s">
         <v>443</v>
       </c>
@@ -17452,7 +17457,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="632" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B632" s="1" t="s">
         <v>444</v>
       </c>
@@ -17469,7 +17474,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="633" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B633" s="1" t="s">
         <v>445</v>
       </c>
@@ -17483,7 +17488,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="634" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B634" s="1" t="s">
         <v>446</v>
       </c>
@@ -17500,7 +17505,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="635" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B635" s="1" t="s">
         <v>447</v>
       </c>
@@ -17514,7 +17519,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="636" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B636" s="1" t="s">
         <v>448</v>
       </c>
@@ -17528,7 +17533,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="637" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B637" s="1" t="s">
         <v>449</v>
       </c>
@@ -17542,7 +17547,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="638" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B638" s="1" t="s">
         <v>450</v>
       </c>
@@ -17559,7 +17564,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="639" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B639" s="1" t="s">
         <v>451</v>
       </c>
@@ -17573,7 +17578,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="640" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B640" s="1" t="s">
         <v>452</v>
       </c>
@@ -17590,7 +17595,7 @@
         <v>-0.36499999999999999</v>
       </c>
     </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="641" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B641" s="1" t="s">
         <v>453</v>
       </c>
@@ -17604,7 +17609,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="642" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B642" s="1" t="s">
         <v>454</v>
       </c>
@@ -17621,7 +17626,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="643" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B643" s="1" t="s">
         <v>455</v>
       </c>
@@ -17635,7 +17640,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="644" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B644" s="1" t="s">
         <v>456</v>
       </c>
@@ -17649,7 +17654,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="645" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B645" s="1" t="s">
         <v>509</v>
       </c>
@@ -17663,7 +17668,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="646" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B646" s="1" t="s">
         <v>510</v>
       </c>
@@ -17677,7 +17682,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="647" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B647" s="1" t="s">
         <v>511</v>
       </c>
@@ -17691,7 +17696,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="648" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B648" s="1" t="s">
         <v>512</v>
       </c>
@@ -17705,7 +17710,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="649" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B649" s="1" t="s">
         <v>513</v>
       </c>
@@ -17719,7 +17724,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="650" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B650" s="1" t="s">
         <v>514</v>
       </c>
@@ -17736,7 +17741,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="651" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B651" s="1" t="s">
         <v>515</v>
       </c>
@@ -17750,7 +17755,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="652" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B652" s="1" t="s">
         <v>516</v>
       </c>
@@ -17764,7 +17769,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="653" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B653" s="1" t="s">
         <v>517</v>
       </c>
@@ -17778,7 +17783,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="654" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B654" s="1" t="s">
         <v>518</v>
       </c>
@@ -17792,7 +17797,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="655" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B655" s="1" t="s">
         <v>519</v>
       </c>
@@ -17806,7 +17811,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="656" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B656" s="1" t="s">
         <v>520</v>
       </c>
@@ -17820,7 +17825,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="657" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B657" s="1" t="s">
         <v>521</v>
       </c>
@@ -17834,7 +17839,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="658" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B658" s="1" t="s">
         <v>522</v>
       </c>
@@ -17848,7 +17853,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="659" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B659" s="1" t="s">
         <v>523</v>
       </c>
@@ -17862,7 +17867,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="660" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B660" s="1" t="s">
         <v>377</v>
       </c>
@@ -17876,7 +17881,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="661" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B661" s="1" t="s">
         <v>524</v>
       </c>
@@ -17893,7 +17898,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="662" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B662" s="1" t="s">
         <v>525</v>
       </c>
@@ -17910,7 +17915,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="663" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B663" s="1" t="s">
         <v>526</v>
       </c>
@@ -17924,7 +17929,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="664" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B664" s="1" t="s">
         <v>527</v>
       </c>
@@ -17938,7 +17943,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="665" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B665" s="1" t="s">
         <v>528</v>
       </c>
@@ -17955,7 +17960,7 @@
         <v>-0.127</v>
       </c>
     </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="666" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B666" s="1" t="s">
         <v>529</v>
       </c>
@@ -17969,7 +17974,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="667" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B667" s="1" t="s">
         <v>530</v>
       </c>
@@ -17983,7 +17988,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="668" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B668" s="1" t="s">
         <v>531</v>
       </c>
@@ -17997,7 +18002,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="669" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B669" s="1" t="s">
         <v>532</v>
       </c>
@@ -18011,7 +18016,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="670" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B670" s="1" t="s">
         <v>533</v>
       </c>
@@ -18025,7 +18030,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="671" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B671" s="1" t="s">
         <v>534</v>
       </c>
@@ -18042,7 +18047,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="672" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B672" s="1" t="s">
         <v>535</v>
       </c>
@@ -18059,7 +18064,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="673" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B673" s="1" t="s">
         <v>536</v>
       </c>
@@ -18073,7 +18078,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="674" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B674" s="1" t="s">
         <v>579</v>
       </c>
@@ -18087,7 +18092,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B675" s="1" t="s">
         <v>580</v>
       </c>
@@ -18101,7 +18106,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B676" s="1" t="s">
         <v>581</v>
       </c>
@@ -18115,7 +18120,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B677" s="1" t="s">
         <v>582</v>
       </c>
@@ -18129,7 +18134,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B678" s="1" t="s">
         <v>583</v>
       </c>
@@ -18146,7 +18151,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B679" s="1" t="s">
         <v>584</v>
       </c>
@@ -18160,7 +18165,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B680" s="1" t="s">
         <v>585</v>
       </c>
@@ -18174,7 +18179,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="681" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B681" s="1" t="s">
         <v>586</v>
       </c>
@@ -18188,7 +18193,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B682" s="1" t="s">
         <v>587</v>
       </c>
@@ -18202,7 +18207,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="683" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B683" s="1" t="s">
         <v>588</v>
       </c>
@@ -18216,7 +18221,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="684" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="684" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B684" s="1" t="s">
         <v>589</v>
       </c>
@@ -18230,7 +18235,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="685" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="685" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B685" s="1" t="s">
         <v>590</v>
       </c>
@@ -18244,7 +18249,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="686" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B686" s="1" t="s">
         <v>591</v>
       </c>
@@ -18258,7 +18263,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B687" s="1" t="s">
         <v>592</v>
       </c>
@@ -18272,7 +18277,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="688" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B688" s="1" t="s">
         <v>593</v>
       </c>
@@ -18286,7 +18291,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B689" s="1" t="s">
         <v>594</v>
       </c>
@@ -18303,7 +18308,7 @@
         <v>-0.312</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B690" s="1" t="s">
         <v>595</v>
       </c>
@@ -18317,7 +18322,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B691" s="1" t="s">
         <v>596</v>
       </c>
@@ -18331,7 +18336,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="692" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="692" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B692" s="1" t="s">
         <v>597</v>
       </c>
@@ -18345,7 +18350,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="693" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="693" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B693" s="1" t="s">
         <v>598</v>
       </c>
@@ -18359,7 +18364,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="694" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B694" s="1" t="s">
         <v>599</v>
       </c>
@@ -18373,7 +18378,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="695" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B695" s="1" t="s">
         <v>600</v>
       </c>
@@ -18390,7 +18395,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B696" s="1" t="s">
         <v>601</v>
       </c>
@@ -18407,7 +18412,7 @@
         <v>-6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="697" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="697" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B697" s="1" t="s">
         <v>602</v>
       </c>
@@ -18424,7 +18429,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="698" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="698" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B698" s="1" t="s">
         <v>603</v>
       </c>
@@ -18438,7 +18443,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="699" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B699" s="1" t="s">
         <v>604</v>
       </c>
@@ -18452,7 +18457,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="700" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B700" s="1" t="s">
         <v>605</v>
       </c>
@@ -18466,7 +18471,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="701" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B701" s="1" t="s">
         <v>606</v>
       </c>
@@ -18480,7 +18485,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="702" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B702" s="1" t="s">
         <v>607</v>
       </c>
@@ -18494,7 +18499,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="703" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B703" s="1" t="s">
         <v>608</v>
       </c>
@@ -18511,7 +18516,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="704" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="704" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B704" s="1" t="s">
         <v>609</v>
       </c>
@@ -18525,7 +18530,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="705" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B705" s="1" t="s">
         <v>610</v>
       </c>
@@ -18539,7 +18544,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="706" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B706" s="1" t="s">
         <v>667</v>
       </c>
@@ -18553,7 +18558,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="707" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B707" s="1" t="s">
         <v>37</v>
       </c>
@@ -18567,7 +18572,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="708" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B708" s="1" t="s">
         <v>668</v>
       </c>
@@ -18584,7 +18589,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="709" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B709" s="1" t="s">
         <v>669</v>
       </c>
@@ -18598,7 +18603,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="710" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="710" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B710" s="1" t="s">
         <v>670</v>
       </c>
@@ -18615,7 +18620,7 @@
         <v>-0.19900000000000001</v>
       </c>
     </row>
-    <row r="711" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="711" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B711" s="1" t="s">
         <v>671</v>
       </c>
@@ -18629,7 +18634,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="712" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="712" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B712" s="1" t="s">
         <v>672</v>
       </c>
@@ -18643,7 +18648,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="713" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="713" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B713" s="1" t="s">
         <v>673</v>
       </c>
@@ -18657,7 +18662,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="714" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="714" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B714" s="1" t="s">
         <v>674</v>
       </c>
@@ -18671,7 +18676,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="715" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="715" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B715" s="1" t="s">
         <v>675</v>
       </c>
@@ -18688,7 +18693,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="716" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="716" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B716" s="1" t="s">
         <v>676</v>
       </c>
@@ -18702,7 +18707,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="717" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="717" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B717" s="1" t="s">
         <v>677</v>
       </c>
@@ -18716,7 +18721,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="718" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="718" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B718" s="1" t="s">
         <v>678</v>
       </c>
@@ -18730,7 +18735,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="719" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="719" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B719" s="1" t="s">
         <v>679</v>
       </c>
@@ -18744,7 +18749,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="720" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B720" s="1" t="s">
         <v>680</v>
       </c>
@@ -18758,7 +18763,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="721" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B721" s="1" t="s">
         <v>681</v>
       </c>
@@ -18772,7 +18777,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="722" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B722" s="1" t="s">
         <v>682</v>
       </c>
@@ -18786,7 +18791,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="723" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B723" s="1" t="s">
         <v>683</v>
       </c>
@@ -18800,7 +18805,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="724" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B724" s="1" t="s">
         <v>684</v>
       </c>
@@ -18814,7 +18819,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="725" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B725" s="1" t="s">
         <v>685</v>
       </c>
@@ -18828,7 +18833,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="726" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="726" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B726" s="1" t="s">
         <v>686</v>
       </c>
@@ -18842,7 +18847,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="727" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B727" s="1" t="s">
         <v>687</v>
       </c>
@@ -18856,7 +18861,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="728" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="728" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B728" s="1" t="s">
         <v>688</v>
       </c>
@@ -18873,7 +18878,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="729" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="729" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B729" s="1" t="s">
         <v>689</v>
       </c>
@@ -18887,7 +18892,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="730" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="730" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B730" s="1" t="s">
         <v>690</v>
       </c>
@@ -18901,7 +18906,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="731" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B731" s="1" t="s">
         <v>691</v>
       </c>
@@ -18915,7 +18920,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="732" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B732" s="1" t="s">
         <v>233</v>
       </c>
@@ -18932,7 +18937,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="733" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B733" s="1" t="s">
         <v>692</v>
       </c>
@@ -18946,7 +18951,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="734" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B734" s="1" t="s">
         <v>693</v>
       </c>
@@ -18960,7 +18965,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="735" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B735" s="1" t="s">
         <v>587</v>
       </c>
@@ -18977,7 +18982,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="736" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B736" s="1" t="s">
         <v>738</v>
       </c>
@@ -18991,7 +18996,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="737" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="737" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B737" s="1" t="s">
         <v>739</v>
       </c>
@@ -19005,7 +19010,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="738" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="738" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B738" s="1" t="s">
         <v>740</v>
       </c>
@@ -19019,7 +19024,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="739" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B739" s="1" t="s">
         <v>741</v>
       </c>
@@ -19036,7 +19041,7 @@
         <v>-0.30299999999999999</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B740" s="1" t="s">
         <v>742</v>
       </c>
@@ -19053,7 +19058,7 @@
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B741" s="1" t="s">
         <v>743</v>
       </c>
@@ -19070,7 +19075,7 @@
         <v>-0.17599999999999999</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="742" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B742" s="1" t="s">
         <v>744</v>
       </c>
@@ -19084,7 +19089,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="743" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B743" s="1" t="s">
         <v>745</v>
       </c>
@@ -19098,7 +19103,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="744" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B744" s="1" t="s">
         <v>746</v>
       </c>
@@ -19112,7 +19117,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="745" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B745" s="1" t="s">
         <v>747</v>
       </c>
@@ -19126,7 +19131,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="746" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B746" s="1" t="s">
         <v>748</v>
       </c>
@@ -19140,7 +19145,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="747" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B747" s="1" t="s">
         <v>749</v>
       </c>
@@ -19154,7 +19159,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="748" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B748" s="1" t="s">
         <v>750</v>
       </c>
@@ -19168,7 +19173,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="749" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="749" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B749" s="1" t="s">
         <v>751</v>
       </c>
@@ -19182,7 +19187,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="750" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B750" s="1" t="s">
         <v>752</v>
       </c>
@@ -19196,7 +19201,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="751" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B751" s="1" t="s">
         <v>753</v>
       </c>
@@ -19210,7 +19215,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="752" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B752" s="1" t="s">
         <v>754</v>
       </c>
@@ -19224,7 +19229,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B753" s="1" t="s">
         <v>755</v>
       </c>
@@ -19241,7 +19246,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B754" s="1" t="s">
         <v>756</v>
       </c>
@@ -19255,7 +19260,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="755" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="755" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B755" s="1" t="s">
         <v>757</v>
       </c>
@@ -19272,7 +19277,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="756" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="756" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B756" s="1" t="s">
         <v>758</v>
       </c>
@@ -19289,7 +19294,7 @@
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="757" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="757" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B757" s="1" t="s">
         <v>759</v>
       </c>
@@ -19306,7 +19311,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="758" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="758" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B758" s="1" t="s">
         <v>760</v>
       </c>
@@ -19320,7 +19325,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="759" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="759" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B759" s="1" t="s">
         <v>761</v>
       </c>
@@ -19334,7 +19339,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="760" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="760" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B760" s="1" t="s">
         <v>762</v>
       </c>
@@ -19348,7 +19353,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="761" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="761" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B761" s="1" t="s">
         <v>763</v>
       </c>
@@ -19362,7 +19367,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="762" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="762" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B762" s="1" t="s">
         <v>381</v>
       </c>
@@ -19376,7 +19381,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="763" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="763" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B763" s="1" t="s">
         <v>764</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="764" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="764" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B764" s="1" t="s">
         <v>765</v>
       </c>
@@ -19404,7 +19409,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="765" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="765" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B765" s="1" t="s">
         <v>766</v>
       </c>
@@ -19418,7 +19423,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="766" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="766" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B766" s="1" t="s">
         <v>554</v>
       </c>
@@ -19432,7 +19437,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="767" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="767" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B767" s="1" t="s">
         <v>767</v>
       </c>
@@ -19449,7 +19454,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="768" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B768" s="1" t="s">
         <v>768</v>
       </c>
@@ -19463,7 +19468,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="769" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B769" s="1" t="s">
         <v>769</v>
       </c>
@@ -19477,7 +19482,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="770" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B770" s="1" t="s">
         <v>770</v>
       </c>
@@ -19491,7 +19496,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="771" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B771" s="1" t="s">
         <v>811</v>
       </c>
@@ -19508,7 +19513,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="772" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B772" s="1" t="s">
         <v>812</v>
       </c>
@@ -19522,7 +19527,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="773" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B773" s="1" t="s">
         <v>813</v>
       </c>
@@ -19536,7 +19541,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="774" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="774" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B774" s="1" t="s">
         <v>814</v>
       </c>
@@ -19553,7 +19558,7 @@
         <v>-0.52700000000000002</v>
       </c>
     </row>
-    <row r="775" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="775" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B775" s="1" t="s">
         <v>815</v>
       </c>
@@ -19570,7 +19575,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="776" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="776" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B776" s="1" t="s">
         <v>816</v>
       </c>
@@ -19584,7 +19589,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="777" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="777" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B777" s="1" t="s">
         <v>817</v>
       </c>
@@ -19598,7 +19603,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="778" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="778" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B778" s="1" t="s">
         <v>818</v>
       </c>
@@ -19612,7 +19617,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="779" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B779" s="1" t="s">
         <v>819</v>
       </c>
@@ -19629,7 +19634,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="780" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="780" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B780" s="1" t="s">
         <v>584</v>
       </c>
@@ -19643,7 +19648,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="781" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="781" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B781" s="1" t="s">
         <v>820</v>
       </c>
@@ -19657,7 +19662,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="782" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="782" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B782" s="1" t="s">
         <v>821</v>
       </c>
@@ -19671,7 +19676,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="783" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="783" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B783" s="1" t="s">
         <v>822</v>
       </c>
@@ -19685,7 +19690,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="784" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="784" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B784" s="1" t="s">
         <v>823</v>
       </c>
@@ -19699,7 +19704,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="785" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="785" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B785" s="1" t="s">
         <v>824</v>
       </c>
@@ -19713,7 +19718,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="786" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="786" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B786" s="1" t="s">
         <v>825</v>
       </c>
@@ -19727,7 +19732,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="787" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="787" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B787" s="1" t="s">
         <v>826</v>
       </c>
@@ -19741,7 +19746,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="788" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="788" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B788" s="1" t="s">
         <v>827</v>
       </c>
@@ -19755,7 +19760,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="789" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="789" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B789" s="1" t="s">
         <v>828</v>
       </c>
@@ -19772,7 +19777,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="790" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="790" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B790" s="1" t="s">
         <v>829</v>
       </c>
@@ -19786,7 +19791,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="791" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="791" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B791" s="1" t="s">
         <v>830</v>
       </c>
@@ -19800,7 +19805,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="792" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="792" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B792" s="1" t="s">
         <v>831</v>
       </c>
@@ -19817,7 +19822,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="793" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="793" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B793" s="1" t="s">
         <v>358</v>
       </c>
@@ -19834,7 +19839,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="794" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="794" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B794" s="1" t="s">
         <v>832</v>
       </c>
@@ -19848,7 +19853,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="795" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="795" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B795" s="1" t="s">
         <v>833</v>
       </c>
@@ -19862,7 +19867,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="796" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="796" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B796" s="1" t="s">
         <v>834</v>
       </c>
@@ -19879,7 +19884,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="797" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="797" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B797" s="1" t="s">
         <v>835</v>
       </c>
@@ -19896,7 +19901,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="798" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="798" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B798" s="1" t="s">
         <v>836</v>
       </c>
@@ -19913,7 +19918,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="799" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B799" s="1" t="s">
         <v>837</v>
       </c>
@@ -19927,7 +19932,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="800" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B800" s="1" t="s">
         <v>838</v>
       </c>
@@ -19941,7 +19946,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="801" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B801" s="1" t="s">
         <v>839</v>
       </c>
@@ -19955,7 +19960,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="802" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B802" s="1" t="s">
         <v>840</v>
       </c>
@@ -19969,7 +19974,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="803" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B803" s="1" t="s">
         <v>841</v>
       </c>
@@ -19983,7 +19988,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="804" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B804" s="1" t="s">
         <v>842</v>
       </c>
@@ -19997,7 +20002,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="805" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B805" s="1" t="s">
         <v>843</v>
       </c>
@@ -20011,7 +20016,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="806" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B806" s="1" t="s">
         <v>844</v>
       </c>
@@ -20025,7 +20030,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="807" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B807" s="1" t="s">
         <v>244</v>
       </c>
@@ -20039,7 +20044,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="808" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="808" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B808" s="1" t="s">
         <v>845</v>
       </c>
@@ -20053,7 +20058,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="809" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="809" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B809" s="1" t="s">
         <v>846</v>
       </c>
@@ -20067,7 +20072,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="810" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="810" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B810" s="1" t="s">
         <v>847</v>
       </c>
@@ -20081,7 +20086,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="811" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="811" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B811" s="1" t="s">
         <v>848</v>
       </c>
@@ -20098,7 +20103,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="812" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="812" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B812" s="1" t="s">
         <v>849</v>
       </c>
@@ -20115,7 +20120,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="813" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="813" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B813" s="1" t="s">
         <v>850</v>
       </c>
@@ -20129,7 +20134,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="814" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="814" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B814" s="1" t="s">
         <v>851</v>
       </c>
@@ -20143,7 +20148,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="815" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="815" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B815" s="1" t="s">
         <v>852</v>
       </c>
@@ -20157,7 +20162,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="816" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="816" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B816" s="1" t="s">
         <v>902</v>
       </c>
@@ -20171,7 +20176,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="817" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="817" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B817" s="1" t="s">
         <v>903</v>
       </c>
@@ -20185,7 +20190,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="818" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="818" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B818" s="1" t="s">
         <v>727</v>
       </c>
@@ -20199,7 +20204,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="819" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="819" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B819" s="1" t="s">
         <v>904</v>
       </c>
@@ -20213,7 +20218,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="820" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="820" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B820" s="1" t="s">
         <v>905</v>
       </c>
@@ -20227,7 +20232,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="821" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="821" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B821" s="1" t="s">
         <v>906</v>
       </c>
@@ -20241,7 +20246,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="822" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B822" s="1" t="s">
         <v>907</v>
       </c>
@@ -20255,7 +20260,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="823" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B823" s="1" t="s">
         <v>908</v>
       </c>
@@ -20269,7 +20274,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="824" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B824" s="1" t="s">
         <v>909</v>
       </c>
@@ -20283,7 +20288,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="825" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B825" s="1" t="s">
         <v>910</v>
       </c>
@@ -20297,7 +20302,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="826" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="826" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B826" s="1" t="s">
         <v>656</v>
       </c>
@@ -20311,7 +20316,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="827" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="827" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B827" s="1" t="s">
         <v>911</v>
       </c>
@@ -20325,7 +20330,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="828" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="828" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B828" s="1" t="s">
         <v>912</v>
       </c>
@@ -20339,7 +20344,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="829" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="829" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B829" s="1" t="s">
         <v>913</v>
       </c>
@@ -20353,7 +20358,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="830" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="830" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B830" s="1" t="s">
         <v>914</v>
       </c>
@@ -20370,7 +20375,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="831" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="831" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B831" s="1" t="s">
         <v>915</v>
       </c>
@@ -20384,7 +20389,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="832" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="832" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B832" s="1" t="s">
         <v>916</v>
       </c>
@@ -20398,7 +20403,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="833" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="833" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B833" s="1" t="s">
         <v>917</v>
       </c>
@@ -20412,7 +20417,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="834" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="834" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B834" s="1" t="s">
         <v>918</v>
       </c>
@@ -20426,7 +20431,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="835" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="835" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B835" s="1" t="s">
         <v>919</v>
       </c>
@@ -20443,7 +20448,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="836" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B836" s="1" t="s">
         <v>920</v>
       </c>
@@ -20457,7 +20462,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="837" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B837" s="1" t="s">
         <v>921</v>
       </c>
@@ -20474,7 +20479,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="838" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B838" s="1" t="s">
         <v>922</v>
       </c>
@@ -20491,7 +20496,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="839" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B839" s="1" t="s">
         <v>923</v>
       </c>
@@ -20508,7 +20513,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="840" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="840" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B840" s="1" t="s">
         <v>924</v>
       </c>
@@ -20522,7 +20527,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="841" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="841" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B841" s="1" t="s">
         <v>925</v>
       </c>
@@ -20539,7 +20544,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="842" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="842" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B842" s="1" t="s">
         <v>926</v>
       </c>
@@ -20553,7 +20558,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="843" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B843" s="1" t="s">
         <v>248</v>
       </c>

--- a/2019 FA Prediction.xlsx
+++ b/2019 FA Prediction.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB7EF4-2E3C-4D9D-806E-4EDFD2FB8ED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="4980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014~2018" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014~2018'!$B$2:$J$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2019'!$B$2:$T$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2958,7 +2959,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -3106,25 +3107,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B2:J88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="B2:J88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B2:J88" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B2:J88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:J88">
     <sortCondition descending="1" ref="E2:E88"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="년도" dataDxfId="15"/>
-    <tableColumn id="2" name="선수" dataDxfId="14"/>
-    <tableColumn id="3" name="투/타" dataDxfId="13"/>
-    <tableColumn id="4" name="총액 (억)" dataDxfId="12"/>
-    <tableColumn id="5" name="년수" dataDxfId="11"/>
-    <tableColumn id="6" name="AAV" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="년도" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="선수" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="투/타" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="총액 (억)" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="년수" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AAV" dataDxfId="10">
       <calculatedColumnFormula>E3/F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="지불금액" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="지불금액" dataDxfId="9">
       <calculatedColumnFormula>E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="계약 이후 WAR*" dataDxfId="8"/>
-    <tableColumn id="9" name="1 WAR* 당 금액" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="계약 이후 WAR*" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1 WAR* 당 금액" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(H3/I3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3133,17 +3134,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="B2:F843" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F843"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표2" displayName="표2" ref="B2:F843" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F843" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="B3:F843">
     <sortCondition descending="1" ref="E2:E843"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="선수" dataDxfId="4"/>
-    <tableColumn id="2" name="년도" dataDxfId="3"/>
-    <tableColumn id="3" name="팀" dataDxfId="2"/>
-    <tableColumn id="4" name="금액 (억)" dataDxfId="1"/>
-    <tableColumn id="5" name="WAR" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="선수" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="년도" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="팀" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="금액 (억)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="WAR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3411,30 +3412,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="8.75" style="1"/>
-    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.75" style="1"/>
+    <col min="1" max="4" width="8.69921875" style="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.09765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.69921875" style="1"/>
     <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="14" max="14" width="10.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
         <v>119</v>
@@ -3449,7 +3450,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>6.5055300111842911</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>2017</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>7.1837332432127994</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2018</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>8.3445606994410184</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>2017</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>6.9223907225691343</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2018</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>7.0313695485845455</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>2016</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>7.2079701120797051</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>2017</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>9.3688362919132153</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>2015</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>18.867924528301888</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>2018</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>5.9459459459459456</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>2015</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>4.4908616187989558</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>2017</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>8.0340264650283562</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>2016</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>7.3684210526315788</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>2016</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>7.7395577395577391</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>2015</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>7.1611253196930944</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>2018</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>10.416666666666668</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>2018</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>6.4935064935064934</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>2015</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>7.0859167404783001</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>2014</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>4.9439683586025049</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>2014</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>4.3640897755610979</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>2014</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>6.9214876033057857</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>2017</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>20.061728395061728</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>2016</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>5.0675675675675675</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>2016</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>5.7618437900128043</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>2014</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>-176.47058823529412</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>2015</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>11.313131313131313</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>2017</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>4.1806020066889626</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>2015</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>4.2194092827004219</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>2014</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>6.6050198150594452</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>2017</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>3.4364261168384878</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>2016</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>12.605042016806724</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>2016</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>5.4285714285714288</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>2016</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>38.513513513513516</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>2016</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>2.827225130890052</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>2016</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>9.5744680851063837</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>2018</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>7.0707070707070709</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>2016</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>7.3735955056179776</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>2014</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>5.0143266475644692</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>2015</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>12.318840579710146</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>2016</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>-184.61538461538461</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>2015</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>8.247422680412372</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>2016</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>76.92307692307692</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>2016</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>2014</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>3.5799522673031023</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>2018</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>27.884615384615383</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>2015</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>14.893617021276597</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>2014</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>4.3343653250773997</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>2018</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>3.2374100719424463</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>2017</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>2.8481012658227849</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>2017</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>2014</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>-22.368421052631582</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>2014</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>3.8897893030794166</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>2017</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>4.8596112311015123</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>2015</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>2015</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>-44.791666666666671</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>2014</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>-333.33333333333337</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>2015</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>1.3957055214723926</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>2014</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>9.1397849462365581</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>2018</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>-41.666666666666671</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>2017</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>2017</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>20.27027027027027</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>2016</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>8.4051724137931032</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>2014</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>30.232558139534884</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>2018</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>2016</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>5.8659217877094969</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>2018</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>6.8027210884353746</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>2018</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>2016</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>-5.7803468208092488</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>2015</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>2.5679758308157101</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>2014</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>2.2792022792022792</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>2018</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>2017</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>4.4585987261146496</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>2016</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>6.391752577319588</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>2018</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>2.8037383177570092</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>2018</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>-4.615384615384615</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>2015</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>5.9782608695652169</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>2018</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>-6.9444444444444446</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>2016</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>2015</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>3.6231884057971016</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>2017</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>-15.517241379310345</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>2015</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>-5.6962025316455698</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>2015</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>2018</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>2015</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>2015</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>-3.4188034188034191</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>2018</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>1.2396694214876034</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>2014</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>-4.166666666666667</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>2018</v>
       </c>
@@ -6326,31 +6327,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="10.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.8984375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.69921875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8.75" style="1"/>
+    <col min="18" max="19" width="8.69921875" style="1"/>
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.75" style="1"/>
+    <col min="21" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.4">
       <c r="E1" s="3">
         <v>43647</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6424,7 +6425,7 @@
         <v>6.1874842925358129</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6">
-        <f>YEAR(43647)-YEAR(C3)</f>
+        <f t="shared" ref="E3:E10" si="0">YEAR(43647)-YEAR(C3)</f>
         <v>32</v>
       </c>
       <c r="F3" s="4">
@@ -6466,19 +6467,19 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1">
-        <f>COUNT(I3:N3)</f>
+        <f t="shared" ref="O3:O17" si="1">COUNT(I3:N3)</f>
         <v>4</v>
       </c>
       <c r="P3" s="2">
-        <f>SUM(I3:N3)</f>
+        <f t="shared" ref="P3:P17" si="2">SUM(I3:N3)</f>
         <v>17.163897612</v>
       </c>
       <c r="Q3" s="5">
-        <f>SUM(I3:N3)*SUMIFS($W$2:$W$3,$V$2:$V$3,D3)</f>
+        <f t="shared" ref="Q3:Q14" si="3">SUM(I3:N3)*SUMIFS($W$2:$W$3,$V$2:$V$3,D3)</f>
         <v>106.20134687294295</v>
       </c>
       <c r="R3" s="5">
-        <f>SUM(I3:N3)*$W$4</f>
+        <f t="shared" ref="R3:R14" si="4">SUM(I3:N3)*$W$4</f>
         <v>123.71686099409222</v>
       </c>
       <c r="S3" s="1">
@@ -6496,7 +6497,7 @@
         <v>10.162503031772982</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6">
-        <f>YEAR(43647)-YEAR(C4)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F4" s="4">
@@ -6544,19 +6545,19 @@
         <v>2.3430728129139196</v>
       </c>
       <c r="O4" s="1">
-        <f>COUNT(I4:N4)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P4" s="2">
-        <f>SUM(I4:N4)</f>
+        <f t="shared" si="2"/>
         <v>19.445607575761919</v>
       </c>
       <c r="Q4" s="5">
-        <f>SUM(I4:N4)*SUMIFS($W$2:$W$3,$V$2:$V$3,D4)</f>
+        <f t="shared" si="3"/>
         <v>120.31939143384228</v>
       </c>
       <c r="R4" s="5">
-        <f>SUM(I4:N4)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>140.16335821732261</v>
       </c>
       <c r="S4" s="5">
@@ -6574,7 +6575,7 @@
         <v>7.2079701120797051</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="6">
-        <f>YEAR(43647)-YEAR(C5)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="F5" s="4">
@@ -6614,19 +6615,19 @@
         <v>2.124822644</v>
       </c>
       <c r="O5" s="1">
-        <f>COUNT(I5:N5)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="P5" s="2">
-        <f>SUM(I5:N5)</f>
+        <f t="shared" si="2"/>
         <v>9.6780762439999997</v>
       </c>
       <c r="Q5" s="5">
-        <f>SUM(I5:N5)*SUMIFS($W$2:$W$3,$V$2:$V$3,D5)</f>
+        <f t="shared" si="3"/>
         <v>59.882944741713992</v>
       </c>
       <c r="R5" s="5">
-        <f>SUM(I5:N5)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>69.759284309180615</v>
       </c>
       <c r="S5" s="1">
@@ -6636,7 +6637,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="6">
-        <f>YEAR(43647)-YEAR(C6)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F6" s="4">
@@ -6670,19 +6671,19 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="O6" s="1">
-        <f>COUNT(I6:N6)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P6" s="2">
-        <f>SUM(I6:N6)</f>
+        <f t="shared" si="2"/>
         <v>2.7510979999999998</v>
       </c>
       <c r="Q6" s="5">
-        <f>SUM(I6:N6)*SUMIFS($W$2:$W$3,$V$2:$V$3,D6)</f>
+        <f t="shared" si="3"/>
         <v>17.02237566222669</v>
       </c>
       <c r="R6" s="5">
-        <f>SUM(I6:N6)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>19.829832159402251</v>
       </c>
       <c r="S6" s="1">
@@ -6693,7 +6694,7 @@
         <v>4.1701678405977489</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="6">
-        <f>YEAR(43647)-YEAR(C7)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F7" s="4">
@@ -6730,19 +6731,19 @@
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="1">
-        <f>COUNT(I7:N7)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P7" s="2">
-        <f>SUM(I7:N7)</f>
+        <f t="shared" si="2"/>
         <v>5.2162831199999999</v>
       </c>
       <c r="Q7" s="5">
-        <f>SUM(I7:N7)*SUMIFS($W$2:$W$3,$V$2:$V$3,D7)</f>
+        <f t="shared" si="3"/>
         <v>32.275669870419705</v>
       </c>
       <c r="R7" s="5">
-        <f>SUM(I7:N7)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>37.598812825105874</v>
       </c>
       <c r="S7" s="1">
@@ -6753,7 +6754,7 @@
         <v>-12.275669870419705</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>122</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="6">
-        <f>YEAR(43647)-YEAR(C8)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F8" s="2">
@@ -6789,19 +6790,19 @@
         <v>0.61594719999999992</v>
       </c>
       <c r="O8" s="1">
-        <f>COUNT(I8:N8)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P8" s="2">
-        <f>SUM(I8:N8)</f>
+        <f t="shared" si="2"/>
         <v>2.4833771999999996</v>
       </c>
       <c r="Q8" s="5">
-        <f>SUM(I8:N8)*SUMIFS($W$2:$W$3,$V$2:$V$3,D8)</f>
+        <f t="shared" si="3"/>
         <v>15.365857417441566</v>
       </c>
       <c r="R8" s="5">
-        <f>SUM(I8:N8)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>17.900108634620182</v>
       </c>
       <c r="S8" s="9">
@@ -6811,7 +6812,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>113</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>114</v>
       </c>
       <c r="E9" s="6">
-        <f>YEAR(43647)-YEAR(C9)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="F9" s="4">
@@ -6848,19 +6849,19 @@
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="1">
-        <f>COUNT(I9:N9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P9" s="2">
-        <f>SUM(I9:N9)</f>
+        <f t="shared" si="2"/>
         <v>1.2603072000000002</v>
       </c>
       <c r="Q9" s="5">
-        <f>SUM(I9:N9)*SUMIFS($W$2:$W$3,$V$2:$V$3,D9)</f>
+        <f t="shared" si="3"/>
         <v>7.7981310037697922</v>
       </c>
       <c r="R9" s="5">
-        <f>SUM(I9:N9)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>9.08425662963886</v>
       </c>
       <c r="S9" s="1">
@@ -6871,7 +6872,7 @@
         <v>4.41574337036114</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="6">
-        <f>YEAR(43647)-YEAR(C10)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F10" s="4">
@@ -6905,19 +6906,19 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="O10" s="1">
-        <f>COUNT(I10:N10)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10" s="2">
-        <f>SUM(I10:N10)</f>
+        <f t="shared" si="2"/>
         <v>2.9671740000000004</v>
       </c>
       <c r="Q10" s="5">
-        <f>SUM(I10:N10)*SUMIFS($W$2:$W$3,$V$2:$V$3,D10)</f>
+        <f t="shared" si="3"/>
         <v>18.359342518220661</v>
       </c>
       <c r="R10" s="5">
-        <f>SUM(I10:N10)*$W$4</f>
+        <f t="shared" si="4"/>
         <v>21.387301509339991</v>
       </c>
       <c r="S10" s="1">
@@ -6928,120 +6929,126 @@
         <v>-10.359342518220661</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3">
-        <v>32494</v>
+        <v>31723</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6">
         <f>YEAR(43647)-YEAR(C11)-1</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4">
-        <v>3.37</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="4">
-        <v>2.2400000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="H11" s="4">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="I11" s="2">
         <f>((H11*0.6)+(0.3*G11)+(F11*0.1))*0.9+0.05*(32-$E$11)</f>
-        <v>1.9531000000000003</v>
+        <v>1.0700999999999998</v>
       </c>
       <c r="J11" s="2">
         <f>((I11*0.6)+(0.3*H11)+(G11*0.1))*0.9+0.05*(32-$E$11-1)</f>
-        <v>1.7787740000000001</v>
-      </c>
-      <c r="K11" s="2">
-        <f>((J11*0.6)+(0.3*I11)+(H11*0.1))*0.9+0.05*(32-$E$11-2)</f>
-        <v>1.6453749600000001</v>
-      </c>
-      <c r="L11" s="2">
-        <f>((K11*0.6)+(0.3*J11)+(I11*0.1))*0.9+0.05*(32-$E$11-3)</f>
-        <v>1.4945504584</v>
-      </c>
+        <v>1.0489539999999997</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="O11" s="1">
         <f>COUNT(I11:N11)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="2">
         <f>SUM(I11:N11)</f>
-        <v>6.8717994184000002</v>
+        <v>2.1190539999999993</v>
       </c>
       <c r="Q11" s="5">
+        <f>SUM(I11:N11)*$W$4</f>
+        <v>15.274077897882943</v>
+      </c>
+      <c r="R11" s="5">
         <f>SUM(I11:N11)*SUMIFS($W$2:$W$3,$V$2:$V$3,D11)</f>
-        <v>42.519150962806734</v>
-      </c>
-      <c r="R11" s="5">
-        <f>SUM(I11:N11)*$W$4</f>
-        <v>49.531724824033901</v>
-      </c>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+        <v>21.534892699490658</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="5">
+        <f>S11-Q11</f>
+        <v>-11.274077897882943</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
-        <v>31285</v>
+        <v>32494</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="6">
         <f>YEAR(43647)-YEAR(C12)-1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
-        <v>4.3099999999999996</v>
+        <v>3.37</v>
       </c>
       <c r="G12" s="4">
-        <v>0.32</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H12" s="4">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="I12" s="2">
         <f>((H12*0.6)+(0.3*G12)+(F12*0.1))*0.9+0.05*(32-$E$12)</f>
-        <v>1.4179000000000002</v>
+        <v>1.9531000000000003</v>
       </c>
       <c r="J12" s="2">
         <f>((I12*0.6)+(0.3*H12)+(G12*0.1))*0.9+0.05*(32-$E$12-1)</f>
-        <v>1.1912660000000002</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>1.7787740000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <f>((J12*0.6)+(0.3*I12)+(H12*0.1))*0.9+0.05*(32-$E$12-2)</f>
+        <v>1.6453749600000001</v>
+      </c>
+      <c r="L12" s="2">
+        <f>((K12*0.6)+(0.3*J12)+(I12*0.1))*0.9+0.05*(32-$E$12-3)</f>
+        <v>1.4945504584</v>
+      </c>
       <c r="O12" s="1">
-        <f>COUNT(I12:N12)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="P12" s="2">
-        <f>SUM(I12:N12)</f>
-        <v>2.6091660000000001</v>
+        <f t="shared" si="2"/>
+        <v>6.8717994184000002</v>
       </c>
       <c r="Q12" s="5">
-        <f>SUM(I12:N12)*SUMIFS($W$2:$W$3,$V$2:$V$3,D12)</f>
-        <v>16.144173641618497</v>
+        <f t="shared" si="3"/>
+        <v>42.519150962806734</v>
       </c>
       <c r="R12" s="5">
-        <f>SUM(I12:N12)*$W$4</f>
-        <v>18.806790545454557</v>
+        <f t="shared" si="4"/>
+        <v>49.531724824033901</v>
       </c>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
-        <v>31276</v>
+        <v>31285</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
@@ -7051,193 +7058,190 @@
         <v>33</v>
       </c>
       <c r="F13" s="4">
-        <v>0.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="G13" s="4">
-        <v>1.69</v>
+        <v>0.32</v>
       </c>
       <c r="H13" s="4">
-        <v>-0.39</v>
+        <v>1.84</v>
       </c>
       <c r="I13" s="2">
         <f>((H13*0.6)+(0.3*G13)+(F13*0.1))*0.9+0.05*(32-$E$13)</f>
-        <v>0.22360000000000008</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>1.4179000000000002</v>
+      </c>
+      <c r="J13" s="2">
+        <f>((I13*0.6)+(0.3*H13)+(G13*0.1))*0.9+0.05*(32-$E$13-1)</f>
+        <v>1.1912660000000002</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="O13" s="1">
-        <f>COUNT(I13:N13)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P13" s="2">
-        <f>SUM(I13:N13)</f>
-        <v>0.22360000000000008</v>
+        <f t="shared" si="2"/>
+        <v>2.6091660000000001</v>
       </c>
       <c r="Q13" s="5">
-        <f>SUM(I13:N13)*SUMIFS($W$2:$W$3,$V$2:$V$3,D13)</f>
-        <v>1.3835214878110083</v>
+        <f t="shared" si="3"/>
+        <v>16.144173641618497</v>
       </c>
       <c r="R13" s="5">
-        <f>SUM(I13:N13)*$W$4</f>
-        <v>1.6117021170610226</v>
+        <f t="shared" si="4"/>
+        <v>18.806790545454557</v>
       </c>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
-        <v>29867</v>
+        <v>31276</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6">
         <f>YEAR(43647)-YEAR(C14)-1</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4">
-        <v>4.13</v>
+        <v>0.31</v>
       </c>
       <c r="G14" s="4">
-        <v>3.74</v>
+        <v>1.69</v>
       </c>
       <c r="H14" s="4">
-        <v>-0.51</v>
+        <v>-0.39</v>
       </c>
       <c r="I14" s="2">
         <f>((H14*0.6)+(0.3*G14)+(F14*0.1))*0.9+0.05*(32-$E$14)</f>
-        <v>0.85610000000000008</v>
+        <v>0.22360000000000008</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="O14" s="1">
-        <f>COUNT(I14:N14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P14" s="2">
-        <f>SUM(I14:N14)</f>
-        <v>0.85610000000000008</v>
+        <f t="shared" si="2"/>
+        <v>0.22360000000000008</v>
       </c>
       <c r="Q14" s="5">
-        <f>SUM(I14:N14)*$W$4</f>
-        <v>6.1707432129514359</v>
+        <f t="shared" si="3"/>
+        <v>1.3835214878110083</v>
       </c>
       <c r="R14" s="5">
-        <f>SUM(I14:N14)*SUMIFS($W$2:$W$3,$V$2:$V$3,D14)</f>
-        <v>8.7001188455008496</v>
+        <f t="shared" si="4"/>
+        <v>1.6117021170610226</v>
       </c>
       <c r="T14" s="5"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
-        <v>31532</v>
+        <v>29867</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="6">
-        <f>YEAR(43647)-YEAR(C15)</f>
-        <v>33</v>
+        <f>YEAR(43647)-YEAR(C15)-1</f>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
-        <v>1.06</v>
+        <v>4.13</v>
       </c>
       <c r="G15" s="4">
-        <v>0.74</v>
+        <v>3.74</v>
       </c>
       <c r="H15" s="4">
-        <v>0.92</v>
+        <v>-0.51</v>
       </c>
       <c r="I15" s="2">
         <f>((H15*0.6)+(0.3*G15)+(F15*0.1))*0.9+0.05*(32-$E$15)</f>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="J15" s="2">
-        <f>((I15*0.6)+(0.3*H15)+(G15*0.1))*0.9+0.05*(32-$E$15-1)</f>
-        <v>0.61568000000000001</v>
-      </c>
+        <v>0.85610000000000008</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="O15" s="1">
-        <f>COUNT(I15:N15)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
-        <f>SUM(I15:N15)</f>
-        <v>1.35768</v>
+        <f t="shared" si="2"/>
+        <v>0.85610000000000008</v>
       </c>
       <c r="Q15" s="5">
         <f>SUM(I15:N15)*$W$4</f>
-        <v>9.7861168617683738</v>
+        <v>6.1707432129514359</v>
       </c>
       <c r="R15" s="5">
         <f>SUM(I15:N15)*SUMIFS($W$2:$W$3,$V$2:$V$3,D15)</f>
-        <v>13.797427116177541</v>
+        <v>8.7001188455008496</v>
       </c>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3">
-        <v>31723</v>
+        <v>31532</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="6">
-        <f>YEAR(43647)-YEAR(C16)-1</f>
-        <v>32</v>
+        <f>YEAR(43647)-YEAR(C16)</f>
+        <v>33</v>
       </c>
       <c r="F16" s="4">
-        <v>0.25</v>
+        <v>1.06</v>
       </c>
       <c r="G16" s="4">
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="H16" s="4">
-        <v>1.91</v>
+        <v>0.92</v>
       </c>
       <c r="I16" s="2">
         <f>((H16*0.6)+(0.3*G16)+(F16*0.1))*0.9+0.05*(32-$E$16)</f>
-        <v>1.0700999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="J16" s="2">
         <f>((I16*0.6)+(0.3*H16)+(G16*0.1))*0.9+0.05*(32-$E$16-1)</f>
-        <v>1.0489539999999997</v>
-      </c>
-      <c r="K16" s="2">
-        <f>((J16*0.6)+(0.3*I16)+(H16*0.1))*0.9+0.05*(32-$E$16-2)</f>
-        <v>0.92726215999999984</v>
-      </c>
+        <v>0.61568000000000001</v>
+      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="O16" s="1">
-        <f>COUNT(I16:N16)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="P16" s="2">
-        <f>SUM(I16:N16)</f>
-        <v>3.0463161599999991</v>
+        <f t="shared" si="2"/>
+        <v>1.35768</v>
       </c>
       <c r="Q16" s="5">
         <f>SUM(I16:N16)*$W$4</f>
-        <v>21.957755833225409</v>
+        <v>9.7861168617683738</v>
       </c>
       <c r="R16" s="5">
         <f>SUM(I16:N16)*SUMIFS($W$2:$W$3,$V$2:$V$3,D16)</f>
-        <v>30.958197211739019</v>
+        <v>13.797427116177541</v>
       </c>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
@@ -7274,11 +7278,11 @@
       </c>
       <c r="L17" s="2"/>
       <c r="O17" s="1">
-        <f>COUNT(I17:N17)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P17" s="2">
-        <f>SUM(I17:N17)</f>
+        <f t="shared" si="2"/>
         <v>4.3251693600000003</v>
       </c>
       <c r="Q17" s="5">
@@ -7295,27 +7299,30 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q11:R11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="8.69921875" style="1"/>
+    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
@@ -7332,7 +7339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>3.7370000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -7367,7 +7374,7 @@
         <v>5.4870000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -7385,7 +7392,7 @@
         <v>4.4379999999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -7402,7 +7409,7 @@
         <v>5.1619999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -7419,7 +7426,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7436,7 +7443,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>611</v>
       </c>
@@ -7453,7 +7460,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
@@ -7470,7 +7477,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>694</v>
       </c>
@@ -7487,7 +7494,7 @@
         <v>6.7229999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>207</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>5.4269999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>370</v>
       </c>
@@ -7521,7 +7528,7 @@
         <v>3.9089999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>287</v>
       </c>
@@ -7538,7 +7545,7 @@
         <v>6.8310000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>126</v>
       </c>
@@ -7555,7 +7562,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>696</v>
       </c>
@@ -7572,7 +7579,7 @@
         <v>2.024</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
@@ -7589,7 +7596,7 @@
         <v>3.7789999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>458</v>
       </c>
@@ -7606,7 +7613,7 @@
         <v>5.0270000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>613</v>
       </c>
@@ -7623,7 +7630,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -7640,7 +7647,7 @@
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>538</v>
       </c>
@@ -7657,7 +7664,7 @@
         <v>2.9460000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -7674,7 +7681,7 @@
         <v>1.946</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>289</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>-2.2109999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
@@ -7725,7 +7732,7 @@
         <v>2.8420000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>209</v>
       </c>
@@ -7742,7 +7749,7 @@
         <v>2.867</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>539</v>
       </c>
@@ -7759,7 +7766,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>373</v>
       </c>
@@ -7776,7 +7783,7 @@
         <v>1.8959999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>854</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>3.5649999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
@@ -7810,7 +7817,7 @@
         <v>-0.48799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>459</v>
       </c>
@@ -7827,7 +7834,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>460</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>1.2529999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>461</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>6.3879999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>855</v>
       </c>
@@ -7878,7 +7885,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
@@ -7895,7 +7902,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>771</v>
       </c>
@@ -7912,7 +7919,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>540</v>
       </c>
@@ -7929,7 +7936,7 @@
         <v>3.2530000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>128</v>
       </c>
@@ -7946,7 +7953,7 @@
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>211</v>
       </c>
@@ -7963,7 +7970,7 @@
         <v>1.8240000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
@@ -7980,7 +7987,7 @@
         <v>1.4079999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>290</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>4.1219999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>291</v>
       </c>
@@ -8014,7 +8021,7 @@
         <v>-0.75800000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>541</v>
       </c>
@@ -8031,7 +8038,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
@@ -8048,7 +8055,7 @@
         <v>1.276</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>773</v>
       </c>
@@ -8065,7 +8072,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>129</v>
       </c>
@@ -8082,7 +8089,7 @@
         <v>2.6360000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
@@ -8099,7 +8106,7 @@
         <v>3.581</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>697</v>
       </c>
@@ -8116,7 +8123,7 @@
         <v>5.915</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
@@ -8133,7 +8140,7 @@
         <v>2.4670000000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
         <v>292</v>
       </c>
@@ -8150,7 +8157,7 @@
         <v>6.6849999999999996</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
         <v>374</v>
       </c>
@@ -8167,7 +8174,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
         <v>462</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>-0.46200000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
         <v>698</v>
       </c>
@@ -8201,7 +8208,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="1" t="s">
         <v>856</v>
       </c>
@@ -8218,7 +8225,7 @@
         <v>3.165</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>293</v>
       </c>
@@ -8235,7 +8242,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>130</v>
       </c>
@@ -8252,7 +8259,7 @@
         <v>1.5509999999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>294</v>
       </c>
@@ -8269,7 +8276,7 @@
         <v>-0.54800000000000004</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
         <v>375</v>
       </c>
@@ -8286,7 +8293,7 @@
         <v>5.351</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
         <v>463</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>-6.2E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
         <v>542</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
         <v>614</v>
       </c>
@@ -8337,7 +8344,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
         <v>699</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
@@ -8371,7 +8378,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>774</v>
       </c>
@@ -8388,7 +8395,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
         <v>857</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
         <v>615</v>
       </c>
@@ -8422,7 +8429,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>295</v>
       </c>
@@ -8439,7 +8446,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="1" t="s">
         <v>616</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
         <v>617</v>
       </c>
@@ -8473,7 +8480,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
         <v>775</v>
       </c>
@@ -8490,7 +8497,7 @@
         <v>5.3559999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
         <v>17</v>
       </c>
@@ -8507,7 +8514,7 @@
         <v>2.3639999999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
         <v>212</v>
       </c>
@@ -8524,7 +8531,7 @@
         <v>-0.16800000000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
         <v>28</v>
       </c>
@@ -8541,7 +8548,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
         <v>376</v>
       </c>
@@ -8558,7 +8565,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
         <v>543</v>
       </c>
@@ -8575,7 +8582,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
         <v>618</v>
       </c>
@@ -8592,7 +8599,7 @@
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="1" t="s">
         <v>619</v>
       </c>
@@ -8609,7 +8616,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="1" t="s">
         <v>620</v>
       </c>
@@ -8626,7 +8633,7 @@
         <v>4.8140000000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
@@ -8643,7 +8650,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
         <v>700</v>
       </c>
@@ -8660,7 +8667,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
         <v>296</v>
       </c>
@@ -8677,7 +8684,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
         <v>377</v>
       </c>
@@ -8694,7 +8701,7 @@
         <v>4.1319999999999997</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="1" t="s">
         <v>39</v>
       </c>
@@ -8708,7 +8715,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
         <v>31</v>
       </c>
@@ -8725,7 +8732,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
         <v>701</v>
       </c>
@@ -8742,7 +8749,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
         <v>131</v>
       </c>
@@ -8759,7 +8766,7 @@
         <v>4.4279999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
         <v>702</v>
       </c>
@@ -8776,7 +8783,7 @@
         <v>4.2640000000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="1" t="s">
         <v>776</v>
       </c>
@@ -8793,7 +8800,7 @@
         <v>2.6779999999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="1" t="s">
         <v>126</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
@@ -8827,7 +8834,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>297</v>
       </c>
@@ -8844,7 +8851,7 @@
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="s">
         <v>378</v>
       </c>
@@ -8861,7 +8868,7 @@
         <v>1.2589999999999999</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="s">
         <v>379</v>
       </c>
@@ -8875,7 +8882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
         <v>13</v>
       </c>
@@ -8892,7 +8899,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>380</v>
       </c>
@@ -8909,7 +8916,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="1" t="s">
         <v>132</v>
       </c>
@@ -8926,7 +8933,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
         <v>213</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>3.3410000000000002</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>464</v>
       </c>
@@ -8957,7 +8964,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="1" t="s">
         <v>465</v>
       </c>
@@ -8974,7 +8981,7 @@
         <v>3.024</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>133</v>
       </c>
@@ -8991,7 +8998,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>544</v>
       </c>
@@ -9008,7 +9015,7 @@
         <v>4.8239999999999998</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="1" t="s">
         <v>298</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>4.0869999999999997</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
         <v>134</v>
       </c>
@@ -9042,7 +9049,7 @@
         <v>2.4260000000000002</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>214</v>
       </c>
@@ -9059,7 +9066,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="1" t="s">
         <v>215</v>
       </c>
@@ -9076,7 +9083,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
         <v>381</v>
       </c>
@@ -9093,7 +9100,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="1" t="s">
         <v>274</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>-1.2150000000000001</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
@@ -9124,7 +9131,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="1" t="s">
         <v>621</v>
       </c>
@@ -9141,7 +9148,7 @@
         <v>1.5089999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="1" t="s">
         <v>777</v>
       </c>
@@ -9158,7 +9165,7 @@
         <v>-8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="1" t="s">
         <v>216</v>
       </c>
@@ -9175,7 +9182,7 @@
         <v>1.0629999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="1" t="s">
         <v>622</v>
       </c>
@@ -9192,7 +9199,7 @@
         <v>1.571</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113" s="1" t="s">
         <v>623</v>
       </c>
@@ -9209,7 +9216,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="1" t="s">
         <v>299</v>
       </c>
@@ -9226,7 +9233,7 @@
         <v>3.9169999999999998</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115" s="1" t="s">
         <v>217</v>
       </c>
@@ -9243,7 +9250,7 @@
         <v>1.8819999999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116" s="1" t="s">
         <v>703</v>
       </c>
@@ -9260,7 +9267,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117" s="1" t="s">
         <v>778</v>
       </c>
@@ -9277,7 +9284,7 @@
         <v>-0.252</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118" s="1" t="s">
         <v>858</v>
       </c>
@@ -9294,7 +9301,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119" s="1" t="s">
         <v>218</v>
       </c>
@@ -9311,7 +9318,7 @@
         <v>1.5489999999999999</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120" s="1" t="s">
         <v>624</v>
       </c>
@@ -9328,7 +9335,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121" s="1" t="s">
         <v>219</v>
       </c>
@@ -9345,7 +9352,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122" s="1" t="s">
         <v>300</v>
       </c>
@@ -9362,7 +9369,7 @@
         <v>4.5410000000000004</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123" s="1" t="s">
         <v>382</v>
       </c>
@@ -9379,7 +9386,7 @@
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124" s="1" t="s">
         <v>36</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125" s="1" t="s">
         <v>625</v>
       </c>
@@ -9413,7 +9420,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
@@ -9430,7 +9437,7 @@
         <v>-0.39300000000000002</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127" s="1" t="s">
         <v>18</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128" s="1" t="s">
         <v>466</v>
       </c>
@@ -9464,7 +9471,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="1" t="s">
         <v>626</v>
       </c>
@@ -9481,7 +9488,7 @@
         <v>-0.26900000000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="1" t="s">
         <v>779</v>
       </c>
@@ -9498,7 +9505,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="1" t="s">
         <v>780</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="1" t="s">
         <v>135</v>
       </c>
@@ -9532,7 +9539,7 @@
         <v>-0.14399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="1" t="s">
         <v>383</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="1" t="s">
         <v>467</v>
       </c>
@@ -9566,7 +9573,7 @@
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135" s="1" t="s">
         <v>781</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136" s="1" t="s">
         <v>121</v>
       </c>
@@ -9600,7 +9607,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137" s="1" t="s">
         <v>220</v>
       </c>
@@ -9617,7 +9624,7 @@
         <v>-0.84699999999999998</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9641,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="1" t="s">
         <v>704</v>
       </c>
@@ -9651,7 +9658,7 @@
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140" s="1" t="s">
         <v>216</v>
       </c>
@@ -9668,7 +9675,7 @@
         <v>1.018</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141" s="1" t="s">
         <v>301</v>
       </c>
@@ -9685,7 +9692,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142" s="1" t="s">
         <v>468</v>
       </c>
@@ -9702,7 +9709,7 @@
         <v>1.538</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143" s="1" t="s">
         <v>221</v>
       </c>
@@ -9719,7 +9726,7 @@
         <v>-0.193</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144" s="1" t="s">
         <v>222</v>
       </c>
@@ -9736,7 +9743,7 @@
         <v>2.3780000000000001</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145" s="1" t="s">
         <v>136</v>
       </c>
@@ -9753,7 +9760,7 @@
         <v>2.367</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146" s="1" t="s">
         <v>137</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147" s="1" t="s">
         <v>30</v>
       </c>
@@ -9787,7 +9794,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148" s="1" t="s">
         <v>302</v>
       </c>
@@ -9804,7 +9811,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149" s="1" t="s">
         <v>384</v>
       </c>
@@ -9821,7 +9828,7 @@
         <v>4.4589999999999996</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150" s="1" t="s">
         <v>545</v>
       </c>
@@ -9838,7 +9845,7 @@
         <v>-0.30599999999999999</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151" s="1" t="s">
         <v>705</v>
       </c>
@@ -9855,7 +9862,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152" s="1" t="s">
         <v>706</v>
       </c>
@@ -9872,7 +9879,7 @@
         <v>3.754</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153" s="1" t="s">
         <v>15</v>
       </c>
@@ -9889,7 +9896,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154" s="1" t="s">
         <v>859</v>
       </c>
@@ -9906,7 +9913,7 @@
         <v>-0.55800000000000005</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155" s="1" t="s">
         <v>860</v>
       </c>
@@ -9923,7 +9930,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156" s="1" t="s">
         <v>385</v>
       </c>
@@ -9940,7 +9947,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157" s="1" t="s">
         <v>469</v>
       </c>
@@ -9957,7 +9964,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158" s="1" t="s">
         <v>707</v>
       </c>
@@ -9974,7 +9981,7 @@
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159" s="1" t="s">
         <v>708</v>
       </c>
@@ -9988,7 +9995,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160" s="1" t="s">
         <v>709</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161" s="1" t="s">
         <v>138</v>
       </c>
@@ -10022,7 +10029,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162" s="1" t="s">
         <v>139</v>
       </c>
@@ -10039,7 +10046,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163" s="1" t="s">
         <v>223</v>
       </c>
@@ -10056,7 +10063,7 @@
         <v>-0.437</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164" s="1" t="s">
         <v>386</v>
       </c>
@@ -10073,7 +10080,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165" s="1" t="s">
         <v>387</v>
       </c>
@@ -10090,7 +10097,7 @@
         <v>3.0419999999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166" s="1" t="s">
         <v>546</v>
       </c>
@@ -10107,7 +10114,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167" s="1" t="s">
         <v>782</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168" s="1" t="s">
         <v>783</v>
       </c>
@@ -10141,7 +10148,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169" s="1" t="s">
         <v>224</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>-0.41899999999999998</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170" s="1" t="s">
         <v>627</v>
       </c>
@@ -10175,7 +10182,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171" s="1" t="s">
         <v>710</v>
       </c>
@@ -10192,7 +10199,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172" s="1" t="s">
         <v>388</v>
       </c>
@@ -10209,7 +10216,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173" s="1" t="s">
         <v>470</v>
       </c>
@@ -10226,7 +10233,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B174" s="1" t="s">
         <v>861</v>
       </c>
@@ -10243,7 +10250,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B175" s="1" t="s">
         <v>389</v>
       </c>
@@ -10260,7 +10267,7 @@
         <v>1.6879999999999999</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B176" s="1" t="s">
         <v>471</v>
       </c>
@@ -10277,7 +10284,7 @@
         <v>3.831</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B177" s="1" t="s">
         <v>628</v>
       </c>
@@ -10291,7 +10298,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B178" s="1" t="s">
         <v>711</v>
       </c>
@@ -10308,7 +10315,7 @@
         <v>-0.60699999999999998</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B179" s="1" t="s">
         <v>712</v>
       </c>
@@ -10325,7 +10332,7 @@
         <v>3.9769999999999999</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B180" s="1" t="s">
         <v>862</v>
       </c>
@@ -10342,7 +10349,7 @@
         <v>1.2729999999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B181" s="1" t="s">
         <v>472</v>
       </c>
@@ -10359,7 +10366,7 @@
         <v>3.177</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B182" s="1" t="s">
         <v>473</v>
       </c>
@@ -10376,7 +10383,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B183" s="1" t="s">
         <v>547</v>
       </c>
@@ -10393,7 +10400,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B184" s="1" t="s">
         <v>548</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>-0.33700000000000002</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B185" s="1" t="s">
         <v>784</v>
       </c>
@@ -10427,7 +10434,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B186" s="1" t="s">
         <v>713</v>
       </c>
@@ -10441,7 +10448,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
@@ -10458,7 +10465,7 @@
         <v>0.72299999999999998</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B188" s="1" t="s">
         <v>303</v>
       </c>
@@ -10475,7 +10482,7 @@
         <v>1.323</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B189" s="1" t="s">
         <v>23</v>
       </c>
@@ -10492,7 +10499,7 @@
         <v>1.2110000000000001</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B190" s="1" t="s">
         <v>549</v>
       </c>
@@ -10506,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B191" s="1" t="s">
         <v>550</v>
       </c>
@@ -10523,7 +10530,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B192" s="1" t="s">
         <v>551</v>
       </c>
@@ -10540,7 +10547,7 @@
         <v>-0.14699999999999999</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B193" s="1" t="s">
         <v>552</v>
       </c>
@@ -10557,7 +10564,7 @@
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B194" s="1" t="s">
         <v>629</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B195" s="1" t="s">
         <v>785</v>
       </c>
@@ -10591,7 +10598,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B196" s="1" t="s">
         <v>863</v>
       </c>
@@ -10608,7 +10615,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B197" s="1" t="s">
         <v>304</v>
       </c>
@@ -10625,7 +10632,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B198" s="1" t="s">
         <v>390</v>
       </c>
@@ -10642,7 +10649,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B199" s="1" t="s">
         <v>474</v>
       </c>
@@ -10659,7 +10666,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B200" s="1" t="s">
         <v>305</v>
       </c>
@@ -10676,7 +10683,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B201" s="1" t="s">
         <v>391</v>
       </c>
@@ -10693,7 +10700,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B202" s="1" t="s">
         <v>392</v>
       </c>
@@ -10710,7 +10717,7 @@
         <v>-0.32100000000000001</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B203" s="1" t="s">
         <v>393</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B204" s="1" t="s">
         <v>475</v>
       </c>
@@ -10744,7 +10751,7 @@
         <v>-0.68899999999999995</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B205" s="1" t="s">
         <v>476</v>
       </c>
@@ -10761,7 +10768,7 @@
         <v>-0.68200000000000005</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B206" s="1" t="s">
         <v>477</v>
       </c>
@@ -10778,7 +10785,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B207" s="1" t="s">
         <v>553</v>
       </c>
@@ -10795,7 +10802,7 @@
         <v>1.3440000000000001</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B208" s="1" t="s">
         <v>554</v>
       </c>
@@ -10812,7 +10819,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B209" s="1" t="s">
         <v>714</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B210" s="1" t="s">
         <v>715</v>
       </c>
@@ -10843,7 +10850,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B211" s="1" t="s">
         <v>630</v>
       </c>
@@ -10860,7 +10867,7 @@
         <v>-0.57599999999999996</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B212" s="1" t="s">
         <v>225</v>
       </c>
@@ -10877,7 +10884,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B213" s="1" t="s">
         <v>306</v>
       </c>
@@ -10894,7 +10901,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B214" s="1" t="s">
         <v>394</v>
       </c>
@@ -10911,7 +10918,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B215" s="1" t="s">
         <v>555</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B216" s="1" t="s">
         <v>786</v>
       </c>
@@ -10945,7 +10952,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B217" s="1" t="s">
         <v>864</v>
       </c>
@@ -10959,7 +10966,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B218" s="1" t="s">
         <v>140</v>
       </c>
@@ -10976,7 +10983,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B219" s="1" t="s">
         <v>226</v>
       </c>
@@ -10993,7 +11000,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B220" s="1" t="s">
         <v>478</v>
       </c>
@@ -11010,7 +11017,7 @@
         <v>2.0289999999999999</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B221" s="1" t="s">
         <v>631</v>
       </c>
@@ -11027,7 +11034,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B222" s="1" t="s">
         <v>716</v>
       </c>
@@ -11041,7 +11048,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B223" s="1" t="s">
         <v>865</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>1.659</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B224" s="1" t="s">
         <v>866</v>
       </c>
@@ -11075,7 +11082,7 @@
         <v>-0.53200000000000003</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B225" s="1" t="s">
         <v>867</v>
       </c>
@@ -11092,7 +11099,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B226" s="1" t="s">
         <v>868</v>
       </c>
@@ -11109,7 +11116,7 @@
         <v>-1.218</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B227" s="1" t="s">
         <v>141</v>
       </c>
@@ -11126,7 +11133,7 @@
         <v>-0.14499999999999999</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B228" s="1" t="s">
         <v>142</v>
       </c>
@@ -11143,7 +11150,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B229" s="1" t="s">
         <v>143</v>
       </c>
@@ -11160,7 +11167,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B230" s="1" t="s">
         <v>144</v>
       </c>
@@ -11177,7 +11184,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B231" s="1" t="s">
         <v>632</v>
       </c>
@@ -11191,7 +11198,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B232" s="1" t="s">
         <v>787</v>
       </c>
@@ -11208,7 +11215,7 @@
         <v>-0.78300000000000003</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B233" s="1" t="s">
         <v>633</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B234" s="1" t="s">
         <v>869</v>
       </c>
@@ -11242,7 +11249,7 @@
         <v>0.65900000000000003</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B235" s="1" t="s">
         <v>556</v>
       </c>
@@ -11259,7 +11266,7 @@
         <v>-0.28100000000000003</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B236" s="1" t="s">
         <v>634</v>
       </c>
@@ -11276,7 +11283,7 @@
         <v>1.149</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B237" s="1" t="s">
         <v>870</v>
       </c>
@@ -11293,7 +11300,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B238" s="1" t="s">
         <v>145</v>
       </c>
@@ -11307,7 +11314,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B239" s="1" t="s">
         <v>227</v>
       </c>
@@ -11324,7 +11331,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B240" s="1" t="s">
         <v>395</v>
       </c>
@@ -11341,7 +11348,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B241" s="1" t="s">
         <v>479</v>
       </c>
@@ -11358,7 +11365,7 @@
         <v>-0.377</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B242" s="1" t="s">
         <v>480</v>
       </c>
@@ -11375,7 +11382,7 @@
         <v>-1.1579999999999999</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B243" s="1" t="s">
         <v>481</v>
       </c>
@@ -11392,7 +11399,7 @@
         <v>-0.217</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B244" s="1" t="s">
         <v>871</v>
       </c>
@@ -11409,7 +11416,7 @@
         <v>-0.214</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B245" s="1" t="s">
         <v>396</v>
       </c>
@@ -11426,7 +11433,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B246" s="1" t="s">
         <v>482</v>
       </c>
@@ -11443,7 +11450,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B247" s="1" t="s">
         <v>872</v>
       </c>
@@ -11460,7 +11467,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B248" s="1" t="s">
         <v>483</v>
       </c>
@@ -11474,7 +11481,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B249" s="1" t="s">
         <v>146</v>
       </c>
@@ -11491,7 +11498,7 @@
         <v>-0.26300000000000001</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B250" s="1" t="s">
         <v>147</v>
       </c>
@@ -11508,7 +11515,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B251" s="1" t="s">
         <v>148</v>
       </c>
@@ -11525,7 +11532,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B252" s="1" t="s">
         <v>484</v>
       </c>
@@ -11542,7 +11549,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B253" s="1" t="s">
         <v>557</v>
       </c>
@@ -11559,7 +11566,7 @@
         <v>-0.45600000000000002</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B254" s="1" t="s">
         <v>558</v>
       </c>
@@ -11576,7 +11583,7 @@
         <v>-0.36599999999999999</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B255" s="1" t="s">
         <v>559</v>
       </c>
@@ -11593,7 +11600,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B256" s="1" t="s">
         <v>873</v>
       </c>
@@ -11610,7 +11617,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B257" s="1" t="s">
         <v>397</v>
       </c>
@@ -11627,7 +11634,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B258" s="1" t="s">
         <v>398</v>
       </c>
@@ -11644,7 +11651,7 @@
         <v>-0.90600000000000003</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B259" s="1" t="s">
         <v>560</v>
       </c>
@@ -11661,7 +11668,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B260" s="1" t="s">
         <v>561</v>
       </c>
@@ -11675,7 +11682,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B261" s="1" t="s">
         <v>717</v>
       </c>
@@ -11692,7 +11699,7 @@
         <v>-0.315</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B262" s="1" t="s">
         <v>562</v>
       </c>
@@ -11709,7 +11716,7 @@
         <v>-0.441</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B263" s="1" t="s">
         <v>149</v>
       </c>
@@ -11723,7 +11730,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B264" s="1" t="s">
         <v>150</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>1.4630000000000001</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B265" s="1" t="s">
         <v>228</v>
       </c>
@@ -11757,7 +11764,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B266" s="1" t="s">
         <v>229</v>
       </c>
@@ -11774,7 +11781,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B267" s="1" t="s">
         <v>230</v>
       </c>
@@ -11788,7 +11795,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B268" s="1" t="s">
         <v>307</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B269" s="1" t="s">
         <v>399</v>
       </c>
@@ -11822,7 +11829,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B270" s="1" t="s">
         <v>400</v>
       </c>
@@ -11836,7 +11843,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B271" s="1" t="s">
         <v>485</v>
       </c>
@@ -11853,7 +11860,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B272" s="1" t="s">
         <v>563</v>
       </c>
@@ -11870,7 +11877,7 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B273" s="1" t="s">
         <v>718</v>
       </c>
@@ -11887,7 +11894,7 @@
         <v>-0.48099999999999998</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B274" s="1" t="s">
         <v>719</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B275" s="1" t="s">
         <v>788</v>
       </c>
@@ -11921,7 +11928,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B276" s="1" t="s">
         <v>486</v>
       </c>
@@ -11938,7 +11945,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B277" s="1" t="s">
         <v>564</v>
       </c>
@@ -11955,7 +11962,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B278" s="1" t="s">
         <v>635</v>
       </c>
@@ -11972,7 +11979,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B279" s="1" t="s">
         <v>636</v>
       </c>
@@ -11989,7 +11996,7 @@
         <v>1.7350000000000001</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B280" s="1" t="s">
         <v>231</v>
       </c>
@@ -12006,7 +12013,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B281" s="1" t="s">
         <v>308</v>
       </c>
@@ -12023,7 +12030,7 @@
         <v>-0.252</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B282" s="1" t="s">
         <v>565</v>
       </c>
@@ -12040,7 +12047,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B283" s="1" t="s">
         <v>874</v>
       </c>
@@ -12057,7 +12064,7 @@
         <v>-0.22500000000000001</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B284" s="1" t="s">
         <v>401</v>
       </c>
@@ -12074,7 +12081,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B285" s="1" t="s">
         <v>151</v>
       </c>
@@ -12091,7 +12098,7 @@
         <v>-0.36199999999999999</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B286" s="1" t="s">
         <v>152</v>
       </c>
@@ -12105,7 +12112,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B287" s="1" t="s">
         <v>176</v>
       </c>
@@ -12122,7 +12129,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B288" s="1" t="s">
         <v>720</v>
       </c>
@@ -12139,7 +12146,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B289" s="1" t="s">
         <v>721</v>
       </c>
@@ -12156,7 +12163,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B290" s="1" t="s">
         <v>20</v>
       </c>
@@ -12173,7 +12180,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B291" s="1" t="s">
         <v>789</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>-0.50600000000000001</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B292" s="1" t="s">
         <v>637</v>
       </c>
@@ -12207,7 +12214,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B293" s="1" t="s">
         <v>153</v>
       </c>
@@ -12224,7 +12231,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B294" s="1" t="s">
         <v>638</v>
       </c>
@@ -12241,7 +12248,7 @@
         <v>1.0409999999999999</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B295" s="1" t="s">
         <v>790</v>
       </c>
@@ -12258,7 +12265,7 @@
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B296" s="1" t="s">
         <v>309</v>
       </c>
@@ -12275,7 +12282,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B297" s="1" t="s">
         <v>310</v>
       </c>
@@ -12289,7 +12296,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B298" s="1" t="s">
         <v>402</v>
       </c>
@@ -12306,7 +12313,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B299" s="1" t="s">
         <v>875</v>
       </c>
@@ -12323,7 +12330,7 @@
         <v>-0.41099999999999998</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B300" s="1" t="s">
         <v>232</v>
       </c>
@@ -12340,7 +12347,7 @@
         <v>-0.33800000000000002</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B301" s="1" t="s">
         <v>311</v>
       </c>
@@ -12357,7 +12364,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B302" s="1" t="s">
         <v>487</v>
       </c>
@@ -12374,7 +12381,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B303" s="1" t="s">
         <v>488</v>
       </c>
@@ -12391,7 +12398,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B304" s="1" t="s">
         <v>639</v>
       </c>
@@ -12408,7 +12415,7 @@
         <v>-0.42199999999999999</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B305" s="1" t="s">
         <v>402</v>
       </c>
@@ -12425,7 +12432,7 @@
         <v>-0.47799999999999998</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B306" s="1" t="s">
         <v>722</v>
       </c>
@@ -12442,7 +12449,7 @@
         <v>2.0459999999999998</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B307" s="1" t="s">
         <v>876</v>
       </c>
@@ -12459,7 +12466,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B308" s="1" t="s">
         <v>723</v>
       </c>
@@ -12476,7 +12483,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B309" s="1" t="s">
         <v>640</v>
       </c>
@@ -12493,7 +12500,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B310" s="1" t="s">
         <v>233</v>
       </c>
@@ -12510,7 +12517,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B311" s="1" t="s">
         <v>791</v>
       </c>
@@ -12524,7 +12531,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B312" s="1" t="s">
         <v>877</v>
       </c>
@@ -12541,7 +12548,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B313" s="1" t="s">
         <v>878</v>
       </c>
@@ -12558,7 +12565,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B314" s="1" t="s">
         <v>792</v>
       </c>
@@ -12572,7 +12579,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B315" s="1" t="s">
         <v>154</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B316" s="1" t="s">
         <v>234</v>
       </c>
@@ -12606,7 +12613,7 @@
         <v>-0.19700000000000001</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B317" s="1" t="s">
         <v>235</v>
       </c>
@@ -12623,7 +12630,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B318" s="1" t="s">
         <v>236</v>
       </c>
@@ -12640,7 +12647,7 @@
         <v>3.0059999999999998</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B319" s="1" t="s">
         <v>237</v>
       </c>
@@ -12657,7 +12664,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B320" s="1" t="s">
         <v>312</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B321" s="1" t="s">
         <v>403</v>
       </c>
@@ -12691,7 +12698,7 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B322" s="1" t="s">
         <v>641</v>
       </c>
@@ -12705,7 +12712,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B323" s="1" t="s">
         <v>724</v>
       </c>
@@ -12722,7 +12729,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B324" s="1" t="s">
         <v>725</v>
       </c>
@@ -12739,7 +12746,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B325" s="1" t="s">
         <v>793</v>
       </c>
@@ -12753,7 +12760,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B326" s="1" t="s">
         <v>794</v>
       </c>
@@ -12770,7 +12777,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B327" s="1" t="s">
         <v>795</v>
       </c>
@@ -12787,7 +12794,7 @@
         <v>1.6020000000000001</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B328" s="1" t="s">
         <v>155</v>
       </c>
@@ -12801,7 +12808,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B329" s="1" t="s">
         <v>313</v>
       </c>
@@ -12818,7 +12825,7 @@
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B330" s="1" t="s">
         <v>404</v>
       </c>
@@ -12835,7 +12842,7 @@
         <v>1.2989999999999999</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B331" s="1" t="s">
         <v>489</v>
       </c>
@@ -12852,7 +12859,7 @@
         <v>-0.29899999999999999</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B332" s="1" t="s">
         <v>726</v>
       </c>
@@ -12869,7 +12876,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B333" s="1" t="s">
         <v>796</v>
       </c>
@@ -12886,7 +12893,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B334" s="1" t="s">
         <v>879</v>
       </c>
@@ -12903,7 +12910,7 @@
         <v>-0.504</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B335" s="1" t="s">
         <v>156</v>
       </c>
@@ -12920,7 +12927,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B336" s="1" t="s">
         <v>157</v>
       </c>
@@ -12934,7 +12941,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B337" s="1" t="s">
         <v>158</v>
       </c>
@@ -12948,7 +12955,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B338" s="1" t="s">
         <v>159</v>
       </c>
@@ -12962,7 +12969,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B339" s="1" t="s">
         <v>160</v>
       </c>
@@ -12979,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B340" s="1" t="s">
         <v>238</v>
       </c>
@@ -12996,7 +13003,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B341" s="1" t="s">
         <v>405</v>
       </c>
@@ -13013,7 +13020,7 @@
         <v>-0.443</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B342" s="1" t="s">
         <v>406</v>
       </c>
@@ -13030,7 +13037,7 @@
         <v>2.2690000000000001</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B343" s="1" t="s">
         <v>407</v>
       </c>
@@ -13047,7 +13054,7 @@
         <v>-0.129</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B344" s="1" t="s">
         <v>490</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B345" s="1" t="s">
         <v>491</v>
       </c>
@@ -13078,7 +13085,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B346" s="1" t="s">
         <v>492</v>
       </c>
@@ -13095,7 +13102,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B347" s="1" t="s">
         <v>566</v>
       </c>
@@ -13112,7 +13119,7 @@
         <v>-0.57299999999999995</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B348" s="1" t="s">
         <v>642</v>
       </c>
@@ -13126,7 +13133,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B349" s="1" t="s">
         <v>643</v>
       </c>
@@ -13143,7 +13150,7 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B350" s="1" t="s">
         <v>727</v>
       </c>
@@ -13157,7 +13164,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B351" s="1" t="s">
         <v>797</v>
       </c>
@@ -13171,7 +13178,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B352" s="1" t="s">
         <v>880</v>
       </c>
@@ -13185,7 +13192,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B353" s="1" t="s">
         <v>881</v>
       </c>
@@ -13199,7 +13206,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B354" s="1" t="s">
         <v>882</v>
       </c>
@@ -13216,7 +13223,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B355" s="1" t="s">
         <v>161</v>
       </c>
@@ -13230,7 +13237,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B356" s="1" t="s">
         <v>162</v>
       </c>
@@ -13247,7 +13254,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B357" s="1" t="s">
         <v>239</v>
       </c>
@@ -13264,7 +13271,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B358" s="1" t="s">
         <v>408</v>
       </c>
@@ -13278,7 +13285,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B359" s="1" t="s">
         <v>644</v>
       </c>
@@ -13292,7 +13299,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B360" s="1" t="s">
         <v>163</v>
       </c>
@@ -13306,7 +13313,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B361" s="1" t="s">
         <v>493</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>-0.64300000000000002</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B362" s="1" t="s">
         <v>567</v>
       </c>
@@ -13337,7 +13344,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B363" s="1" t="s">
         <v>645</v>
       </c>
@@ -13354,7 +13361,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B364" s="1" t="s">
         <v>494</v>
       </c>
@@ -13371,7 +13378,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B365" s="1" t="s">
         <v>646</v>
       </c>
@@ -13388,7 +13395,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B366" s="1" t="s">
         <v>647</v>
       </c>
@@ -13405,7 +13412,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B367" s="1" t="s">
         <v>798</v>
       </c>
@@ -13422,7 +13429,7 @@
         <v>-0.16900000000000001</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B368" s="1" t="s">
         <v>164</v>
       </c>
@@ -13439,7 +13446,7 @@
         <v>-0.36399999999999999</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B369" s="1" t="s">
         <v>165</v>
       </c>
@@ -13456,7 +13463,7 @@
         <v>-0.13100000000000001</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B370" s="1" t="s">
         <v>240</v>
       </c>
@@ -13473,7 +13480,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B371" s="1" t="s">
         <v>241</v>
       </c>
@@ -13490,7 +13497,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B372" s="1" t="s">
         <v>314</v>
       </c>
@@ -13507,7 +13514,7 @@
         <v>-0.442</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B373" s="1" t="s">
         <v>315</v>
       </c>
@@ -13524,7 +13531,7 @@
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B374" s="1" t="s">
         <v>495</v>
       </c>
@@ -13541,7 +13548,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B375" s="1" t="s">
         <v>496</v>
       </c>
@@ -13558,7 +13565,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B376" s="1" t="s">
         <v>497</v>
       </c>
@@ -13572,7 +13579,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B377" s="1" t="s">
         <v>728</v>
       </c>
@@ -13589,7 +13596,7 @@
         <v>1.736</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B378" s="1" t="s">
         <v>729</v>
       </c>
@@ -13606,7 +13613,7 @@
         <v>-0.192</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B379" s="1" t="s">
         <v>799</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B380" s="1" t="s">
         <v>800</v>
       </c>
@@ -13637,7 +13644,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B381" s="1" t="s">
         <v>801</v>
       </c>
@@ -13654,7 +13661,7 @@
         <v>-0.126</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B382" s="1" t="s">
         <v>316</v>
       </c>
@@ -13671,7 +13678,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B383" s="1" t="s">
         <v>409</v>
       </c>
@@ -13685,7 +13692,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B384" s="1" t="s">
         <v>498</v>
       </c>
@@ -13699,7 +13706,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B385" s="1" t="s">
         <v>568</v>
       </c>
@@ -13716,7 +13723,7 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B386" s="1" t="s">
         <v>166</v>
       </c>
@@ -13730,7 +13737,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B387" s="1" t="s">
         <v>167</v>
       </c>
@@ -13747,7 +13754,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B388" s="1" t="s">
         <v>242</v>
       </c>
@@ -13764,7 +13771,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B389" s="1" t="s">
         <v>243</v>
       </c>
@@ -13781,7 +13788,7 @@
         <v>-0.127</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B390" s="1" t="s">
         <v>244</v>
       </c>
@@ -13798,7 +13805,7 @@
         <v>-3.9E-2</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B391" s="1" t="s">
         <v>317</v>
       </c>
@@ -13812,7 +13819,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B392" s="1" t="s">
         <v>569</v>
       </c>
@@ -13829,7 +13836,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B393" s="1" t="s">
         <v>648</v>
       </c>
@@ -13846,7 +13853,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B394" s="1" t="s">
         <v>649</v>
       </c>
@@ -13863,7 +13870,7 @@
         <v>-0.23799999999999999</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B395" s="1" t="s">
         <v>883</v>
       </c>
@@ -13880,7 +13887,7 @@
         <v>-0.155</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B396" s="1" t="s">
         <v>884</v>
       </c>
@@ -13897,7 +13904,7 @@
         <v>-0.32500000000000001</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B397" s="1" t="s">
         <v>885</v>
       </c>
@@ -13914,7 +13921,7 @@
         <v>-0.185</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B398" s="1" t="s">
         <v>886</v>
       </c>
@@ -13928,7 +13935,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B399" s="1" t="s">
         <v>168</v>
       </c>
@@ -13945,7 +13952,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B400" s="1" t="s">
         <v>245</v>
       </c>
@@ -13962,7 +13969,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B401" s="1" t="s">
         <v>318</v>
       </c>
@@ -13979,7 +13986,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B402" s="1" t="s">
         <v>319</v>
       </c>
@@ -13996,7 +14003,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B403" s="1" t="s">
         <v>320</v>
       </c>
@@ -14010,7 +14017,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B404" s="1" t="s">
         <v>499</v>
       </c>
@@ -14027,7 +14034,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B405" s="1" t="s">
         <v>650</v>
       </c>
@@ -14044,7 +14051,7 @@
         <v>-0.157</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B406" s="1" t="s">
         <v>651</v>
       </c>
@@ -14058,7 +14065,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B407" s="1" t="s">
         <v>730</v>
       </c>
@@ -14075,7 +14082,7 @@
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B408" s="1" t="s">
         <v>802</v>
       </c>
@@ -14092,7 +14099,7 @@
         <v>-0.20799999999999999</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B409" s="1" t="s">
         <v>887</v>
       </c>
@@ -14109,7 +14116,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B410" s="1" t="s">
         <v>169</v>
       </c>
@@ -14126,7 +14133,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B411" s="1" t="s">
         <v>170</v>
       </c>
@@ -14143,7 +14150,7 @@
         <v>-0.48699999999999999</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B412" s="1" t="s">
         <v>246</v>
       </c>
@@ -14160,7 +14167,7 @@
         <v>-0.18099999999999999</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B413" s="1" t="s">
         <v>247</v>
       </c>
@@ -14177,7 +14184,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B414" s="1" t="s">
         <v>570</v>
       </c>
@@ -14191,7 +14198,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B415" s="1" t="s">
         <v>571</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B416" s="1" t="s">
         <v>652</v>
       </c>
@@ -14225,7 +14232,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B417" s="1" t="s">
         <v>888</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B418" s="1" t="s">
         <v>889</v>
       </c>
@@ -14253,7 +14260,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B419" s="1" t="s">
         <v>890</v>
       </c>
@@ -14270,7 +14277,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B420" s="1" t="s">
         <v>171</v>
       </c>
@@ -14284,7 +14291,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B421" s="1" t="s">
         <v>172</v>
       </c>
@@ -14298,7 +14305,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B422" s="1" t="s">
         <v>173</v>
       </c>
@@ -14312,7 +14319,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B423" s="1" t="s">
         <v>248</v>
       </c>
@@ -14329,7 +14336,7 @@
         <v>-5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B424" s="1" t="s">
         <v>249</v>
       </c>
@@ -14346,7 +14353,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B425" s="1" t="s">
         <v>250</v>
       </c>
@@ -14360,7 +14367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B426" s="1" t="s">
         <v>251</v>
       </c>
@@ -14377,7 +14384,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B427" s="1" t="s">
         <v>321</v>
       </c>
@@ -14391,7 +14398,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B428" s="1" t="s">
         <v>322</v>
       </c>
@@ -14408,7 +14415,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B429" s="1" t="s">
         <v>323</v>
       </c>
@@ -14425,7 +14432,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B430" s="1" t="s">
         <v>410</v>
       </c>
@@ -14442,7 +14449,7 @@
         <v>-0.214</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B431" s="1" t="s">
         <v>411</v>
       </c>
@@ -14459,7 +14466,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B432" s="1" t="s">
         <v>412</v>
       </c>
@@ -14473,7 +14480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B433" s="1" t="s">
         <v>413</v>
       </c>
@@ -14487,7 +14494,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B434" s="1" t="s">
         <v>414</v>
       </c>
@@ -14504,7 +14511,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B435" s="1" t="s">
         <v>415</v>
       </c>
@@ -14518,7 +14525,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="436" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B436" s="1" t="s">
         <v>416</v>
       </c>
@@ -14535,7 +14542,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="437" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B437" s="1" t="s">
         <v>500</v>
       </c>
@@ -14552,7 +14559,7 @@
         <v>-0.16300000000000001</v>
       </c>
     </row>
-    <row r="438" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B438" s="1" t="s">
         <v>501</v>
       </c>
@@ -14569,7 +14576,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="439" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B439" s="1" t="s">
         <v>502</v>
       </c>
@@ -14583,7 +14590,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="440" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B440" s="1" t="s">
         <v>503</v>
       </c>
@@ -14597,7 +14604,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="441" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B441" s="1" t="s">
         <v>504</v>
       </c>
@@ -14611,7 +14618,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="442" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B442" s="1" t="s">
         <v>653</v>
       </c>
@@ -14628,7 +14635,7 @@
         <v>-0.14899999999999999</v>
       </c>
     </row>
-    <row r="443" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B443" s="1" t="s">
         <v>654</v>
       </c>
@@ -14645,7 +14652,7 @@
         <v>-0.13500000000000001</v>
       </c>
     </row>
-    <row r="444" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B444" s="1" t="s">
         <v>655</v>
       </c>
@@ -14662,7 +14669,7 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="445" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B445" s="1" t="s">
         <v>656</v>
       </c>
@@ -14679,7 +14686,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="446" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B446" s="1" t="s">
         <v>657</v>
       </c>
@@ -14693,7 +14700,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="447" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B447" s="1" t="s">
         <v>658</v>
       </c>
@@ -14707,7 +14714,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="448" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B448" s="1" t="s">
         <v>659</v>
       </c>
@@ -14724,7 +14731,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="449" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B449" s="1" t="s">
         <v>731</v>
       </c>
@@ -14741,7 +14748,7 @@
         <v>1.026</v>
       </c>
     </row>
-    <row r="450" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B450" s="1" t="s">
         <v>732</v>
       </c>
@@ -14758,7 +14765,7 @@
         <v>-0.17899999999999999</v>
       </c>
     </row>
-    <row r="451" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B451" s="1" t="s">
         <v>803</v>
       </c>
@@ -14775,7 +14782,7 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="452" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B452" s="1" t="s">
         <v>804</v>
       </c>
@@ -14792,7 +14799,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="453" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B453" s="1" t="s">
         <v>805</v>
       </c>
@@ -14809,7 +14816,7 @@
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="454" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B454" s="1" t="s">
         <v>806</v>
       </c>
@@ -14826,7 +14833,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="455" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B455" s="1" t="s">
         <v>891</v>
       </c>
@@ -14843,7 +14850,7 @@
         <v>-0.38400000000000001</v>
       </c>
     </row>
-    <row r="456" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B456" s="1" t="s">
         <v>892</v>
       </c>
@@ -14857,7 +14864,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="457" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B457" s="1" t="s">
         <v>893</v>
       </c>
@@ -14871,7 +14878,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="458" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B458" s="1" t="s">
         <v>406</v>
       </c>
@@ -14885,7 +14892,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="459" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B459" s="1" t="s">
         <v>894</v>
       </c>
@@ -14902,7 +14909,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="460" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B460" s="1" t="s">
         <v>895</v>
       </c>
@@ -14916,7 +14923,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="461" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B461" s="1" t="s">
         <v>896</v>
       </c>
@@ -14933,7 +14940,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="462" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B462" s="1" t="s">
         <v>897</v>
       </c>
@@ -14947,7 +14954,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="463" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B463" s="1" t="s">
         <v>174</v>
       </c>
@@ -14961,7 +14968,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="464" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B464" s="1" t="s">
         <v>175</v>
       </c>
@@ -14975,7 +14982,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B465" s="1" t="s">
         <v>176</v>
       </c>
@@ -14989,7 +14996,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B466" s="1" t="s">
         <v>177</v>
       </c>
@@ -15006,7 +15013,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B467" s="1" t="s">
         <v>178</v>
       </c>
@@ -15020,7 +15027,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B468" s="1" t="s">
         <v>179</v>
       </c>
@@ -15034,7 +15041,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B469" s="1" t="s">
         <v>180</v>
       </c>
@@ -15051,7 +15058,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B470" s="1" t="s">
         <v>181</v>
       </c>
@@ -15065,7 +15072,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B471" s="1" t="s">
         <v>252</v>
       </c>
@@ -15079,7 +15086,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B472" s="1" t="s">
         <v>253</v>
       </c>
@@ -15093,7 +15100,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B473" s="1" t="s">
         <v>324</v>
       </c>
@@ -15110,7 +15117,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B474" s="1" t="s">
         <v>505</v>
       </c>
@@ -15124,7 +15131,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B475" s="1" t="s">
         <v>506</v>
       </c>
@@ -15138,7 +15145,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B476" s="1" t="s">
         <v>507</v>
       </c>
@@ -15155,7 +15162,7 @@
         <v>-0.23300000000000001</v>
       </c>
     </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B477" s="1" t="s">
         <v>508</v>
       </c>
@@ -15172,7 +15179,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B478" s="1" t="s">
         <v>224</v>
       </c>
@@ -15189,7 +15196,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B479" s="1" t="s">
         <v>660</v>
       </c>
@@ -15203,7 +15210,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B480" s="1" t="s">
         <v>733</v>
       </c>
@@ -15220,7 +15227,7 @@
         <v>-0.16400000000000001</v>
       </c>
     </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B481" s="1" t="s">
         <v>734</v>
       </c>
@@ -15237,7 +15244,7 @@
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B482" s="1" t="s">
         <v>735</v>
       </c>
@@ -15254,7 +15261,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B483" s="1" t="s">
         <v>736</v>
       </c>
@@ -15268,7 +15275,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B484" s="1" t="s">
         <v>807</v>
       </c>
@@ -15285,7 +15292,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B485" s="1" t="s">
         <v>898</v>
       </c>
@@ -15299,7 +15306,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B486" s="1" t="s">
         <v>899</v>
       </c>
@@ -15313,7 +15320,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B487" s="1" t="s">
         <v>900</v>
       </c>
@@ -15330,7 +15337,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B488" s="1" t="s">
         <v>182</v>
       </c>
@@ -15344,7 +15351,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B489" s="1" t="s">
         <v>183</v>
       </c>
@@ -15361,7 +15368,7 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B490" s="1" t="s">
         <v>184</v>
       </c>
@@ -15375,7 +15382,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B491" s="1" t="s">
         <v>185</v>
       </c>
@@ -15392,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B492" s="1" t="s">
         <v>186</v>
       </c>
@@ -15406,7 +15413,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B493" s="1" t="s">
         <v>187</v>
       </c>
@@ -15423,7 +15430,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B494" s="1" t="s">
         <v>188</v>
       </c>
@@ -15440,7 +15447,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B495" s="1" t="s">
         <v>189</v>
       </c>
@@ -15454,7 +15461,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B496" s="1" t="s">
         <v>190</v>
       </c>
@@ -15468,7 +15475,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B497" s="1" t="s">
         <v>191</v>
       </c>
@@ -15482,7 +15489,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B498" s="1" t="s">
         <v>254</v>
       </c>
@@ -15496,7 +15503,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B499" s="1" t="s">
         <v>255</v>
       </c>
@@ -15513,7 +15520,7 @@
         <v>-0.24099999999999999</v>
       </c>
     </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B500" s="1" t="s">
         <v>256</v>
       </c>
@@ -15527,7 +15534,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B501" s="1" t="s">
         <v>257</v>
       </c>
@@ -15541,7 +15548,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B502" s="1" t="s">
         <v>258</v>
       </c>
@@ -15558,7 +15565,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B503" s="1" t="s">
         <v>259</v>
       </c>
@@ -15572,7 +15579,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B504" s="1" t="s">
         <v>260</v>
       </c>
@@ -15586,7 +15593,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B505" s="1" t="s">
         <v>325</v>
       </c>
@@ -15603,7 +15610,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B506" s="1" t="s">
         <v>326</v>
       </c>
@@ -15617,7 +15624,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B507" s="1" t="s">
         <v>327</v>
       </c>
@@ -15631,7 +15638,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B508" s="1" t="s">
         <v>328</v>
       </c>
@@ -15645,7 +15652,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B509" s="1" t="s">
         <v>329</v>
       </c>
@@ -15659,7 +15666,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B510" s="1" t="s">
         <v>330</v>
       </c>
@@ -15676,7 +15683,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B511" s="1" t="s">
         <v>331</v>
       </c>
@@ -15690,7 +15697,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B512" s="1" t="s">
         <v>417</v>
       </c>
@@ -15707,7 +15714,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="513" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B513" s="1" t="s">
         <v>418</v>
       </c>
@@ -15721,7 +15728,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B514" s="1" t="s">
         <v>572</v>
       </c>
@@ -15738,7 +15745,7 @@
         <v>-1.6279999999999999</v>
       </c>
     </row>
-    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B515" s="1" t="s">
         <v>573</v>
       </c>
@@ -15752,7 +15759,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B516" s="1" t="s">
         <v>574</v>
       </c>
@@ -15769,7 +15776,7 @@
         <v>-0.35099999999999998</v>
       </c>
     </row>
-    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B517" s="1" t="s">
         <v>575</v>
       </c>
@@ -15786,7 +15793,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B518" s="1" t="s">
         <v>576</v>
       </c>
@@ -15803,7 +15810,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B519" s="1" t="s">
         <v>577</v>
       </c>
@@ -15817,7 +15824,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="520" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B520" s="1" t="s">
         <v>578</v>
       </c>
@@ -15831,7 +15838,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="521" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B521" s="1" t="s">
         <v>661</v>
       </c>
@@ -15848,7 +15855,7 @@
         <v>-0.10199999999999999</v>
       </c>
     </row>
-    <row r="522" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B522" s="1" t="s">
         <v>662</v>
       </c>
@@ -15862,7 +15869,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="523" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B523" s="1" t="s">
         <v>663</v>
       </c>
@@ -15876,7 +15883,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="524" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B524" s="1" t="s">
         <v>664</v>
       </c>
@@ -15893,7 +15900,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B525" s="1" t="s">
         <v>665</v>
       </c>
@@ -15907,7 +15914,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="526" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B526" s="1" t="s">
         <v>666</v>
       </c>
@@ -15924,7 +15931,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="527" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B527" s="1" t="s">
         <v>737</v>
       </c>
@@ -15938,7 +15945,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="528" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B528" s="1" t="s">
         <v>808</v>
       </c>
@@ -15952,7 +15959,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="529" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B529" s="1" t="s">
         <v>809</v>
       </c>
@@ -15969,7 +15976,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="530" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B530" s="1" t="s">
         <v>810</v>
       </c>
@@ -15986,7 +15993,7 @@
         <v>-0.159</v>
       </c>
     </row>
-    <row r="531" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B531" s="1" t="s">
         <v>901</v>
       </c>
@@ -16000,7 +16007,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="532" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B532" s="1" t="s">
         <v>192</v>
       </c>
@@ -16014,7 +16021,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="533" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B533" s="1" t="s">
         <v>193</v>
       </c>
@@ -16028,7 +16035,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B534" s="1" t="s">
         <v>194</v>
       </c>
@@ -16042,7 +16049,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="535" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B535" s="1" t="s">
         <v>195</v>
       </c>
@@ -16056,7 +16063,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="536" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B536" s="1" t="s">
         <v>196</v>
       </c>
@@ -16070,7 +16077,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="537" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B537" s="1" t="s">
         <v>197</v>
       </c>
@@ -16084,7 +16091,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="538" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B538" s="1" t="s">
         <v>198</v>
       </c>
@@ -16098,7 +16105,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="539" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B539" s="1" t="s">
         <v>199</v>
       </c>
@@ -16115,7 +16122,7 @@
         <v>-0.13200000000000001</v>
       </c>
     </row>
-    <row r="540" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B540" s="1" t="s">
         <v>200</v>
       </c>
@@ -16132,7 +16139,7 @@
         <v>-0.24199999999999999</v>
       </c>
     </row>
-    <row r="541" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B541" s="1" t="s">
         <v>201</v>
       </c>
@@ -16146,7 +16153,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="542" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B542" s="1" t="s">
         <v>202</v>
       </c>
@@ -16160,7 +16167,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="543" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B543" s="1" t="s">
         <v>261</v>
       </c>
@@ -16174,7 +16181,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="544" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B544" s="1" t="s">
         <v>262</v>
       </c>
@@ -16188,7 +16195,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="545" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B545" s="1" t="s">
         <v>263</v>
       </c>
@@ -16202,7 +16209,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="546" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B546" s="1" t="s">
         <v>264</v>
       </c>
@@ -16216,7 +16223,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="547" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B547" s="1" t="s">
         <v>265</v>
       </c>
@@ -16230,7 +16237,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="548" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B548" s="1" t="s">
         <v>266</v>
       </c>
@@ -16247,7 +16254,7 @@
         <v>-0.183</v>
       </c>
     </row>
-    <row r="549" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B549" s="1" t="s">
         <v>267</v>
       </c>
@@ -16261,7 +16268,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="550" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B550" s="1" t="s">
         <v>268</v>
       </c>
@@ -16275,7 +16282,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="551" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B551" s="1" t="s">
         <v>269</v>
       </c>
@@ -16289,7 +16296,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="552" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B552" s="1" t="s">
         <v>270</v>
       </c>
@@ -16303,7 +16310,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="553" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B553" s="1" t="s">
         <v>271</v>
       </c>
@@ -16317,7 +16324,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="554" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B554" s="1" t="s">
         <v>272</v>
       </c>
@@ -16331,7 +16338,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="555" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B555" s="1" t="s">
         <v>273</v>
       </c>
@@ -16345,7 +16352,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="556" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B556" s="1" t="s">
         <v>274</v>
       </c>
@@ -16359,7 +16366,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="557" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B557" s="1" t="s">
         <v>275</v>
       </c>
@@ -16373,7 +16380,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="558" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B558" s="1" t="s">
         <v>276</v>
       </c>
@@ -16387,7 +16394,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="559" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B559" s="1" t="s">
         <v>277</v>
       </c>
@@ -16401,7 +16408,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="560" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B560" s="1" t="s">
         <v>278</v>
       </c>
@@ -16415,7 +16422,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="561" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B561" s="1" t="s">
         <v>279</v>
       </c>
@@ -16432,7 +16439,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="562" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B562" s="1" t="s">
         <v>280</v>
       </c>
@@ -16449,7 +16456,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="563" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B563" s="1" t="s">
         <v>281</v>
       </c>
@@ -16463,7 +16470,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="564" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B564" s="1" t="s">
         <v>282</v>
       </c>
@@ -16480,7 +16487,7 @@
         <v>-5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="565" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B565" s="1" t="s">
         <v>283</v>
       </c>
@@ -16494,7 +16501,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="566" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B566" s="1" t="s">
         <v>284</v>
       </c>
@@ -16508,7 +16515,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="567" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B567" s="1" t="s">
         <v>285</v>
       </c>
@@ -16522,7 +16529,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="568" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B568" s="1" t="s">
         <v>286</v>
       </c>
@@ -16539,7 +16546,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="569" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B569" s="1" t="s">
         <v>332</v>
       </c>
@@ -16553,7 +16560,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="570" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B570" s="1" t="s">
         <v>333</v>
       </c>
@@ -16567,7 +16574,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="571" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B571" s="1" t="s">
         <v>334</v>
       </c>
@@ -16584,7 +16591,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="572" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B572" s="1" t="s">
         <v>335</v>
       </c>
@@ -16598,7 +16605,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="573" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B573" s="1" t="s">
         <v>336</v>
       </c>
@@ -16615,7 +16622,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="574" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B574" s="1" t="s">
         <v>337</v>
       </c>
@@ -16632,7 +16639,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="575" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B575" s="1" t="s">
         <v>338</v>
       </c>
@@ -16646,7 +16653,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="576" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B576" s="1" t="s">
         <v>339</v>
       </c>
@@ -16660,7 +16667,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="577" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B577" s="1" t="s">
         <v>340</v>
       </c>
@@ -16674,7 +16681,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="578" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B578" s="1" t="s">
         <v>341</v>
       </c>
@@ -16688,7 +16695,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="579" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B579" s="1" t="s">
         <v>342</v>
       </c>
@@ -16702,7 +16709,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="580" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B580" s="1" t="s">
         <v>343</v>
       </c>
@@ -16716,7 +16723,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="581" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B581" s="1" t="s">
         <v>344</v>
       </c>
@@ -16730,7 +16737,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="582" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B582" s="1" t="s">
         <v>345</v>
       </c>
@@ -16744,7 +16751,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="583" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B583" s="1" t="s">
         <v>346</v>
       </c>
@@ -16761,7 +16768,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="584" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B584" s="1" t="s">
         <v>347</v>
       </c>
@@ -16775,7 +16782,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="585" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B585" s="1" t="s">
         <v>348</v>
       </c>
@@ -16792,7 +16799,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="586" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B586" s="1" t="s">
         <v>349</v>
       </c>
@@ -16806,7 +16813,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="587" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B587" s="1" t="s">
         <v>350</v>
       </c>
@@ -16820,7 +16827,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="588" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B588" s="1" t="s">
         <v>351</v>
       </c>
@@ -16834,7 +16841,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="589" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B589" s="1" t="s">
         <v>352</v>
       </c>
@@ -16848,7 +16855,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="590" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B590" s="1" t="s">
         <v>353</v>
       </c>
@@ -16862,7 +16869,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="591" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B591" s="1" t="s">
         <v>354</v>
       </c>
@@ -16879,7 +16886,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="592" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B592" s="1" t="s">
         <v>355</v>
       </c>
@@ -16893,7 +16900,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="593" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B593" s="1" t="s">
         <v>356</v>
       </c>
@@ -16907,7 +16914,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="594" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B594" s="1" t="s">
         <v>357</v>
       </c>
@@ -16924,7 +16931,7 @@
         <v>-0.217</v>
       </c>
     </row>
-    <row r="595" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B595" s="1" t="s">
         <v>358</v>
       </c>
@@ -16938,7 +16945,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="596" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B596" s="1" t="s">
         <v>359</v>
       </c>
@@ -16952,7 +16959,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="597" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B597" s="1" t="s">
         <v>360</v>
       </c>
@@ -16966,7 +16973,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B598" s="1" t="s">
         <v>361</v>
       </c>
@@ -16983,7 +16990,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B599" s="1" t="s">
         <v>362</v>
       </c>
@@ -16997,7 +17004,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="600" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B600" s="1" t="s">
         <v>363</v>
       </c>
@@ -17014,7 +17021,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B601" s="1" t="s">
         <v>364</v>
       </c>
@@ -17028,7 +17035,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B602" s="1" t="s">
         <v>365</v>
       </c>
@@ -17042,7 +17049,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B603" s="1" t="s">
         <v>366</v>
       </c>
@@ -17056,7 +17063,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B604" s="1" t="s">
         <v>367</v>
       </c>
@@ -17070,7 +17077,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="605" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B605" s="1" t="s">
         <v>368</v>
       </c>
@@ -17084,7 +17091,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B606" s="1" t="s">
         <v>369</v>
       </c>
@@ -17098,7 +17105,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="607" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B607" s="1" t="s">
         <v>419</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B608" s="1" t="s">
         <v>420</v>
       </c>
@@ -17126,7 +17133,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="609" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B609" s="1" t="s">
         <v>421</v>
       </c>
@@ -17140,7 +17147,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="610" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B610" s="1" t="s">
         <v>422</v>
       </c>
@@ -17154,7 +17161,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="611" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B611" s="1" t="s">
         <v>423</v>
       </c>
@@ -17168,7 +17175,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="612" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B612" s="1" t="s">
         <v>424</v>
       </c>
@@ -17182,7 +17189,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="613" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B613" s="1" t="s">
         <v>425</v>
       </c>
@@ -17196,7 +17203,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="614" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B614" s="1" t="s">
         <v>426</v>
       </c>
@@ -17210,7 +17217,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="615" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B615" s="1" t="s">
         <v>427</v>
       </c>
@@ -17224,7 +17231,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="616" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B616" s="1" t="s">
         <v>428</v>
       </c>
@@ -17238,7 +17245,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="617" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B617" s="1" t="s">
         <v>429</v>
       </c>
@@ -17252,7 +17259,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="618" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B618" s="1" t="s">
         <v>430</v>
       </c>
@@ -17266,7 +17273,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="619" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B619" s="1" t="s">
         <v>431</v>
       </c>
@@ -17280,7 +17287,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="620" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B620" s="1" t="s">
         <v>432</v>
       </c>
@@ -17294,7 +17301,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="621" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B621" s="1" t="s">
         <v>433</v>
       </c>
@@ -17308,7 +17315,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="622" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B622" s="1" t="s">
         <v>434</v>
       </c>
@@ -17322,7 +17329,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="623" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B623" s="1" t="s">
         <v>435</v>
       </c>
@@ -17339,7 +17346,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="624" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B624" s="1" t="s">
         <v>436</v>
       </c>
@@ -17353,7 +17360,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="625" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B625" s="1" t="s">
         <v>437</v>
       </c>
@@ -17370,7 +17377,7 @@
         <v>-0.16400000000000001</v>
       </c>
     </row>
-    <row r="626" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B626" s="1" t="s">
         <v>438</v>
       </c>
@@ -17387,7 +17394,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="627" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B627" s="1" t="s">
         <v>439</v>
       </c>
@@ -17401,7 +17408,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="628" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B628" s="1" t="s">
         <v>440</v>
       </c>
@@ -17415,7 +17422,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="629" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B629" s="1" t="s">
         <v>441</v>
       </c>
@@ -17429,7 +17436,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="630" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B630" s="1" t="s">
         <v>442</v>
       </c>
@@ -17443,7 +17450,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="631" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B631" s="1" t="s">
         <v>443</v>
       </c>
@@ -17457,7 +17464,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="632" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B632" s="1" t="s">
         <v>444</v>
       </c>
@@ -17474,7 +17481,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="633" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B633" s="1" t="s">
         <v>445</v>
       </c>
@@ -17488,7 +17495,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="634" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B634" s="1" t="s">
         <v>446</v>
       </c>
@@ -17505,7 +17512,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="635" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B635" s="1" t="s">
         <v>447</v>
       </c>
@@ -17519,7 +17526,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="636" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B636" s="1" t="s">
         <v>448</v>
       </c>
@@ -17533,7 +17540,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="637" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B637" s="1" t="s">
         <v>449</v>
       </c>
@@ -17547,7 +17554,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="638" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B638" s="1" t="s">
         <v>450</v>
       </c>
@@ -17564,7 +17571,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="639" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B639" s="1" t="s">
         <v>451</v>
       </c>
@@ -17578,7 +17585,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="640" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B640" s="1" t="s">
         <v>452</v>
       </c>
@@ -17595,7 +17602,7 @@
         <v>-0.36499999999999999</v>
       </c>
     </row>
-    <row r="641" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B641" s="1" t="s">
         <v>453</v>
       </c>
@@ -17609,7 +17616,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="642" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B642" s="1" t="s">
         <v>454</v>
       </c>
@@ -17626,7 +17633,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="643" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B643" s="1" t="s">
         <v>455</v>
       </c>
@@ -17640,7 +17647,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="644" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B644" s="1" t="s">
         <v>456</v>
       </c>
@@ -17654,7 +17661,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="645" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B645" s="1" t="s">
         <v>509</v>
       </c>
@@ -17668,7 +17675,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="646" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B646" s="1" t="s">
         <v>510</v>
       </c>
@@ -17682,7 +17689,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="647" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B647" s="1" t="s">
         <v>511</v>
       </c>
@@ -17696,7 +17703,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="648" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B648" s="1" t="s">
         <v>512</v>
       </c>
@@ -17710,7 +17717,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="649" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B649" s="1" t="s">
         <v>513</v>
       </c>
@@ -17724,7 +17731,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="650" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B650" s="1" t="s">
         <v>514</v>
       </c>
@@ -17741,7 +17748,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="651" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B651" s="1" t="s">
         <v>515</v>
       </c>
@@ -17755,7 +17762,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="652" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B652" s="1" t="s">
         <v>516</v>
       </c>
@@ -17769,7 +17776,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="653" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B653" s="1" t="s">
         <v>517</v>
       </c>
@@ -17783,7 +17790,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="654" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B654" s="1" t="s">
         <v>518</v>
       </c>
@@ -17797,7 +17804,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="655" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B655" s="1" t="s">
         <v>519</v>
       </c>
@@ -17811,7 +17818,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="656" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B656" s="1" t="s">
         <v>520</v>
       </c>
@@ -17825,7 +17832,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="657" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B657" s="1" t="s">
         <v>521</v>
       </c>
@@ -17839,7 +17846,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="658" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B658" s="1" t="s">
         <v>522</v>
       </c>
@@ -17853,7 +17860,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="659" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B659" s="1" t="s">
         <v>523</v>
       </c>
@@ -17867,7 +17874,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="660" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B660" s="1" t="s">
         <v>377</v>
       </c>
@@ -17881,7 +17888,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="661" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B661" s="1" t="s">
         <v>524</v>
       </c>
@@ -17898,7 +17905,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="662" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B662" s="1" t="s">
         <v>525</v>
       </c>
@@ -17915,7 +17922,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="663" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B663" s="1" t="s">
         <v>526</v>
       </c>
@@ -17929,7 +17936,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="664" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B664" s="1" t="s">
         <v>527</v>
       </c>
@@ -17943,7 +17950,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="665" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B665" s="1" t="s">
         <v>528</v>
       </c>
@@ -17960,7 +17967,7 @@
         <v>-0.127</v>
       </c>
     </row>
-    <row r="666" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B666" s="1" t="s">
         <v>529</v>
       </c>
@@ -17974,7 +17981,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="667" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B667" s="1" t="s">
         <v>530</v>
       </c>
@@ -17988,7 +17995,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="668" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B668" s="1" t="s">
         <v>531</v>
       </c>
@@ -18002,7 +18009,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="669" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B669" s="1" t="s">
         <v>532</v>
       </c>
@@ -18016,7 +18023,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="670" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B670" s="1" t="s">
         <v>533</v>
       </c>
@@ -18030,7 +18037,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="671" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B671" s="1" t="s">
         <v>534</v>
       </c>
@@ -18047,7 +18054,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="672" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B672" s="1" t="s">
         <v>535</v>
       </c>
@@ -18064,7 +18071,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="673" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B673" s="1" t="s">
         <v>536</v>
       </c>
@@ -18078,7 +18085,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="674" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B674" s="1" t="s">
         <v>579</v>
       </c>
@@ -18092,7 +18099,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="675" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B675" s="1" t="s">
         <v>580</v>
       </c>
@@ -18106,7 +18113,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="676" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B676" s="1" t="s">
         <v>581</v>
       </c>
@@ -18120,7 +18127,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="677" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B677" s="1" t="s">
         <v>582</v>
       </c>
@@ -18134,7 +18141,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="678" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B678" s="1" t="s">
         <v>583</v>
       </c>
@@ -18151,7 +18158,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="679" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B679" s="1" t="s">
         <v>584</v>
       </c>
@@ -18165,7 +18172,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="680" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B680" s="1" t="s">
         <v>585</v>
       </c>
@@ -18179,7 +18186,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="681" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B681" s="1" t="s">
         <v>586</v>
       </c>
@@ -18193,7 +18200,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="682" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B682" s="1" t="s">
         <v>587</v>
       </c>
@@ -18207,7 +18214,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="683" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B683" s="1" t="s">
         <v>588</v>
       </c>
@@ -18221,7 +18228,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="684" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B684" s="1" t="s">
         <v>589</v>
       </c>
@@ -18235,7 +18242,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="685" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B685" s="1" t="s">
         <v>590</v>
       </c>
@@ -18249,7 +18256,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="686" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B686" s="1" t="s">
         <v>591</v>
       </c>
@@ -18263,7 +18270,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="687" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B687" s="1" t="s">
         <v>592</v>
       </c>
@@ -18277,7 +18284,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="688" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B688" s="1" t="s">
         <v>593</v>
       </c>
@@ -18291,7 +18298,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="689" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B689" s="1" t="s">
         <v>594</v>
       </c>
@@ -18308,7 +18315,7 @@
         <v>-0.312</v>
       </c>
     </row>
-    <row r="690" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B690" s="1" t="s">
         <v>595</v>
       </c>
@@ -18322,7 +18329,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="691" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B691" s="1" t="s">
         <v>596</v>
       </c>
@@ -18336,7 +18343,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="692" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B692" s="1" t="s">
         <v>597</v>
       </c>
@@ -18350,7 +18357,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="693" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B693" s="1" t="s">
         <v>598</v>
       </c>
@@ -18364,7 +18371,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="694" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B694" s="1" t="s">
         <v>599</v>
       </c>
@@ -18378,7 +18385,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="695" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B695" s="1" t="s">
         <v>600</v>
       </c>
@@ -18395,7 +18402,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="696" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B696" s="1" t="s">
         <v>601</v>
       </c>
@@ -18412,7 +18419,7 @@
         <v>-6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="697" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B697" s="1" t="s">
         <v>602</v>
       </c>
@@ -18429,7 +18436,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="698" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B698" s="1" t="s">
         <v>603</v>
       </c>
@@ -18443,7 +18450,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="699" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B699" s="1" t="s">
         <v>604</v>
       </c>
@@ -18457,7 +18464,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="700" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B700" s="1" t="s">
         <v>605</v>
       </c>
@@ -18471,7 +18478,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="701" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B701" s="1" t="s">
         <v>606</v>
       </c>
@@ -18485,7 +18492,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="702" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B702" s="1" t="s">
         <v>607</v>
       </c>
@@ -18499,7 +18506,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="703" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B703" s="1" t="s">
         <v>608</v>
       </c>
@@ -18516,7 +18523,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="704" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B704" s="1" t="s">
         <v>609</v>
       </c>
@@ -18530,7 +18537,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="705" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B705" s="1" t="s">
         <v>610</v>
       </c>
@@ -18544,7 +18551,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="706" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B706" s="1" t="s">
         <v>667</v>
       </c>
@@ -18558,7 +18565,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="707" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B707" s="1" t="s">
         <v>37</v>
       </c>
@@ -18572,7 +18579,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="708" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B708" s="1" t="s">
         <v>668</v>
       </c>
@@ -18589,7 +18596,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="709" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B709" s="1" t="s">
         <v>669</v>
       </c>
@@ -18603,7 +18610,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="710" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B710" s="1" t="s">
         <v>670</v>
       </c>
@@ -18620,7 +18627,7 @@
         <v>-0.19900000000000001</v>
       </c>
     </row>
-    <row r="711" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B711" s="1" t="s">
         <v>671</v>
       </c>
@@ -18634,7 +18641,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="712" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B712" s="1" t="s">
         <v>672</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="713" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B713" s="1" t="s">
         <v>673</v>
       </c>
@@ -18662,7 +18669,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="714" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B714" s="1" t="s">
         <v>674</v>
       </c>
@@ -18676,7 +18683,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="715" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B715" s="1" t="s">
         <v>675</v>
       </c>
@@ -18693,7 +18700,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="716" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B716" s="1" t="s">
         <v>676</v>
       </c>
@@ -18707,7 +18714,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="717" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B717" s="1" t="s">
         <v>677</v>
       </c>
@@ -18721,7 +18728,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="718" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B718" s="1" t="s">
         <v>678</v>
       </c>
@@ -18735,7 +18742,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="719" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B719" s="1" t="s">
         <v>679</v>
       </c>
@@ -18749,7 +18756,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="720" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B720" s="1" t="s">
         <v>680</v>
       </c>
@@ -18763,7 +18770,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="721" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B721" s="1" t="s">
         <v>681</v>
       </c>
@@ -18777,7 +18784,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="722" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B722" s="1" t="s">
         <v>682</v>
       </c>
@@ -18791,7 +18798,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="723" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B723" s="1" t="s">
         <v>683</v>
       </c>
@@ -18805,7 +18812,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="724" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B724" s="1" t="s">
         <v>684</v>
       </c>
@@ -18819,7 +18826,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="725" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B725" s="1" t="s">
         <v>685</v>
       </c>
@@ -18833,7 +18840,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="726" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B726" s="1" t="s">
         <v>686</v>
       </c>
@@ -18847,7 +18854,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="727" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B727" s="1" t="s">
         <v>687</v>
       </c>
@@ -18861,7 +18868,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="728" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B728" s="1" t="s">
         <v>688</v>
       </c>
@@ -18878,7 +18885,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="729" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B729" s="1" t="s">
         <v>689</v>
       </c>
@@ -18892,7 +18899,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="730" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B730" s="1" t="s">
         <v>690</v>
       </c>
@@ -18906,7 +18913,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="731" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B731" s="1" t="s">
         <v>691</v>
       </c>
@@ -18920,7 +18927,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="732" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B732" s="1" t="s">
         <v>233</v>
       </c>
@@ -18937,7 +18944,7 @@
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="733" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B733" s="1" t="s">
         <v>692</v>
       </c>
@@ -18951,7 +18958,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="734" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B734" s="1" t="s">
         <v>693</v>
       </c>
@@ -18965,7 +18972,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="735" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B735" s="1" t="s">
         <v>587</v>
       </c>
@@ -18982,7 +18989,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="736" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B736" s="1" t="s">
         <v>738</v>
       </c>
@@ -18996,7 +19003,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="737" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B737" s="1" t="s">
         <v>739</v>
       </c>
@@ -19010,7 +19017,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="738" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B738" s="1" t="s">
         <v>740</v>
       </c>
@@ -19024,7 +19031,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="739" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B739" s="1" t="s">
         <v>741</v>
       </c>
@@ -19041,7 +19048,7 @@
         <v>-0.30299999999999999</v>
       </c>
     </row>
-    <row r="740" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B740" s="1" t="s">
         <v>742</v>
       </c>
@@ -19058,7 +19065,7 @@
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="741" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B741" s="1" t="s">
         <v>743</v>
       </c>
@@ -19075,7 +19082,7 @@
         <v>-0.17599999999999999</v>
       </c>
     </row>
-    <row r="742" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B742" s="1" t="s">
         <v>744</v>
       </c>
@@ -19089,7 +19096,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="743" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B743" s="1" t="s">
         <v>745</v>
       </c>
@@ -19103,7 +19110,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="744" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B744" s="1" t="s">
         <v>746</v>
       </c>
@@ -19117,7 +19124,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="745" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B745" s="1" t="s">
         <v>747</v>
       </c>
@@ -19131,7 +19138,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="746" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B746" s="1" t="s">
         <v>748</v>
       </c>
@@ -19145,7 +19152,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="747" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B747" s="1" t="s">
         <v>749</v>
       </c>
@@ -19159,7 +19166,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="748" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B748" s="1" t="s">
         <v>750</v>
       </c>
@@ -19173,7 +19180,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="749" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B749" s="1" t="s">
         <v>751</v>
       </c>
@@ -19187,7 +19194,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="750" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B750" s="1" t="s">
         <v>752</v>
       </c>
@@ -19201,7 +19208,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="751" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B751" s="1" t="s">
         <v>753</v>
       </c>
@@ -19215,7 +19222,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="752" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B752" s="1" t="s">
         <v>754</v>
       </c>
@@ -19229,7 +19236,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="753" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B753" s="1" t="s">
         <v>755</v>
       </c>
@@ -19246,7 +19253,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="754" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B754" s="1" t="s">
         <v>756</v>
       </c>
@@ -19260,7 +19267,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="755" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B755" s="1" t="s">
         <v>757</v>
       </c>
@@ -19277,7 +19284,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="756" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B756" s="1" t="s">
         <v>758</v>
       </c>
@@ -19294,7 +19301,7 @@
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="757" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B757" s="1" t="s">
         <v>759</v>
       </c>
@@ -19311,7 +19318,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="758" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B758" s="1" t="s">
         <v>760</v>
       </c>
@@ -19325,7 +19332,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="759" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B759" s="1" t="s">
         <v>761</v>
       </c>
@@ -19339,7 +19346,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="760" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B760" s="1" t="s">
         <v>762</v>
       </c>
@@ -19353,7 +19360,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="761" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B761" s="1" t="s">
         <v>763</v>
       </c>
@@ -19367,7 +19374,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="762" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B762" s="1" t="s">
         <v>381</v>
       </c>
@@ -19381,7 +19388,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="763" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B763" s="1" t="s">
         <v>764</v>
       </c>
@@ -19395,7 +19402,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="764" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B764" s="1" t="s">
         <v>765</v>
       </c>
@@ -19409,7 +19416,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="765" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B765" s="1" t="s">
         <v>766</v>
       </c>
@@ -19423,7 +19430,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="766" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B766" s="1" t="s">
         <v>554</v>
       </c>
@@ -19437,7 +19444,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="767" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B767" s="1" t="s">
         <v>767</v>
       </c>
@@ -19454,7 +19461,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="768" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B768" s="1" t="s">
         <v>768</v>
       </c>
@@ -19468,7 +19475,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="769" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B769" s="1" t="s">
         <v>769</v>
       </c>
@@ -19482,7 +19489,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="770" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B770" s="1" t="s">
         <v>770</v>
       </c>
@@ -19496,7 +19503,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="771" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B771" s="1" t="s">
         <v>811</v>
       </c>
@@ -19513,7 +19520,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="772" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B772" s="1" t="s">
         <v>812</v>
       </c>
@@ -19527,7 +19534,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="773" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B773" s="1" t="s">
         <v>813</v>
       </c>
@@ -19541,7 +19548,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="774" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B774" s="1" t="s">
         <v>814</v>
       </c>
@@ -19558,7 +19565,7 @@
         <v>-0.52700000000000002</v>
       </c>
     </row>
-    <row r="775" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B775" s="1" t="s">
         <v>815</v>
       </c>
@@ -19575,7 +19582,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="776" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B776" s="1" t="s">
         <v>816</v>
       </c>
@@ -19589,7 +19596,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="777" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B777" s="1" t="s">
         <v>817</v>
       </c>
@@ -19603,7 +19610,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="778" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B778" s="1" t="s">
         <v>818</v>
       </c>
@@ -19617,7 +19624,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="779" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B779" s="1" t="s">
         <v>819</v>
       </c>
@@ -19634,7 +19641,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="780" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B780" s="1" t="s">
         <v>584</v>
       </c>
@@ -19648,7 +19655,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="781" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B781" s="1" t="s">
         <v>820</v>
       </c>
@@ -19662,7 +19669,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="782" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B782" s="1" t="s">
         <v>821</v>
       </c>
@@ -19676,7 +19683,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="783" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B783" s="1" t="s">
         <v>822</v>
       </c>
@@ -19690,7 +19697,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="784" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B784" s="1" t="s">
         <v>823</v>
       </c>
@@ -19704,7 +19711,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="785" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B785" s="1" t="s">
         <v>824</v>
       </c>
@@ -19718,7 +19725,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="786" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B786" s="1" t="s">
         <v>825</v>
       </c>
@@ -19732,7 +19739,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="787" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B787" s="1" t="s">
         <v>826</v>
       </c>
@@ -19746,7 +19753,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="788" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B788" s="1" t="s">
         <v>827</v>
       </c>
@@ -19760,7 +19767,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="789" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B789" s="1" t="s">
         <v>828</v>
       </c>
@@ -19777,7 +19784,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="790" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B790" s="1" t="s">
         <v>829</v>
       </c>
@@ -19791,7 +19798,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="791" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B791" s="1" t="s">
         <v>830</v>
       </c>
@@ -19805,7 +19812,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="792" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B792" s="1" t="s">
         <v>831</v>
       </c>
@@ -19822,7 +19829,7 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="793" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B793" s="1" t="s">
         <v>358</v>
       </c>
@@ -19839,7 +19846,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="794" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B794" s="1" t="s">
         <v>832</v>
       </c>
@@ -19853,7 +19860,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="795" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B795" s="1" t="s">
         <v>833</v>
       </c>
@@ -19867,7 +19874,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="796" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B796" s="1" t="s">
         <v>834</v>
       </c>
@@ -19884,7 +19891,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="797" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B797" s="1" t="s">
         <v>835</v>
       </c>
@@ -19901,7 +19908,7 @@
         <v>-0.27700000000000002</v>
       </c>
     </row>
-    <row r="798" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B798" s="1" t="s">
         <v>836</v>
       </c>
@@ -19918,7 +19925,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="799" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B799" s="1" t="s">
         <v>837</v>
       </c>
@@ -19932,7 +19939,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="800" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B800" s="1" t="s">
         <v>838</v>
       </c>
@@ -19946,7 +19953,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="801" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B801" s="1" t="s">
         <v>839</v>
       </c>
@@ -19960,7 +19967,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="802" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B802" s="1" t="s">
         <v>840</v>
       </c>
@@ -19974,7 +19981,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="803" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B803" s="1" t="s">
         <v>841</v>
       </c>
@@ -19988,7 +19995,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="804" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B804" s="1" t="s">
         <v>842</v>
       </c>
@@ -20002,7 +20009,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="805" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B805" s="1" t="s">
         <v>843</v>
       </c>
@@ -20016,7 +20023,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="806" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B806" s="1" t="s">
         <v>844</v>
       </c>
@@ -20030,7 +20037,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="807" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B807" s="1" t="s">
         <v>244</v>
       </c>
@@ -20044,7 +20051,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="808" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B808" s="1" t="s">
         <v>845</v>
       </c>
@@ -20058,7 +20065,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="809" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B809" s="1" t="s">
         <v>846</v>
       </c>
@@ -20072,7 +20079,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="810" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B810" s="1" t="s">
         <v>847</v>
       </c>
@@ -20086,7 +20093,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="811" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B811" s="1" t="s">
         <v>848</v>
       </c>
@@ -20103,7 +20110,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="812" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B812" s="1" t="s">
         <v>849</v>
       </c>
@@ -20120,7 +20127,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="813" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B813" s="1" t="s">
         <v>850</v>
       </c>
@@ -20134,7 +20141,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="814" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B814" s="1" t="s">
         <v>851</v>
       </c>
@@ -20148,7 +20155,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="815" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B815" s="1" t="s">
         <v>852</v>
       </c>
@@ -20162,7 +20169,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="816" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B816" s="1" t="s">
         <v>902</v>
       </c>
@@ -20176,7 +20183,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="817" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B817" s="1" t="s">
         <v>903</v>
       </c>
@@ -20190,7 +20197,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="818" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B818" s="1" t="s">
         <v>727</v>
       </c>
@@ -20204,7 +20211,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="819" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B819" s="1" t="s">
         <v>904</v>
       </c>
@@ -20218,7 +20225,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="820" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B820" s="1" t="s">
         <v>905</v>
       </c>
@@ -20232,7 +20239,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="821" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B821" s="1" t="s">
         <v>906</v>
       </c>
@@ -20246,7 +20253,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="822" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B822" s="1" t="s">
         <v>907</v>
       </c>
@@ -20260,7 +20267,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="823" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B823" s="1" t="s">
         <v>908</v>
       </c>
@@ -20274,7 +20281,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="824" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B824" s="1" t="s">
         <v>909</v>
       </c>
@@ -20288,7 +20295,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="825" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B825" s="1" t="s">
         <v>910</v>
       </c>
@@ -20302,7 +20309,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="826" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B826" s="1" t="s">
         <v>656</v>
       </c>
@@ -20316,7 +20323,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="827" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B827" s="1" t="s">
         <v>911</v>
       </c>
@@ -20330,7 +20337,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="828" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B828" s="1" t="s">
         <v>912</v>
       </c>
@@ -20344,7 +20351,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="829" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B829" s="1" t="s">
         <v>913</v>
       </c>
@@ -20358,7 +20365,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="830" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B830" s="1" t="s">
         <v>914</v>
       </c>
@@ -20375,7 +20382,7 @@
         <v>-0.104</v>
       </c>
     </row>
-    <row r="831" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B831" s="1" t="s">
         <v>915</v>
       </c>
@@ -20389,7 +20396,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="832" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B832" s="1" t="s">
         <v>916</v>
       </c>
@@ -20403,7 +20410,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="833" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B833" s="1" t="s">
         <v>917</v>
       </c>
@@ -20417,7 +20424,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="834" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B834" s="1" t="s">
         <v>918</v>
       </c>
@@ -20431,7 +20438,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="835" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B835" s="1" t="s">
         <v>919</v>
       </c>
@@ -20448,7 +20455,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="836" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B836" s="1" t="s">
         <v>920</v>
       </c>
@@ -20462,7 +20469,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="837" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B837" s="1" t="s">
         <v>921</v>
       </c>
@@ -20479,7 +20486,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="838" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B838" s="1" t="s">
         <v>922</v>
       </c>
@@ -20496,7 +20503,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="839" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B839" s="1" t="s">
         <v>923</v>
       </c>
@@ -20513,7 +20520,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="840" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B840" s="1" t="s">
         <v>924</v>
       </c>
@@ -20527,7 +20534,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="841" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B841" s="1" t="s">
         <v>925</v>
       </c>
@@ -20544,7 +20551,7 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="842" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B842" s="1" t="s">
         <v>926</v>
       </c>
@@ -20558,7 +20565,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="843" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B843" s="1" t="s">
         <v>248</v>
       </c>
